--- a/src/EPPlusTest/Workbooks/PivotTableCalculation.xlsx
+++ b/src/EPPlusTest/Workbooks/PivotTableCalculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kod\EPPlusSoftware\EPPlus7\EPPlus\src\EPPlusTest\Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31BDFB4-E70C-48BC-A782-52403BC86989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A001C5B8-43FB-4346-A98D-D9BB92EE239B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{200B1F7E-8BFE-40B8-B944-8AFB90FBF3BA}"/>
+    <workbookView xWindow="10680" yWindow="4185" windowWidth="64545" windowHeight="15585" activeTab="1" xr2:uid="{200B1F7E-8BFE-40B8-B944-8AFB90FBF3BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="871">
   <si>
     <t>Items</t>
   </si>
@@ -2647,6 +2647,12 @@
   </si>
   <si>
     <t>Sum of Score</t>
+  </si>
+  <si>
+    <t>Average of OrderValue2</t>
+  </si>
+  <si>
+    <t>Count of OrderValue2</t>
   </si>
 </sst>
 </file>
@@ -2697,7 +2703,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -2713,6 +2719,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2801,7 +2808,208 @@
   </cacheSource>
   <cacheFields count="13">
     <cacheField name="Name" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="200">
+        <s v="Marsden Peterson"/>
+        <s v="Craig Shaffer"/>
+        <s v="Christopher Holt"/>
+        <s v="Rhiannon Vazquez"/>
+        <s v="Brody Cunningham"/>
+        <s v="Sasha Delgado"/>
+        <s v="Lacy Pitts"/>
+        <s v="Christine Morrison"/>
+        <s v="Dennis Murray"/>
+        <s v="Brooke Buck"/>
+        <s v="Barclay Christian"/>
+        <s v="Drew Townsend"/>
+        <s v="Laith Campbell"/>
+        <s v="Ifeoma Larson"/>
+        <s v="Reuben Mooney"/>
+        <s v="Kim Osborne"/>
+        <s v="Leilani Mayer"/>
+        <s v="Kevyn Kent"/>
+        <s v="Armand Wall"/>
+        <s v="Tamekah Huff"/>
+        <s v="Sybil Andrews"/>
+        <s v="Lars Gilliam"/>
+        <s v="Grace Skinner"/>
+        <s v="Yuri Justice"/>
+        <s v="Veronica Brewer"/>
+        <s v="Cody Velez"/>
+        <s v="Jada Poole"/>
+        <s v="Yuli Roman"/>
+        <s v="Caesar Schwartz"/>
+        <s v="Maya Lowery"/>
+        <s v="Damon David"/>
+        <s v="Kerry Burt"/>
+        <s v="Stone Molina"/>
+        <s v="Talon Roach"/>
+        <s v="Nasim King"/>
+        <s v="Oren Sweeney"/>
+        <s v="Idola Bennett"/>
+        <s v="Akeem Park"/>
+        <s v="Lois Lester"/>
+        <s v="Stella Webb"/>
+        <s v="Rana Ratliff"/>
+        <s v="Holly Coffey"/>
+        <s v="Sydnee Hyde"/>
+        <s v="Jessica Barrett"/>
+        <s v="Xenos Floyd"/>
+        <s v="Neil Jones"/>
+        <s v="Ray Zimmerman"/>
+        <s v="Haviva Walsh"/>
+        <s v="Silas Talley"/>
+        <s v="Candice Sampson"/>
+        <s v="Bell Hatfield"/>
+        <s v="Lila Blankenship"/>
+        <s v="Ora Wiggins"/>
+        <s v="Leslie Keller"/>
+        <s v="Alexandra Soto"/>
+        <s v="Scarlett Jordan"/>
+        <s v="Darryl Mcguire"/>
+        <s v="Vincent Sims"/>
+        <s v="Lucian Estrada"/>
+        <s v="Odysseus Mcpherson"/>
+        <s v="Adena Gibson"/>
+        <s v="Kirby Holman"/>
+        <s v="Dolan Whitley"/>
+        <s v="Cynthia Everett"/>
+        <s v="Xanthus Shaffer"/>
+        <s v="Nigel Aguilar"/>
+        <s v="Steven Snow"/>
+        <s v="Lawrence Case"/>
+        <s v="Quamar Williams"/>
+        <s v="Plato Mcmahon"/>
+        <s v="Dean Wilkins"/>
+        <s v="Wade Perez"/>
+        <s v="Raven Sargent"/>
+        <s v="Kylynn Dale"/>
+        <s v="Jane Turner"/>
+        <s v="Pascale Armstrong"/>
+        <s v="Dale Hester"/>
+        <s v="Tad Small"/>
+        <s v="Kristen Rich"/>
+        <s v="Xavier Potter"/>
+        <s v="Lavinia Ferrell"/>
+        <s v="Josephine Owens"/>
+        <s v="Thor Noble"/>
+        <s v="Ignacia Davidson"/>
+        <s v="Macy Crane"/>
+        <s v="Demetrius Mclaughlin"/>
+        <s v="Sydnee Morse"/>
+        <s v="Kevin Cooley"/>
+        <s v="Hillary Livingston"/>
+        <s v="Tarik Taylor"/>
+        <s v="Orla Randolph"/>
+        <s v="Amity Macias"/>
+        <s v="Kirsten Odom"/>
+        <s v="Adrienne Justice"/>
+        <s v="Althea Todd"/>
+        <s v="Kevin Boone"/>
+        <s v="Dexter Avila"/>
+        <s v="Joel Miles"/>
+        <s v="Iola Ratliff"/>
+        <s v="Dean Mooney"/>
+        <s v="Griffith Stokes"/>
+        <s v="Demetrius Summers"/>
+        <s v="Delilah Blanchard"/>
+        <s v="Jana Talley"/>
+        <s v="Kiayada Sheppard"/>
+        <s v="Lance Sampson"/>
+        <s v="Curran Snow"/>
+        <s v="Cleo Castaneda"/>
+        <s v="Salvador Owens"/>
+        <s v="Ila Holder"/>
+        <s v="Dennis Nixon"/>
+        <s v="Cain Cunningham"/>
+        <s v="Malcolm Fitzgerald"/>
+        <s v="Irene Love"/>
+        <s v="Georgia Whitaker"/>
+        <s v="Nomlanga Quinn"/>
+        <s v="Malik Watkins"/>
+        <s v="Rowan Bowman"/>
+        <s v="Timothy Weeks"/>
+        <s v="Melissa Phelps"/>
+        <s v="Octavius Riley"/>
+        <s v="Ori Donaldson"/>
+        <s v="Brandon Montoya"/>
+        <s v="Anne Boyle"/>
+        <s v="Jasper Rodriguez"/>
+        <s v="Cameron Talley"/>
+        <s v="Chase Page"/>
+        <s v="Russell Goodwin"/>
+        <s v="Moses Williamson"/>
+        <s v="Quinn Alexander"/>
+        <s v="Rylee Beard"/>
+        <s v="Kelly Austin"/>
+        <s v="Zorita Rivas"/>
+        <s v="Geoffrey Fleming"/>
+        <s v="Regina Stokes"/>
+        <s v="Xantha Michael"/>
+        <s v="Stephanie Berg"/>
+        <s v="Arsenio Farley"/>
+        <s v="Mona Sawyer"/>
+        <s v="Deanna Colon"/>
+        <s v="Barrett William"/>
+        <s v="Tashya Reeves"/>
+        <s v="Evan Baker"/>
+        <s v="Aaron Horton"/>
+        <s v="Idona Austin"/>
+        <s v="Aladdin Conrad"/>
+        <s v="Renee Barron"/>
+        <s v="Natalie Burt"/>
+        <s v="Fitzgerald Case"/>
+        <s v="Colin Lambert"/>
+        <s v="Keely Spears"/>
+        <s v="Hayes Paul"/>
+        <s v="Dale Holcomb"/>
+        <s v="Tamara Juarez"/>
+        <s v="Kasper Noel"/>
+        <s v="Francesca Pratt"/>
+        <s v="Gray Goodman"/>
+        <s v="Noah Boone"/>
+        <s v="Nelle Moon"/>
+        <s v="Uma Albert"/>
+        <s v="Raya Rivers"/>
+        <s v="Yvette Mcgee"/>
+        <s v="Harriet Mejia"/>
+        <s v="Yuli Fowler"/>
+        <s v="Kenyon Taylor"/>
+        <s v="Heidi Callahan"/>
+        <s v="Shelby Morrow"/>
+        <s v="Hadley Dunn"/>
+        <s v="Peter Haney"/>
+        <s v="Xena Ford"/>
+        <s v="Kelly Stark"/>
+        <s v="Madonna Mullen"/>
+        <s v="Emery Barnes"/>
+        <s v="Vanna Owen"/>
+        <s v="Avram Ewing"/>
+        <s v="Karyn Blevins"/>
+        <s v="Zachery Webster"/>
+        <s v="Illiana Gregory"/>
+        <s v="Dennis Battle"/>
+        <s v="Randall Doyle"/>
+        <s v="Isaac Potts"/>
+        <s v="Kiara Higgins"/>
+        <s v="Ursa Solomon"/>
+        <s v="Carter Willis"/>
+        <s v="Demetrius Porter"/>
+        <s v="Aaron Sims"/>
+        <s v="Hakeem Pugh"/>
+        <s v="Reagan Coffey"/>
+        <s v="Amal Snow"/>
+        <s v="Nola Schmidt"/>
+        <s v="Alec Douglas"/>
+        <s v="Clio Mccullough"/>
+        <s v="Chantale Woodard"/>
+        <s v="Graiden Lancaster"/>
+        <s v="Malik Bird"/>
+        <s v="Price Padilla"/>
+        <s v="Emerson Deleon"/>
+        <s v="Katelyn Harris"/>
+        <s v="Walter Suarez"/>
+        <s v="Alexis Meyers"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Phone" numFmtId="0">
       <sharedItems/>
@@ -3240,7 +3448,7 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="200">
   <r>
-    <s v="Marsden Peterson"/>
+    <x v="0"/>
     <s v="1-371-927-3444"/>
     <s v="erat.etiam@aol.org"/>
     <n v="84412"/>
@@ -3254,7 +3462,7 @@
     <n v="99.92"/>
   </r>
   <r>
-    <s v="Craig Shaffer"/>
+    <x v="1"/>
     <s v="1-768-598-8326"/>
     <s v="varius.et@google.org"/>
     <n v="149260"/>
@@ -3268,7 +3476,7 @@
     <n v="96.02"/>
   </r>
   <r>
-    <s v="Christopher Holt"/>
+    <x v="2"/>
     <s v="(670) 567-7526"/>
     <s v="feugiat@google.edu"/>
     <n v="61326"/>
@@ -3282,7 +3490,7 @@
     <n v="80.260000000000005"/>
   </r>
   <r>
-    <s v="Rhiannon Vazquez"/>
+    <x v="3"/>
     <s v="(216) 814-3208"/>
     <s v="egestas.rhoncus@google.co.uk"/>
     <n v="8012"/>
@@ -3296,7 +3504,7 @@
     <n v="52.17"/>
   </r>
   <r>
-    <s v="Brody Cunningham"/>
+    <x v="4"/>
     <s v="(416) 673-2316"/>
     <s v="sem.vitae@outlook.co.uk"/>
     <n v="66315"/>
@@ -3310,7 +3518,7 @@
     <n v="99.87"/>
   </r>
   <r>
-    <s v="Sasha Delgado"/>
+    <x v="5"/>
     <s v="(895) 705-7353"/>
     <s v="odio.vel.est@aol.org"/>
     <n v="28572"/>
@@ -3324,7 +3532,7 @@
     <n v="8.84"/>
   </r>
   <r>
-    <s v="Lacy Pitts"/>
+    <x v="6"/>
     <s v="(472) 673-2372"/>
     <s v="tincidunt.pede@google.com"/>
     <n v="17201"/>
@@ -3338,7 +3546,7 @@
     <n v="14.44"/>
   </r>
   <r>
-    <s v="Christine Morrison"/>
+    <x v="7"/>
     <s v="(130) 471-1838"/>
     <s v="ut.dolor@icloud.org"/>
     <n v="681748"/>
@@ -3352,7 +3560,7 @@
     <n v="88.55"/>
   </r>
   <r>
-    <s v="Dennis Murray"/>
+    <x v="8"/>
     <s v="(833) 587-8365"/>
     <s v="turpis.egestas.fusce@google.org"/>
     <n v="3398"/>
@@ -3366,7 +3574,7 @@
     <n v="27.35"/>
   </r>
   <r>
-    <s v="Brooke Buck"/>
+    <x v="9"/>
     <s v="(437) 839-8779"/>
     <s v="etiam.bibendum@protonmail.net"/>
     <n v="65453"/>
@@ -3380,7 +3588,7 @@
     <n v="22.34"/>
   </r>
   <r>
-    <s v="Barclay Christian"/>
+    <x v="10"/>
     <s v="1-657-537-7712"/>
     <s v="cursus@outlook.net"/>
     <s v="23049-53356"/>
@@ -3394,7 +3602,7 @@
     <n v="91.72"/>
   </r>
   <r>
-    <s v="Drew Townsend"/>
+    <x v="11"/>
     <s v="1-343-577-2718"/>
     <s v="quisque.porttitor@aol.com"/>
     <s v="5837-0931"/>
@@ -3408,7 +3616,7 @@
     <n v="16.62"/>
   </r>
   <r>
-    <s v="Laith Campbell"/>
+    <x v="12"/>
     <s v="(652) 498-1353"/>
     <s v="non.vestibulum.nec@yahoo.org"/>
     <n v="9232"/>
@@ -3422,7 +3630,7 @@
     <n v="46.45"/>
   </r>
   <r>
-    <s v="Ifeoma Larson"/>
+    <x v="13"/>
     <s v="1-477-595-4571"/>
     <s v="non.lobortis@yahoo.net"/>
     <n v="674851"/>
@@ -3436,7 +3644,7 @@
     <n v="24.09"/>
   </r>
   <r>
-    <s v="Reuben Mooney"/>
+    <x v="14"/>
     <s v="1-713-571-1354"/>
     <s v="neque@outlook.edu"/>
     <n v="44456"/>
@@ -3450,7 +3658,7 @@
     <n v="9.1"/>
   </r>
   <r>
-    <s v="Kim Osborne"/>
+    <x v="15"/>
     <s v="1-237-519-7528"/>
     <s v="integer.aliquam.adipiscing@aol.ca"/>
     <s v="V6J 4M2"/>
@@ -3464,7 +3672,7 @@
     <n v="87.53"/>
   </r>
   <r>
-    <s v="Leilani Mayer"/>
+    <x v="16"/>
     <s v="1-783-284-3908"/>
     <s v="et.nunc@hotmail.com"/>
     <s v="58763-178"/>
@@ -3478,7 +3686,7 @@
     <n v="66.650000000000006"/>
   </r>
   <r>
-    <s v="Kevyn Kent"/>
+    <x v="17"/>
     <s v="(838) 144-5959"/>
     <s v="nisi.magna@protonmail.com"/>
     <n v="41418"/>
@@ -3492,7 +3700,7 @@
     <n v="69.62"/>
   </r>
   <r>
-    <s v="Armand Wall"/>
+    <x v="18"/>
     <s v="(775) 260-9303"/>
     <s v="per.conubia@icloud.ca"/>
     <s v="25-48"/>
@@ -3506,7 +3714,7 @@
     <n v="29.13"/>
   </r>
   <r>
-    <s v="Tamekah Huff"/>
+    <x v="19"/>
     <s v="(223) 232-5914"/>
     <s v="nam@yahoo.org"/>
     <s v="8431-5431"/>
@@ -3520,7 +3728,7 @@
     <n v="23.48"/>
   </r>
   <r>
-    <s v="Sybil Andrews"/>
+    <x v="20"/>
     <s v="(884) 824-7658"/>
     <s v="nisl.nulla.eu@protonmail.edu"/>
     <s v="96-27"/>
@@ -3534,7 +3742,7 @@
     <n v="84.21"/>
   </r>
   <r>
-    <s v="Lars Gilliam"/>
+    <x v="21"/>
     <s v="(859) 647-0647"/>
     <s v="ut.molestie@protonmail.edu"/>
     <n v="2533"/>
@@ -3548,7 +3756,7 @@
     <n v="20.28"/>
   </r>
   <r>
-    <s v="Grace Skinner"/>
+    <x v="22"/>
     <s v="1-578-412-9585"/>
     <s v="at@hotmail.net"/>
     <n v="188283"/>
@@ -3562,7 +3770,7 @@
     <n v="63.92"/>
   </r>
   <r>
-    <s v="Yuri Justice"/>
+    <x v="23"/>
     <s v="(256) 383-5251"/>
     <s v="integer.in@aol.net"/>
     <n v="1514"/>
@@ -3576,7 +3784,7 @@
     <n v="12.06"/>
   </r>
   <r>
-    <s v="Veronica Brewer"/>
+    <x v="24"/>
     <s v="(324) 514-8846"/>
     <s v="lacus.mauris@protonmail.co.uk"/>
     <n v="757528"/>
@@ -3590,7 +3798,7 @@
     <n v="56.37"/>
   </r>
   <r>
-    <s v="Cody Velez"/>
+    <x v="25"/>
     <s v="(627) 283-7751"/>
     <s v="conubia.nostra@icloud.org"/>
     <s v="I0Q 5BQ"/>
@@ -3604,7 +3812,7 @@
     <n v="4.18"/>
   </r>
   <r>
-    <s v="Jada Poole"/>
+    <x v="26"/>
     <s v="1-551-522-9467"/>
     <s v="erat.neque@protonmail.org"/>
     <n v="43936"/>
@@ -3618,7 +3826,7 @@
     <n v="26.14"/>
   </r>
   <r>
-    <s v="Yuli Roman"/>
+    <x v="27"/>
     <s v="(245) 805-6774"/>
     <s v="pellentesque.ultricies@yahoo.net"/>
     <s v="71-138"/>
@@ -3632,7 +3840,7 @@
     <n v="95.76"/>
   </r>
   <r>
-    <s v="Caesar Schwartz"/>
+    <x v="28"/>
     <s v="1-257-718-5916"/>
     <s v="feugiat.metus.sit@outlook.edu"/>
     <s v="MN3Q 5FU"/>
@@ -3646,7 +3854,7 @@
     <n v="21.5"/>
   </r>
   <r>
-    <s v="Maya Lowery"/>
+    <x v="29"/>
     <s v="1-818-884-4486"/>
     <s v="nulla.eu.neque@outlook.edu"/>
     <n v="35146"/>
@@ -3660,7 +3868,7 @@
     <n v="2.84"/>
   </r>
   <r>
-    <s v="Damon David"/>
+    <x v="30"/>
     <s v="(884) 359-1287"/>
     <s v="non.bibendum@protonmail.edu"/>
     <n v="7277"/>
@@ -3674,7 +3882,7 @@
     <n v="50.51"/>
   </r>
   <r>
-    <s v="Kerry Burt"/>
+    <x v="31"/>
     <s v="(351) 900-2836"/>
     <s v="ullamcorper@aol.edu"/>
     <n v="3371"/>
@@ -3688,7 +3896,7 @@
     <n v="6.3"/>
   </r>
   <r>
-    <s v="Stone Molina"/>
+    <x v="32"/>
     <s v="(774) 377-3783"/>
     <s v="sollicitudin@aol.com"/>
     <n v="511182"/>
@@ -3702,7 +3910,7 @@
     <n v="68.3"/>
   </r>
   <r>
-    <s v="Talon Roach"/>
+    <x v="33"/>
     <s v="1-242-725-2164"/>
     <s v="eget.lacus@protonmail.org"/>
     <n v="46865"/>
@@ -3716,7 +3924,7 @@
     <n v="78.31"/>
   </r>
   <r>
-    <s v="Nasim King"/>
+    <x v="34"/>
     <s v="(243) 631-6412"/>
     <s v="conubia.nostra.per@protonmail.co.uk"/>
     <n v="214220"/>
@@ -3730,7 +3938,7 @@
     <n v="42.29"/>
   </r>
   <r>
-    <s v="Oren Sweeney"/>
+    <x v="35"/>
     <s v="1-147-652-6697"/>
     <s v="tempor.erat@google.org"/>
     <n v="346265"/>
@@ -3744,7 +3952,7 @@
     <n v="4.91"/>
   </r>
   <r>
-    <s v="Idola Bennett"/>
+    <x v="36"/>
     <s v="1-572-668-8823"/>
     <s v="mi.pede.nonummy@aol.co.uk"/>
     <n v="278878"/>
@@ -3758,7 +3966,7 @@
     <n v="88.75"/>
   </r>
   <r>
-    <s v="Akeem Park"/>
+    <x v="37"/>
     <s v="(663) 633-7563"/>
     <s v="ac.mattis@protonmail.co.uk"/>
     <n v="5768"/>
@@ -3772,7 +3980,7 @@
     <n v="98.8"/>
   </r>
   <r>
-    <s v="Lois Lester"/>
+    <x v="38"/>
     <s v="1-944-687-2437"/>
     <s v="a@aol.edu"/>
     <n v="259606"/>
@@ -3786,7 +3994,7 @@
     <n v="69.06"/>
   </r>
   <r>
-    <s v="Stella Webb"/>
+    <x v="39"/>
     <s v="(741) 929-4315"/>
     <s v="sodales@outlook.co.uk"/>
     <n v="31533"/>
@@ -3800,7 +4008,7 @@
     <n v="86.57"/>
   </r>
   <r>
-    <s v="Rana Ratliff"/>
+    <x v="40"/>
     <s v="1-595-657-1841"/>
     <s v="faucibus.leo@hotmail.com"/>
     <n v="97472"/>
@@ -3814,7 +4022,7 @@
     <n v="71.47"/>
   </r>
   <r>
-    <s v="Holly Coffey"/>
+    <x v="41"/>
     <s v="(245) 351-1879"/>
     <s v="nibh.phasellus.nulla@hotmail.edu"/>
     <n v="857886"/>
@@ -3828,7 +4036,7 @@
     <n v="88.86"/>
   </r>
   <r>
-    <s v="Sydnee Hyde"/>
+    <x v="42"/>
     <s v="1-851-719-4453"/>
     <s v="in.lorem@icloud.edu"/>
     <n v="857782"/>
@@ -3842,7 +4050,7 @@
     <n v="24.37"/>
   </r>
   <r>
-    <s v="Jessica Barrett"/>
+    <x v="43"/>
     <s v="1-823-753-6671"/>
     <s v="sem.vitae@hotmail.com"/>
     <n v="104565"/>
@@ -3856,7 +4064,7 @@
     <n v="41.4"/>
   </r>
   <r>
-    <s v="Xenos Floyd"/>
+    <x v="44"/>
     <s v="(770) 491-5572"/>
     <s v="natoque.penatibus@google.net"/>
     <s v="KB7S 9EG"/>
@@ -3870,7 +4078,7 @@
     <n v="50.92"/>
   </r>
   <r>
-    <s v="Neil Jones"/>
+    <x v="45"/>
     <s v="(959) 736-2362"/>
     <s v="diam.eu.dolor@icloud.com"/>
     <n v="36613"/>
@@ -3884,7 +4092,7 @@
     <n v="22.16"/>
   </r>
   <r>
-    <s v="Ray Zimmerman"/>
+    <x v="46"/>
     <s v="1-114-147-6371"/>
     <s v="non.arcu.vivamus@icloud.org"/>
     <n v="657562"/>
@@ -3898,7 +4106,7 @@
     <n v="37.49"/>
   </r>
   <r>
-    <s v="Haviva Walsh"/>
+    <x v="47"/>
     <s v="1-516-424-7588"/>
     <s v="ornare.lectus@google.org"/>
     <s v="3536-3749"/>
@@ -3912,7 +4120,7 @@
     <n v="16.18"/>
   </r>
   <r>
-    <s v="Silas Talley"/>
+    <x v="48"/>
     <s v="(774) 432-4154"/>
     <s v="tempus.non@google.com"/>
     <s v="28146-21578"/>
@@ -3926,7 +4134,7 @@
     <n v="72.459999999999994"/>
   </r>
   <r>
-    <s v="Candice Sampson"/>
+    <x v="49"/>
     <s v="1-881-874-2228"/>
     <s v="tempor.augue@protonmail.net"/>
     <n v="249915"/>
@@ -3940,7 +4148,7 @@
     <n v="82.02"/>
   </r>
   <r>
-    <s v="Bell Hatfield"/>
+    <x v="50"/>
     <s v="1-419-379-8551"/>
     <s v="lorem.ipsum@aol.edu"/>
     <n v="24063"/>
@@ -3954,7 +4162,7 @@
     <n v="94.88"/>
   </r>
   <r>
-    <s v="Lila Blankenship"/>
+    <x v="51"/>
     <s v="1-641-213-5467"/>
     <s v="sem.semper@google.com"/>
     <s v="3843 CH"/>
@@ -3968,7 +4176,7 @@
     <n v="8.48"/>
   </r>
   <r>
-    <s v="Ora Wiggins"/>
+    <x v="52"/>
     <s v="(518) 763-5528"/>
     <s v="risus@yahoo.ca"/>
     <n v="6428"/>
@@ -3982,7 +4190,7 @@
     <n v="83.58"/>
   </r>
   <r>
-    <s v="Leslie Keller"/>
+    <x v="53"/>
     <s v="1-443-541-9142"/>
     <s v="nunc.quis@aol.net"/>
     <s v="V7E 2X9"/>
@@ -3996,7 +4204,7 @@
     <n v="42.5"/>
   </r>
   <r>
-    <s v="Alexandra Soto"/>
+    <x v="54"/>
     <s v="1-911-858-1723"/>
     <s v="gravida.nunc@yahoo.org"/>
     <n v="918774"/>
@@ -4010,7 +4218,7 @@
     <n v="84.75"/>
   </r>
   <r>
-    <s v="Scarlett Jordan"/>
+    <x v="55"/>
     <s v="(444) 337-3232"/>
     <s v="quisque.nonummy.ipsum@protonmail.co.uk"/>
     <s v="7396-2998"/>
@@ -4024,7 +4232,7 @@
     <n v="86.28"/>
   </r>
   <r>
-    <s v="Darryl Mcguire"/>
+    <x v="56"/>
     <s v="1-635-862-5685"/>
     <s v="vel.pede.blandit@hotmail.com"/>
     <n v="456222"/>
@@ -4038,7 +4246,7 @@
     <n v="11.57"/>
   </r>
   <r>
-    <s v="Vincent Sims"/>
+    <x v="57"/>
     <s v="(785) 691-6538"/>
     <s v="cubilia.curae@google.net"/>
     <n v="161590"/>
@@ -4052,7 +4260,7 @@
     <n v="5.63"/>
   </r>
   <r>
-    <s v="Lucian Estrada"/>
+    <x v="58"/>
     <s v="1-853-324-1797"/>
     <s v="erat@google.ca"/>
     <s v="34703-82394"/>
@@ -4066,7 +4274,7 @@
     <n v="28.92"/>
   </r>
   <r>
-    <s v="Odysseus Mcpherson"/>
+    <x v="59"/>
     <s v="1-466-842-8384"/>
     <s v="tellus.aenean@google.ca"/>
     <n v="6061"/>
@@ -4080,7 +4288,7 @@
     <n v="4.13"/>
   </r>
   <r>
-    <s v="Adena Gibson"/>
+    <x v="60"/>
     <s v="(795) 717-2614"/>
     <s v="risus@yahoo.com"/>
     <n v="421323"/>
@@ -4094,7 +4302,7 @@
     <n v="12.92"/>
   </r>
   <r>
-    <s v="Kirby Holman"/>
+    <x v="61"/>
     <s v="1-680-731-0643"/>
     <s v="elit@protonmail.org"/>
     <n v="31152"/>
@@ -4108,7 +4316,7 @@
     <n v="12.08"/>
   </r>
   <r>
-    <s v="Dolan Whitley"/>
+    <x v="62"/>
     <s v="(245) 289-6453"/>
     <s v="odio@hotmail.ca"/>
     <n v="805"/>
@@ -4122,7 +4330,7 @@
     <n v="70.14"/>
   </r>
   <r>
-    <s v="Cynthia Everett"/>
+    <x v="63"/>
     <s v="(676) 719-2667"/>
     <s v="amet.nulla@outlook.ca"/>
     <s v="C1D 5GZ"/>
@@ -4136,7 +4344,7 @@
     <n v="29.04"/>
   </r>
   <r>
-    <s v="Xanthus Shaffer"/>
+    <x v="64"/>
     <s v="(558) 939-1643"/>
     <s v="dolor.dapibus.gravida@icloud.net"/>
     <n v="864294"/>
@@ -4150,7 +4358,7 @@
     <n v="3.59"/>
   </r>
   <r>
-    <s v="Nigel Aguilar"/>
+    <x v="65"/>
     <s v="1-707-827-0664"/>
     <s v="cursus.non@hotmail.net"/>
     <n v="572621"/>
@@ -4164,7 +4372,7 @@
     <n v="21.4"/>
   </r>
   <r>
-    <s v="Steven Snow"/>
+    <x v="66"/>
     <s v="1-296-341-6448"/>
     <s v="fusce.feugiat@yahoo.ca"/>
     <n v="94599"/>
@@ -4178,7 +4386,7 @@
     <n v="48.4"/>
   </r>
   <r>
-    <s v="Lawrence Case"/>
+    <x v="67"/>
     <s v="1-937-676-3761"/>
     <s v="lobortis.quam.a@icloud.com"/>
     <s v="M2T 8R8"/>
@@ -4192,7 +4400,7 @@
     <n v="47.77"/>
   </r>
   <r>
-    <s v="Quamar Williams"/>
+    <x v="68"/>
     <s v="(671) 474-3957"/>
     <s v="phasellus.in@icloud.ca"/>
     <n v="7374"/>
@@ -4206,7 +4414,7 @@
     <n v="15.2"/>
   </r>
   <r>
-    <s v="Plato Mcmahon"/>
+    <x v="69"/>
     <s v="(974) 469-4255"/>
     <s v="ornare.placerat@hotmail.org"/>
     <s v="52671-891"/>
@@ -4220,7 +4428,7 @@
     <n v="20.22"/>
   </r>
   <r>
-    <s v="Dean Wilkins"/>
+    <x v="70"/>
     <s v="1-767-860-6647"/>
     <s v="nulla.semper@aol.ca"/>
     <n v="2251"/>
@@ -4234,7 +4442,7 @@
     <n v="11.03"/>
   </r>
   <r>
-    <s v="Wade Perez"/>
+    <x v="71"/>
     <s v="(271) 834-3482"/>
     <s v="imperdiet.dictum@yahoo.org"/>
     <n v="16312"/>
@@ -4248,7 +4456,7 @@
     <n v="61.66"/>
   </r>
   <r>
-    <s v="Raven Sargent"/>
+    <x v="72"/>
     <s v="(825) 878-7397"/>
     <s v="mauris@protonmail.edu"/>
     <n v="345177"/>
@@ -4262,7 +4470,7 @@
     <n v="33.51"/>
   </r>
   <r>
-    <s v="Kylynn Dale"/>
+    <x v="73"/>
     <s v="1-461-739-5690"/>
     <s v="est.tempor@google.net"/>
     <s v="1228 HV"/>
@@ -4276,7 +4484,7 @@
     <n v="86.81"/>
   </r>
   <r>
-    <s v="Jane Turner"/>
+    <x v="74"/>
     <s v="(744) 571-1271"/>
     <s v="vel.sapien@yahoo.net"/>
     <s v="N6W 2Z4"/>
@@ -4290,7 +4498,7 @@
     <n v="59.25"/>
   </r>
   <r>
-    <s v="Pascale Armstrong"/>
+    <x v="75"/>
     <s v="1-635-618-7322"/>
     <s v="risus.donec@google.com"/>
     <s v="93-557"/>
@@ -4304,7 +4512,7 @@
     <n v="19.48"/>
   </r>
   <r>
-    <s v="Dale Hester"/>
+    <x v="76"/>
     <s v="(349) 531-7874"/>
     <s v="arcu.aliquam@yahoo.net"/>
     <s v="63-77"/>
@@ -4318,7 +4526,7 @@
     <n v="43.9"/>
   </r>
   <r>
-    <s v="Tad Small"/>
+    <x v="77"/>
     <s v="(336) 632-8783"/>
     <s v="sed@google.edu"/>
     <n v="36744"/>
@@ -4332,7 +4540,7 @@
     <n v="43.78"/>
   </r>
   <r>
-    <s v="Kristen Rich"/>
+    <x v="78"/>
     <s v="1-475-490-6257"/>
     <s v="tellus.imperdiet@google.edu"/>
     <n v="7893"/>
@@ -4346,7 +4554,7 @@
     <n v="0.16"/>
   </r>
   <r>
-    <s v="Xavier Potter"/>
+    <x v="79"/>
     <s v="(538) 640-2521"/>
     <s v="conubia.nostra@hotmail.com"/>
     <n v="275243"/>
@@ -4360,7 +4568,7 @@
     <n v="8.19"/>
   </r>
   <r>
-    <s v="Lavinia Ferrell"/>
+    <x v="80"/>
     <s v="1-770-521-3652"/>
     <s v="cras.interdum@aol.ca"/>
     <s v="58-554"/>
@@ -4374,7 +4582,7 @@
     <n v="33.53"/>
   </r>
   <r>
-    <s v="Josephine Owens"/>
+    <x v="81"/>
     <s v="(588) 819-9118"/>
     <s v="taciti@aol.co.uk"/>
     <s v="1473-5341"/>
@@ -4388,7 +4596,7 @@
     <n v="34.630000000000003"/>
   </r>
   <r>
-    <s v="Thor Noble"/>
+    <x v="82"/>
     <s v="(385) 405-8214"/>
     <s v="suscipit.est@aol.ca"/>
     <n v="66827"/>
@@ -4402,7 +4610,7 @@
     <n v="78.78"/>
   </r>
   <r>
-    <s v="Ignacia Davidson"/>
+    <x v="83"/>
     <s v="1-835-531-7653"/>
     <s v="a.feugiat@yahoo.net"/>
     <n v="367861"/>
@@ -4416,7 +4624,7 @@
     <n v="46.41"/>
   </r>
   <r>
-    <s v="Macy Crane"/>
+    <x v="84"/>
     <s v="1-373-438-7768"/>
     <s v="hendrerit.donec@protonmail.ca"/>
     <s v="7331-0571"/>
@@ -4430,7 +4638,7 @@
     <n v="12.09"/>
   </r>
   <r>
-    <s v="Demetrius Mclaughlin"/>
+    <x v="85"/>
     <s v="1-641-531-7865"/>
     <s v="nec.quam@google.ca"/>
     <n v="462506"/>
@@ -4444,7 +4652,7 @@
     <n v="26.04"/>
   </r>
   <r>
-    <s v="Sydnee Morse"/>
+    <x v="86"/>
     <s v="(734) 668-8733"/>
     <s v="sodales.at@yahoo.co.uk"/>
     <n v="4498"/>
@@ -4458,7 +4666,7 @@
     <n v="18.14"/>
   </r>
   <r>
-    <s v="Kevin Cooley"/>
+    <x v="87"/>
     <s v="(146) 787-4571"/>
     <s v="enim.sit@outlook.net"/>
     <s v="14184-88492"/>
@@ -4472,7 +4680,7 @@
     <n v="59.12"/>
   </r>
   <r>
-    <s v="Hillary Livingston"/>
+    <x v="88"/>
     <s v="1-477-885-3776"/>
     <s v="maecenas.libero@google.com"/>
     <n v="33461"/>
@@ -4486,7 +4694,7 @@
     <n v="55.66"/>
   </r>
   <r>
-    <s v="Tarik Taylor"/>
+    <x v="89"/>
     <s v="1-349-586-7685"/>
     <s v="arcu.vestibulum@hotmail.net"/>
     <n v="10212"/>
@@ -4500,7 +4708,7 @@
     <n v="38.64"/>
   </r>
   <r>
-    <s v="Orla Randolph"/>
+    <x v="90"/>
     <s v="1-476-536-8558"/>
     <s v="ut.dolor.dapibus@hotmail.edu"/>
     <n v="50554"/>
@@ -4514,7 +4722,7 @@
     <n v="22.94"/>
   </r>
   <r>
-    <s v="Amity Macias"/>
+    <x v="91"/>
     <s v="(209) 545-1813"/>
     <s v="sagittis.nullam@protonmail.edu"/>
     <n v="951658"/>
@@ -4528,7 +4736,7 @@
     <n v="28.16"/>
   </r>
   <r>
-    <s v="Kirsten Odom"/>
+    <x v="92"/>
     <s v="(356) 878-8577"/>
     <s v="blandit.nam.nulla@google.org"/>
     <n v="6157"/>
@@ -4542,7 +4750,7 @@
     <n v="15.93"/>
   </r>
   <r>
-    <s v="Adrienne Justice"/>
+    <x v="93"/>
     <s v="(223) 287-5835"/>
     <s v="consequat@aol.com"/>
     <n v="105817"/>
@@ -4556,7 +4764,7 @@
     <n v="58.12"/>
   </r>
   <r>
-    <s v="Althea Todd"/>
+    <x v="94"/>
     <s v="(138) 777-8867"/>
     <s v="est.mollis@hotmail.org"/>
     <n v="7168"/>
@@ -4570,7 +4778,7 @@
     <n v="32.79"/>
   </r>
   <r>
-    <s v="Kevin Boone"/>
+    <x v="95"/>
     <s v="1-524-723-3782"/>
     <s v="est.mauris@aol.ca"/>
     <n v="2573"/>
@@ -4584,7 +4792,7 @@
     <n v="62.84"/>
   </r>
   <r>
-    <s v="Dexter Avila"/>
+    <x v="96"/>
     <s v="1-934-402-4687"/>
     <s v="mollis.duis@yahoo.edu"/>
     <n v="3625"/>
@@ -4598,7 +4806,7 @@
     <n v="30.01"/>
   </r>
   <r>
-    <s v="Joel Miles"/>
+    <x v="97"/>
     <s v="1-237-498-1407"/>
     <s v="a@protonmail.org"/>
     <n v="161758"/>
@@ -4612,7 +4820,7 @@
     <n v="14.14"/>
   </r>
   <r>
-    <s v="Iola Ratliff"/>
+    <x v="98"/>
     <s v="1-435-631-1841"/>
     <s v="nascetur.ridiculus@outlook.com"/>
     <n v="44215"/>
@@ -4626,7 +4834,7 @@
     <n v="28.03"/>
   </r>
   <r>
-    <s v="Dean Mooney"/>
+    <x v="99"/>
     <s v="(666) 329-5845"/>
     <s v="aliquam.vulputate.ullamcorper@hotmail.com"/>
     <n v="10676"/>
@@ -4640,7 +4848,7 @@
     <n v="32.44"/>
   </r>
   <r>
-    <s v="Griffith Stokes"/>
+    <x v="100"/>
     <s v="1-146-729-2959"/>
     <s v="phasellus@hotmail.net"/>
     <s v="5455-8197"/>
@@ -4654,7 +4862,7 @@
     <n v="5.57"/>
   </r>
   <r>
-    <s v="Demetrius Summers"/>
+    <x v="101"/>
     <s v="(762) 104-3478"/>
     <s v="dui.suspendisse@protonmail.co.uk"/>
     <s v="S4Y 8B2"/>
@@ -4668,7 +4876,7 @@
     <n v="41.47"/>
   </r>
   <r>
-    <s v="Delilah Blanchard"/>
+    <x v="102"/>
     <s v="(736) 836-8754"/>
     <s v="quis.diam.pellentesque@yahoo.com"/>
     <n v="1817"/>
@@ -4682,7 +4890,7 @@
     <n v="86.63"/>
   </r>
   <r>
-    <s v="Jana Talley"/>
+    <x v="103"/>
     <s v="(711) 153-2598"/>
     <s v="dui.suspendisse.ac@yahoo.com"/>
     <n v="42618"/>
@@ -4696,7 +4904,7 @@
     <n v="83.62"/>
   </r>
   <r>
-    <s v="Kiayada Sheppard"/>
+    <x v="104"/>
     <s v="(369) 855-6213"/>
     <s v="vehicula.pellentesque@yahoo.net"/>
     <n v="8839"/>
@@ -4710,7 +4918,7 @@
     <n v="18.420000000000002"/>
   </r>
   <r>
-    <s v="Lance Sampson"/>
+    <x v="105"/>
     <s v="(635) 637-1220"/>
     <s v="in.ornare.sagittis@google.co.uk"/>
     <n v="146442"/>
@@ -4724,7 +4932,7 @@
     <n v="63.45"/>
   </r>
   <r>
-    <s v="Curran Snow"/>
+    <x v="106"/>
     <s v="(126) 299-1284"/>
     <s v="ligula.eu@aol.com"/>
     <n v="16377"/>
@@ -4738,7 +4946,7 @@
     <n v="26.25"/>
   </r>
   <r>
-    <s v="Cleo Castaneda"/>
+    <x v="107"/>
     <s v="(942) 850-9145"/>
     <s v="nunc.commodo.auctor@protonmail.com"/>
     <n v="4992"/>
@@ -4752,7 +4960,7 @@
     <n v="66.55"/>
   </r>
   <r>
-    <s v="Salvador Owens"/>
+    <x v="108"/>
     <s v="(862) 468-0753"/>
     <s v="curabitur.dictum@outlook.ca"/>
     <n v="50804"/>
@@ -4766,7 +4974,7 @@
     <n v="67.81"/>
   </r>
   <r>
-    <s v="Ila Holder"/>
+    <x v="109"/>
     <s v="1-269-874-9498"/>
     <s v="eget.metus@outlook.edu"/>
     <n v="618376"/>
@@ -4780,7 +4988,7 @@
     <n v="92.18"/>
   </r>
   <r>
-    <s v="Dennis Nixon"/>
+    <x v="110"/>
     <s v="(733) 724-4840"/>
     <s v="aenean.sed@hotmail.net"/>
     <n v="397632"/>
@@ -4794,7 +5002,7 @@
     <n v="35.76"/>
   </r>
   <r>
-    <s v="Cain Cunningham"/>
+    <x v="111"/>
     <s v="(755) 402-8448"/>
     <s v="consectetuer.adipiscing@yahoo.edu"/>
     <n v="7573"/>
@@ -4808,7 +5016,7 @@
     <n v="8.25"/>
   </r>
   <r>
-    <s v="Malcolm Fitzgerald"/>
+    <x v="112"/>
     <s v="(232) 623-3323"/>
     <s v="a.malesuada@google.net"/>
     <n v="981648"/>
@@ -4822,7 +5030,7 @@
     <n v="36.81"/>
   </r>
   <r>
-    <s v="Irene Love"/>
+    <x v="113"/>
     <s v="(532) 296-3512"/>
     <s v="tincidunt.aliquam@hotmail.ca"/>
     <n v="30403"/>
@@ -4836,7 +5044,7 @@
     <n v="32.590000000000003"/>
   </r>
   <r>
-    <s v="Georgia Whitaker"/>
+    <x v="114"/>
     <s v="1-424-417-8593"/>
     <s v="convallis.dolor.quisque@yahoo.org"/>
     <n v="41136"/>
@@ -4850,7 +5058,7 @@
     <n v="18.07"/>
   </r>
   <r>
-    <s v="Nomlanga Quinn"/>
+    <x v="115"/>
     <s v="(185) 336-0305"/>
     <s v="dignissim.magna@protonmail.edu"/>
     <n v="5855"/>
@@ -4864,7 +5072,7 @@
     <n v="74.099999999999994"/>
   </r>
   <r>
-    <s v="Malik Watkins"/>
+    <x v="116"/>
     <s v="1-761-788-2245"/>
     <s v="tellus.justo.sit@aol.co.uk"/>
     <n v="442405"/>
@@ -4878,7 +5086,7 @@
     <n v="80.349999999999994"/>
   </r>
   <r>
-    <s v="Rowan Bowman"/>
+    <x v="117"/>
     <s v="1-405-398-5461"/>
     <s v="rhoncus.proin@aol.org"/>
     <s v="75745-221"/>
@@ -4892,7 +5100,7 @@
     <n v="31.28"/>
   </r>
   <r>
-    <s v="Timothy Weeks"/>
+    <x v="118"/>
     <s v="1-483-940-4675"/>
     <s v="augue.sed@protonmail.com"/>
     <n v="6138"/>
@@ -4906,7 +5114,7 @@
     <n v="73.27"/>
   </r>
   <r>
-    <s v="Melissa Phelps"/>
+    <x v="119"/>
     <s v="1-717-769-4318"/>
     <s v="turpis.non.enim@icloud.ca"/>
     <n v="7675"/>
@@ -4920,7 +5128,7 @@
     <n v="45.28"/>
   </r>
   <r>
-    <s v="Octavius Riley"/>
+    <x v="120"/>
     <s v="(818) 215-7673"/>
     <s v="magnis@protonmail.org"/>
     <n v="345166"/>
@@ -4934,7 +5142,7 @@
     <n v="70.02"/>
   </r>
   <r>
-    <s v="Ori Donaldson"/>
+    <x v="121"/>
     <s v="(722) 748-8186"/>
     <s v="aliquam.iaculis@google.co.uk"/>
     <n v="995818"/>
@@ -4948,7 +5156,7 @@
     <n v="57.4"/>
   </r>
   <r>
-    <s v="Brandon Montoya"/>
+    <x v="122"/>
     <s v="(356) 768-8461"/>
     <s v="nonummy@aol.net"/>
     <n v="2723"/>
@@ -4962,7 +5170,7 @@
     <n v="68.22"/>
   </r>
   <r>
-    <s v="Anne Boyle"/>
+    <x v="123"/>
     <s v="(611) 386-2545"/>
     <s v="tellus@yahoo.com"/>
     <n v="30238"/>
@@ -4976,7 +5184,7 @@
     <n v="25.9"/>
   </r>
   <r>
-    <s v="Jasper Rodriguez"/>
+    <x v="124"/>
     <s v="(444) 459-7841"/>
     <s v="egestas.fusce@outlook.ca"/>
     <n v="2647"/>
@@ -4990,7 +5198,7 @@
     <n v="26.58"/>
   </r>
   <r>
-    <s v="Cameron Talley"/>
+    <x v="125"/>
     <s v="1-289-433-5755"/>
     <s v="risus.donec.egestas@google.com"/>
     <n v="83029"/>
@@ -5004,7 +5212,7 @@
     <n v="75.36"/>
   </r>
   <r>
-    <s v="Chase Page"/>
+    <x v="126"/>
     <s v="1-641-268-5257"/>
     <s v="integer.tincidunt.aliquam@aol.com"/>
     <n v="44280"/>
@@ -5018,7 +5226,7 @@
     <n v="93.92"/>
   </r>
   <r>
-    <s v="Russell Goodwin"/>
+    <x v="127"/>
     <s v="1-822-965-7224"/>
     <s v="quisque.purus.sapien@icloud.ca"/>
     <s v="6582-1818"/>
@@ -5032,7 +5240,7 @@
     <n v="82.23"/>
   </r>
   <r>
-    <s v="Moses Williamson"/>
+    <x v="128"/>
     <s v="(222) 471-5516"/>
     <s v="elementum@protonmail.org"/>
     <n v="2858"/>
@@ -5046,7 +5254,7 @@
     <n v="7.84"/>
   </r>
   <r>
-    <s v="Quinn Alexander"/>
+    <x v="129"/>
     <s v="(851) 525-3194"/>
     <s v="eget@hotmail.edu"/>
     <s v="R4R 2L4"/>
@@ -5060,7 +5268,7 @@
     <n v="96.17"/>
   </r>
   <r>
-    <s v="Rylee Beard"/>
+    <x v="130"/>
     <s v="(436) 744-5607"/>
     <s v="donec.nibh@outlook.edu"/>
     <n v="53962"/>
@@ -5074,7 +5282,7 @@
     <n v="71.73"/>
   </r>
   <r>
-    <s v="Kelly Austin"/>
+    <x v="131"/>
     <s v="(619) 431-4815"/>
     <s v="viverra.donec@google.edu"/>
     <n v="3452"/>
@@ -5088,7 +5296,7 @@
     <n v="77.37"/>
   </r>
   <r>
-    <s v="Zorita Rivas"/>
+    <x v="132"/>
     <s v="(570) 264-2651"/>
     <s v="ultricies.ligula@protonmail.ca"/>
     <s v="74715-65959"/>
@@ -5102,7 +5310,7 @@
     <n v="53.22"/>
   </r>
   <r>
-    <s v="Geoffrey Fleming"/>
+    <x v="133"/>
     <s v="(231) 735-2583"/>
     <s v="inceptos.hymenaeos@outlook.edu"/>
     <n v="4573"/>
@@ -5116,7 +5324,7 @@
     <n v="26.98"/>
   </r>
   <r>
-    <s v="Regina Stokes"/>
+    <x v="134"/>
     <s v="1-389-334-8187"/>
     <s v="magna.ut@icloud.net"/>
     <n v="71129"/>
@@ -5130,7 +5338,7 @@
     <n v="85.44"/>
   </r>
   <r>
-    <s v="Xantha Michael"/>
+    <x v="135"/>
     <s v="1-955-969-8692"/>
     <s v="ipsum.primis.in@protonmail.com"/>
     <n v="24471"/>
@@ -5144,7 +5352,7 @@
     <n v="38.85"/>
   </r>
   <r>
-    <s v="Stephanie Berg"/>
+    <x v="136"/>
     <s v="(884) 265-6534"/>
     <s v="lacus@outlook.org"/>
     <s v="58561-615"/>
@@ -5158,7 +5366,7 @@
     <n v="84.76"/>
   </r>
   <r>
-    <s v="Arsenio Farley"/>
+    <x v="137"/>
     <s v="1-705-180-6628"/>
     <s v="aliquam@aol.com"/>
     <n v="2472"/>
@@ -5172,7 +5380,7 @@
     <n v="97.11"/>
   </r>
   <r>
-    <s v="Mona Sawyer"/>
+    <x v="138"/>
     <s v="1-360-609-9853"/>
     <s v="sagittis@yahoo.ca"/>
     <n v="1036"/>
@@ -5186,7 +5394,7 @@
     <n v="88.43"/>
   </r>
   <r>
-    <s v="Deanna Colon"/>
+    <x v="139"/>
     <s v="1-712-116-7261"/>
     <s v="a.nunc@aol.org"/>
     <n v="491326"/>
@@ -5200,7 +5408,7 @@
     <n v="30.06"/>
   </r>
   <r>
-    <s v="Barrett William"/>
+    <x v="140"/>
     <s v="1-335-996-5563"/>
     <s v="nulla.tincidunt@outlook.co.uk"/>
     <n v="7645"/>
@@ -5214,7 +5422,7 @@
     <n v="56.46"/>
   </r>
   <r>
-    <s v="Tashya Reeves"/>
+    <x v="141"/>
     <s v="(313) 566-4635"/>
     <s v="dignissim.lacus.aliquam@google.com"/>
     <n v="36395"/>
@@ -5228,7 +5436,7 @@
     <n v="38.119999999999997"/>
   </r>
   <r>
-    <s v="Evan Baker"/>
+    <x v="142"/>
     <s v="(114) 241-1004"/>
     <s v="facilisis@hotmail.ca"/>
     <n v="92580"/>
@@ -5242,7 +5450,7 @@
     <n v="99.06"/>
   </r>
   <r>
-    <s v="Aaron Horton"/>
+    <x v="143"/>
     <s v="(835) 248-1966"/>
     <s v="vel.quam@aol.edu"/>
     <s v="93718-58868"/>
@@ -5256,7 +5464,7 @@
     <n v="30.49"/>
   </r>
   <r>
-    <s v="Idona Austin"/>
+    <x v="144"/>
     <s v="(514) 782-1325"/>
     <s v="ullamcorper.magna.sed@protonmail.edu"/>
     <n v="77682"/>
@@ -5270,7 +5478,7 @@
     <n v="19.18"/>
   </r>
   <r>
-    <s v="Aladdin Conrad"/>
+    <x v="145"/>
     <s v="1-725-444-2472"/>
     <s v="eu@hotmail.co.uk"/>
     <s v="T0X 5P9"/>
@@ -5284,7 +5492,7 @@
     <n v="35.36"/>
   </r>
   <r>
-    <s v="Renee Barron"/>
+    <x v="146"/>
     <s v="1-322-726-1746"/>
     <s v="luctus.ipsum@google.net"/>
     <n v="6151"/>
@@ -5298,7 +5506,7 @@
     <n v="29.21"/>
   </r>
   <r>
-    <s v="Natalie Burt"/>
+    <x v="147"/>
     <s v="(494) 266-7263"/>
     <s v="ut.semper@outlook.org"/>
     <n v="368945"/>
@@ -5312,7 +5520,7 @@
     <n v="28.52"/>
   </r>
   <r>
-    <s v="Fitzgerald Case"/>
+    <x v="148"/>
     <s v="(519) 852-1653"/>
     <s v="nibh.dolor.nonummy@icloud.com"/>
     <n v="778848"/>
@@ -5326,7 +5534,7 @@
     <n v="52.93"/>
   </r>
   <r>
-    <s v="Colin Lambert"/>
+    <x v="149"/>
     <s v="(568) 877-6330"/>
     <s v="semper.nam@yahoo.com"/>
     <n v="19783"/>
@@ -5340,7 +5548,7 @@
     <n v="96.16"/>
   </r>
   <r>
-    <s v="Keely Spears"/>
+    <x v="150"/>
     <s v="(623) 368-7825"/>
     <s v="ac.facilisis.facilisis@yahoo.ca"/>
     <n v="592777"/>
@@ -5354,7 +5562,7 @@
     <n v="16.16"/>
   </r>
   <r>
-    <s v="Hayes Paul"/>
+    <x v="151"/>
     <s v="(378) 564-4168"/>
     <s v="rhoncus.donec.est@aol.co.uk"/>
     <n v="7478"/>
@@ -5368,7 +5576,7 @@
     <n v="21.34"/>
   </r>
   <r>
-    <s v="Dale Holcomb"/>
+    <x v="152"/>
     <s v="(454) 775-7817"/>
     <s v="auctor@google.edu"/>
     <n v="312151"/>
@@ -5382,7 +5590,7 @@
     <n v="79.25"/>
   </r>
   <r>
-    <s v="Tamara Juarez"/>
+    <x v="153"/>
     <s v="1-817-792-4345"/>
     <s v="auctor.nunc@protonmail.ca"/>
     <n v="5130"/>
@@ -5396,7 +5604,7 @@
     <n v="69.930000000000007"/>
   </r>
   <r>
-    <s v="Kasper Noel"/>
+    <x v="154"/>
     <s v="1-721-321-6033"/>
     <s v="proin.nisl@aol.com"/>
     <n v="335344"/>
@@ -5410,7 +5618,7 @@
     <n v="35.82"/>
   </r>
   <r>
-    <s v="Francesca Pratt"/>
+    <x v="155"/>
     <s v="1-246-823-7734"/>
     <s v="varius.orci.in@google.org"/>
     <s v="1780-5507"/>
@@ -5424,7 +5632,7 @@
     <n v="60.51"/>
   </r>
   <r>
-    <s v="Gray Goodman"/>
+    <x v="156"/>
     <s v="1-677-575-2535"/>
     <s v="auctor.odio.a@protonmail.co.uk"/>
     <s v="52-141"/>
@@ -5438,7 +5646,7 @@
     <n v="67.86"/>
   </r>
   <r>
-    <s v="Noah Boone"/>
+    <x v="157"/>
     <s v="(441) 514-3528"/>
     <s v="purus.mauris@yahoo.ca"/>
     <n v="8883"/>
@@ -5452,7 +5660,7 @@
     <n v="33.369999999999997"/>
   </r>
   <r>
-    <s v="Nelle Moon"/>
+    <x v="158"/>
     <s v="(289) 235-8725"/>
     <s v="nonummy.fusce@yahoo.co.uk"/>
     <n v="955922"/>
@@ -5466,7 +5674,7 @@
     <n v="96.17"/>
   </r>
   <r>
-    <s v="Uma Albert"/>
+    <x v="159"/>
     <s v="(525) 465-3682"/>
     <s v="tristique.senectus@hotmail.net"/>
     <n v="187421"/>
@@ -5480,7 +5688,7 @@
     <n v="72.680000000000007"/>
   </r>
   <r>
-    <s v="Raya Rivers"/>
+    <x v="160"/>
     <s v="1-572-347-3393"/>
     <s v="parturient.montes.nascetur@protonmail.org"/>
     <n v="268928"/>
@@ -5494,7 +5702,7 @@
     <n v="30.05"/>
   </r>
   <r>
-    <s v="Yvette Mcgee"/>
+    <x v="161"/>
     <s v="(301) 781-2157"/>
     <s v="aliquam.adipiscing.lobortis@icloud.ca"/>
     <n v="324463"/>
@@ -5508,7 +5716,7 @@
     <n v="15.8"/>
   </r>
   <r>
-    <s v="Harriet Mejia"/>
+    <x v="162"/>
     <s v="(513) 675-5128"/>
     <s v="rhoncus.nullam.velit@outlook.co.uk"/>
     <n v="3517"/>
@@ -5522,7 +5730,7 @@
     <n v="97.2"/>
   </r>
   <r>
-    <s v="Yuli Fowler"/>
+    <x v="163"/>
     <s v="(941) 431-6745"/>
     <s v="sed.pharetra@yahoo.org"/>
     <n v="172431"/>
@@ -5536,7 +5744,7 @@
     <n v="26.77"/>
   </r>
   <r>
-    <s v="Kenyon Taylor"/>
+    <x v="164"/>
     <s v="(215) 261-1137"/>
     <s v="eu.arcu@aol.org"/>
     <n v="842155"/>
@@ -5550,7 +5758,7 @@
     <n v="12.7"/>
   </r>
   <r>
-    <s v="Heidi Callahan"/>
+    <x v="165"/>
     <s v="(548) 568-1977"/>
     <s v="sollicitudin@google.org"/>
     <n v="373224"/>
@@ -5564,7 +5772,7 @@
     <n v="14.05"/>
   </r>
   <r>
-    <s v="Shelby Morrow"/>
+    <x v="166"/>
     <s v="1-918-827-5936"/>
     <s v="purus.nullam@outlook.edu"/>
     <n v="9090"/>
@@ -5578,7 +5786,7 @@
     <n v="65.37"/>
   </r>
   <r>
-    <s v="Hadley Dunn"/>
+    <x v="167"/>
     <s v="1-561-872-8534"/>
     <s v="libero.dui@yahoo.co.uk"/>
     <n v="47138"/>
@@ -5592,7 +5800,7 @@
     <n v="77.63"/>
   </r>
   <r>
-    <s v="Peter Haney"/>
+    <x v="168"/>
     <s v="(341) 483-2372"/>
     <s v="lacus@icloud.com"/>
     <n v="514485"/>
@@ -5606,7 +5814,7 @@
     <n v="55.49"/>
   </r>
   <r>
-    <s v="Xena Ford"/>
+    <x v="169"/>
     <s v="(884) 355-8271"/>
     <s v="a.auctor@hotmail.com"/>
     <n v="2397"/>
@@ -5620,7 +5828,7 @@
     <n v="31.19"/>
   </r>
   <r>
-    <s v="Kelly Stark"/>
+    <x v="170"/>
     <s v="1-217-425-9550"/>
     <s v="molestie.tellus@icloud.co.uk"/>
     <n v="13874"/>
@@ -5634,7 +5842,7 @@
     <n v="72.11"/>
   </r>
   <r>
-    <s v="Madonna Mullen"/>
+    <x v="171"/>
     <s v="(598) 655-1772"/>
     <s v="sed.dictum@protonmail.co.uk"/>
     <n v="30887"/>
@@ -5648,7 +5856,7 @@
     <n v="78.13"/>
   </r>
   <r>
-    <s v="Emery Barnes"/>
+    <x v="172"/>
     <s v="(583) 746-5001"/>
     <s v="cubilia.curae@outlook.org"/>
     <s v="46-66"/>
@@ -5662,7 +5870,7 @@
     <n v="29.92"/>
   </r>
   <r>
-    <s v="Vanna Owen"/>
+    <x v="173"/>
     <s v="(874) 293-0496"/>
     <s v="tristique.pellentesque.tellus@hotmail.co.uk"/>
     <n v="31204"/>
@@ -5676,7 +5884,7 @@
     <n v="95.13"/>
   </r>
   <r>
-    <s v="Avram Ewing"/>
+    <x v="174"/>
     <s v="1-110-825-8779"/>
     <s v="volutpat.ornare@hotmail.co.uk"/>
     <n v="8417"/>
@@ -5690,7 +5898,7 @@
     <n v="5.49"/>
   </r>
   <r>
-    <s v="Karyn Blevins"/>
+    <x v="175"/>
     <s v="(989) 488-7961"/>
     <s v="elit.curabitur@outlook.org"/>
     <n v="272554"/>
@@ -5704,7 +5912,7 @@
     <n v="37.54"/>
   </r>
   <r>
-    <s v="Zachery Webster"/>
+    <x v="176"/>
     <s v="1-273-966-2855"/>
     <s v="semper.nam@hotmail.edu"/>
     <n v="9272"/>
@@ -5718,7 +5926,7 @@
     <n v="22.42"/>
   </r>
   <r>
-    <s v="Illiana Gregory"/>
+    <x v="177"/>
     <s v="(528) 879-1153"/>
     <s v="volutpat.nunc.sit@protonmail.co.uk"/>
     <n v="15788"/>
@@ -5732,7 +5940,7 @@
     <n v="35.04"/>
   </r>
   <r>
-    <s v="Dennis Battle"/>
+    <x v="178"/>
     <s v="1-890-401-7665"/>
     <s v="venenatis.vel@hotmail.net"/>
     <n v="98651"/>
@@ -5746,7 +5954,7 @@
     <n v="69.22"/>
   </r>
   <r>
-    <s v="Randall Doyle"/>
+    <x v="179"/>
     <s v="(483) 386-0131"/>
     <s v="varius.et@aol.edu"/>
     <n v="26384"/>
@@ -5760,7 +5968,7 @@
     <n v="0.37"/>
   </r>
   <r>
-    <s v="Isaac Potts"/>
+    <x v="180"/>
     <s v="1-137-723-1422"/>
     <s v="ante.ipsum@icloud.ca"/>
     <n v="48802"/>
@@ -5774,7 +5982,7 @@
     <n v="82.14"/>
   </r>
   <r>
-    <s v="Kiara Higgins"/>
+    <x v="181"/>
     <s v="(428) 906-8882"/>
     <s v="pede.sagittis.augue@yahoo.ca"/>
     <n v="32219"/>
@@ -5788,7 +5996,7 @@
     <n v="2.67"/>
   </r>
   <r>
-    <s v="Ursa Solomon"/>
+    <x v="182"/>
     <s v="1-805-385-4327"/>
     <s v="morbi@protonmail.edu"/>
     <s v="I5L 2L5"/>
@@ -5802,7 +6010,7 @@
     <n v="92.03"/>
   </r>
   <r>
-    <s v="Carter Willis"/>
+    <x v="183"/>
     <s v="(778) 186-3761"/>
     <s v="libero.donec.consectetuer@yahoo.ca"/>
     <s v="46615-76480"/>
@@ -5816,7 +6024,7 @@
     <n v="75.27"/>
   </r>
   <r>
-    <s v="Demetrius Porter"/>
+    <x v="184"/>
     <s v="(792) 458-8602"/>
     <s v="sagittis.semper@protonmail.edu"/>
     <n v="8157"/>
@@ -5830,7 +6038,7 @@
     <n v="35.61"/>
   </r>
   <r>
-    <s v="Aaron Sims"/>
+    <x v="185"/>
     <s v="(168) 216-9788"/>
     <s v="dui@aol.org"/>
     <n v="9411"/>
@@ -5844,7 +6052,7 @@
     <n v="95.82"/>
   </r>
   <r>
-    <s v="Hakeem Pugh"/>
+    <x v="186"/>
     <s v="1-579-281-4641"/>
     <s v="molestie.tortor@hotmail.co.uk"/>
     <n v="29163"/>
@@ -5858,7 +6066,7 @@
     <n v="61.26"/>
   </r>
   <r>
-    <s v="Reagan Coffey"/>
+    <x v="187"/>
     <s v="1-654-465-6669"/>
     <s v="in.tincidunt.congue@icloud.ca"/>
     <n v="968635"/>
@@ -5872,7 +6080,7 @@
     <n v="92.84"/>
   </r>
   <r>
-    <s v="Amal Snow"/>
+    <x v="188"/>
     <s v="1-617-911-2387"/>
     <s v="consectetuer.adipiscing@hotmail.net"/>
     <s v="7499-6433"/>
@@ -5886,7 +6094,7 @@
     <n v="49.25"/>
   </r>
   <r>
-    <s v="Nola Schmidt"/>
+    <x v="189"/>
     <s v="1-800-557-5783"/>
     <s v="consectetuer@yahoo.net"/>
     <n v="35735"/>
@@ -5900,7 +6108,7 @@
     <n v="40.5"/>
   </r>
   <r>
-    <s v="Alec Douglas"/>
+    <x v="190"/>
     <s v="1-223-542-7868"/>
     <s v="aliquam.auctor.velit@icloud.co.uk"/>
     <n v="14288"/>
@@ -5914,7 +6122,7 @@
     <n v="30.66"/>
   </r>
   <r>
-    <s v="Clio Mccullough"/>
+    <x v="191"/>
     <s v="1-295-440-1832"/>
     <s v="magna.malesuada@google.edu"/>
     <n v="24213"/>
@@ -5928,7 +6136,7 @@
     <n v="97.02"/>
   </r>
   <r>
-    <s v="Chantale Woodard"/>
+    <x v="192"/>
     <s v="1-382-377-6634"/>
     <s v="ac@outlook.ca"/>
     <n v="787364"/>
@@ -5942,7 +6150,7 @@
     <n v="83.58"/>
   </r>
   <r>
-    <s v="Graiden Lancaster"/>
+    <x v="193"/>
     <s v="(282) 722-6958"/>
     <s v="enim.suspendisse.aliquet@google.edu"/>
     <n v="27808"/>
@@ -5956,7 +6164,7 @@
     <n v="55.49"/>
   </r>
   <r>
-    <s v="Malik Bird"/>
+    <x v="194"/>
     <s v="1-542-112-9464"/>
     <s v="luctus.et.ultrices@icloud.edu"/>
     <n v="67413"/>
@@ -5970,7 +6178,7 @@
     <n v="67.290000000000006"/>
   </r>
   <r>
-    <s v="Price Padilla"/>
+    <x v="195"/>
     <s v="1-453-366-4122"/>
     <s v="urna.nullam@protonmail.co.uk"/>
     <n v="694943"/>
@@ -5984,7 +6192,7 @@
     <n v="43.91"/>
   </r>
   <r>
-    <s v="Emerson Deleon"/>
+    <x v="196"/>
     <s v="(627) 261-2534"/>
     <s v="mollis.dui@aol.co.uk"/>
     <n v="23958"/>
@@ -5998,7 +6206,7 @@
     <n v="68.760000000000005"/>
   </r>
   <r>
-    <s v="Katelyn Harris"/>
+    <x v="197"/>
     <s v="1-343-344-4187"/>
     <s v="nulla@icloud.co.uk"/>
     <n v="8728"/>
@@ -6012,7 +6220,7 @@
     <n v="24.87"/>
   </r>
   <r>
-    <s v="Walter Suarez"/>
+    <x v="198"/>
     <s v="1-445-801-9496"/>
     <s v="at.nisi@hotmail.ca"/>
     <n v="3522"/>
@@ -6026,7 +6234,7 @@
     <n v="14.01"/>
   </r>
   <r>
-    <s v="Alexis Meyers"/>
+    <x v="199"/>
     <s v="(813) 318-7041"/>
     <s v="tellus@icloud.org"/>
     <n v="22627"/>
@@ -6043,6 +6251,1971 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0F2B5079-6B18-4D66-AA94-F999746B3D52}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="S3:V4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" numFmtId="43" showAll="0"/>
+    <pivotField dataField="1" numFmtId="43" showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Sum of OrderValue" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Rating" fld="10" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Score" fld="11" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Calc Field 0" fld="12" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8B3A59F0-BFB0-4B1E-88C2-12993252B036}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="Y3:AB168" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0">
+      <items count="201">
+        <item x="143"/>
+        <item x="185"/>
+        <item x="60"/>
+        <item x="93"/>
+        <item x="37"/>
+        <item x="145"/>
+        <item x="190"/>
+        <item x="54"/>
+        <item x="199"/>
+        <item x="94"/>
+        <item x="188"/>
+        <item x="91"/>
+        <item x="123"/>
+        <item x="18"/>
+        <item x="137"/>
+        <item x="174"/>
+        <item x="10"/>
+        <item x="140"/>
+        <item x="50"/>
+        <item x="122"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="28"/>
+        <item x="111"/>
+        <item x="125"/>
+        <item x="49"/>
+        <item x="183"/>
+        <item x="192"/>
+        <item x="126"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="107"/>
+        <item x="191"/>
+        <item x="25"/>
+        <item x="149"/>
+        <item x="1"/>
+        <item x="106"/>
+        <item x="63"/>
+        <item x="76"/>
+        <item x="152"/>
+        <item x="30"/>
+        <item x="56"/>
+        <item x="99"/>
+        <item x="70"/>
+        <item x="139"/>
+        <item x="102"/>
+        <item x="85"/>
+        <item x="184"/>
+        <item x="101"/>
+        <item x="178"/>
+        <item x="8"/>
+        <item x="110"/>
+        <item x="96"/>
+        <item x="62"/>
+        <item x="11"/>
+        <item x="196"/>
+        <item x="172"/>
+        <item x="142"/>
+        <item x="148"/>
+        <item x="155"/>
+        <item x="133"/>
+        <item x="114"/>
+        <item x="22"/>
+        <item x="193"/>
+        <item x="156"/>
+        <item x="100"/>
+        <item x="167"/>
+        <item x="186"/>
+        <item x="162"/>
+        <item x="47"/>
+        <item x="151"/>
+        <item x="165"/>
+        <item x="88"/>
+        <item x="41"/>
+        <item x="36"/>
+        <item x="144"/>
+        <item x="13"/>
+        <item x="83"/>
+        <item x="109"/>
+        <item x="177"/>
+        <item x="98"/>
+        <item x="113"/>
+        <item x="180"/>
+        <item x="26"/>
+        <item x="103"/>
+        <item x="74"/>
+        <item x="124"/>
+        <item x="43"/>
+        <item x="97"/>
+        <item x="81"/>
+        <item x="175"/>
+        <item x="154"/>
+        <item x="197"/>
+        <item x="150"/>
+        <item x="131"/>
+        <item x="170"/>
+        <item x="164"/>
+        <item x="31"/>
+        <item x="95"/>
+        <item x="87"/>
+        <item x="17"/>
+        <item x="181"/>
+        <item x="104"/>
+        <item x="15"/>
+        <item x="61"/>
+        <item x="92"/>
+        <item x="78"/>
+        <item x="73"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item x="105"/>
+        <item x="21"/>
+        <item x="80"/>
+        <item x="67"/>
+        <item x="16"/>
+        <item x="53"/>
+        <item x="51"/>
+        <item x="38"/>
+        <item x="58"/>
+        <item x="84"/>
+        <item x="171"/>
+        <item x="112"/>
+        <item x="194"/>
+        <item x="116"/>
+        <item x="0"/>
+        <item x="29"/>
+        <item x="119"/>
+        <item x="138"/>
+        <item x="128"/>
+        <item x="34"/>
+        <item x="147"/>
+        <item x="45"/>
+        <item x="158"/>
+        <item x="65"/>
+        <item x="157"/>
+        <item x="189"/>
+        <item x="115"/>
+        <item x="120"/>
+        <item x="59"/>
+        <item x="52"/>
+        <item x="35"/>
+        <item x="121"/>
+        <item x="90"/>
+        <item x="75"/>
+        <item x="168"/>
+        <item x="69"/>
+        <item x="195"/>
+        <item x="68"/>
+        <item x="129"/>
+        <item x="40"/>
+        <item x="179"/>
+        <item x="72"/>
+        <item x="46"/>
+        <item x="160"/>
+        <item x="187"/>
+        <item x="134"/>
+        <item x="146"/>
+        <item x="14"/>
+        <item x="3"/>
+        <item x="117"/>
+        <item x="127"/>
+        <item x="130"/>
+        <item x="108"/>
+        <item x="5"/>
+        <item x="55"/>
+        <item x="166"/>
+        <item x="48"/>
+        <item x="39"/>
+        <item x="136"/>
+        <item x="66"/>
+        <item x="32"/>
+        <item x="20"/>
+        <item x="42"/>
+        <item x="86"/>
+        <item x="77"/>
+        <item x="33"/>
+        <item x="153"/>
+        <item x="19"/>
+        <item x="89"/>
+        <item x="141"/>
+        <item x="82"/>
+        <item x="118"/>
+        <item x="159"/>
+        <item x="182"/>
+        <item x="173"/>
+        <item x="24"/>
+        <item x="57"/>
+        <item x="71"/>
+        <item x="198"/>
+        <item x="135"/>
+        <item x="64"/>
+        <item x="79"/>
+        <item x="169"/>
+        <item x="44"/>
+        <item x="163"/>
+        <item x="27"/>
+        <item x="23"/>
+        <item x="161"/>
+        <item x="176"/>
+        <item x="132"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" countASubtotal="1" avgSubtotal="1">
+      <items count="166">
+        <item x="63"/>
+        <item x="45"/>
+        <item x="155"/>
+        <item x="40"/>
+        <item x="1"/>
+        <item x="124"/>
+        <item x="110"/>
+        <item x="138"/>
+        <item x="162"/>
+        <item x="37"/>
+        <item x="107"/>
+        <item x="142"/>
+        <item x="156"/>
+        <item x="152"/>
+        <item x="30"/>
+        <item x="97"/>
+        <item x="0"/>
+        <item x="31"/>
+        <item x="136"/>
+        <item x="51"/>
+        <item x="130"/>
+        <item x="95"/>
+        <item x="24"/>
+        <item x="76"/>
+        <item x="27"/>
+        <item x="39"/>
+        <item x="74"/>
+        <item x="23"/>
+        <item x="126"/>
+        <item x="28"/>
+        <item x="41"/>
+        <item x="146"/>
+        <item x="9"/>
+        <item x="15"/>
+        <item x="60"/>
+        <item x="94"/>
+        <item x="159"/>
+        <item x="112"/>
+        <item x="16"/>
+        <item x="158"/>
+        <item x="42"/>
+        <item x="106"/>
+        <item x="10"/>
+        <item x="105"/>
+        <item x="21"/>
+        <item x="86"/>
+        <item x="117"/>
+        <item x="75"/>
+        <item x="102"/>
+        <item x="26"/>
+        <item x="145"/>
+        <item x="154"/>
+        <item x="133"/>
+        <item x="82"/>
+        <item x="114"/>
+        <item x="128"/>
+        <item x="69"/>
+        <item x="67"/>
+        <item x="25"/>
+        <item x="35"/>
+        <item x="88"/>
+        <item x="84"/>
+        <item x="18"/>
+        <item x="13"/>
+        <item x="22"/>
+        <item x="122"/>
+        <item x="55"/>
+        <item x="66"/>
+        <item x="61"/>
+        <item x="77"/>
+        <item x="68"/>
+        <item x="129"/>
+        <item x="108"/>
+        <item x="100"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="140"/>
+        <item x="33"/>
+        <item x="111"/>
+        <item x="144"/>
+        <item x="6"/>
+        <item x="32"/>
+        <item x="120"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="52"/>
+        <item x="70"/>
+        <item x="116"/>
+        <item x="36"/>
+        <item x="121"/>
+        <item x="151"/>
+        <item x="62"/>
+        <item x="123"/>
+        <item x="163"/>
+        <item x="147"/>
+        <item x="96"/>
+        <item x="46"/>
+        <item x="104"/>
+        <item x="98"/>
+        <item x="83"/>
+        <item x="59"/>
+        <item x="81"/>
+        <item x="141"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="38"/>
+        <item x="90"/>
+        <item x="50"/>
+        <item x="5"/>
+        <item x="137"/>
+        <item x="79"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="118"/>
+        <item x="109"/>
+        <item x="103"/>
+        <item x="99"/>
+        <item x="19"/>
+        <item x="56"/>
+        <item x="149"/>
+        <item x="65"/>
+        <item x="29"/>
+        <item x="134"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="14"/>
+        <item x="8"/>
+        <item x="58"/>
+        <item x="153"/>
+        <item x="20"/>
+        <item x="127"/>
+        <item x="135"/>
+        <item x="54"/>
+        <item x="49"/>
+        <item x="115"/>
+        <item x="157"/>
+        <item x="73"/>
+        <item x="89"/>
+        <item x="160"/>
+        <item x="48"/>
+        <item x="125"/>
+        <item x="148"/>
+        <item x="131"/>
+        <item x="44"/>
+        <item x="47"/>
+        <item x="53"/>
+        <item x="17"/>
+        <item x="113"/>
+        <item x="78"/>
+        <item x="43"/>
+        <item x="91"/>
+        <item x="85"/>
+        <item x="139"/>
+        <item x="80"/>
+        <item x="161"/>
+        <item x="34"/>
+        <item x="101"/>
+        <item x="57"/>
+        <item x="150"/>
+        <item x="119"/>
+        <item x="143"/>
+        <item x="87"/>
+        <item x="132"/>
+        <item x="64"/>
+        <item t="countA"/>
+        <item t="avg"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="43" showAll="0"/>
+    <pivotField numFmtId="43" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="165">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="83"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="85"/>
+    </i>
+    <i>
+      <x v="86"/>
+    </i>
+    <i>
+      <x v="87"/>
+    </i>
+    <i>
+      <x v="88"/>
+    </i>
+    <i>
+      <x v="89"/>
+    </i>
+    <i>
+      <x v="90"/>
+    </i>
+    <i>
+      <x v="91"/>
+    </i>
+    <i>
+      <x v="92"/>
+    </i>
+    <i>
+      <x v="93"/>
+    </i>
+    <i>
+      <x v="94"/>
+    </i>
+    <i>
+      <x v="95"/>
+    </i>
+    <i>
+      <x v="96"/>
+    </i>
+    <i>
+      <x v="97"/>
+    </i>
+    <i>
+      <x v="98"/>
+    </i>
+    <i>
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="100"/>
+    </i>
+    <i>
+      <x v="101"/>
+    </i>
+    <i>
+      <x v="102"/>
+    </i>
+    <i>
+      <x v="103"/>
+    </i>
+    <i>
+      <x v="104"/>
+    </i>
+    <i>
+      <x v="105"/>
+    </i>
+    <i>
+      <x v="106"/>
+    </i>
+    <i>
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="108"/>
+    </i>
+    <i>
+      <x v="109"/>
+    </i>
+    <i>
+      <x v="110"/>
+    </i>
+    <i>
+      <x v="111"/>
+    </i>
+    <i>
+      <x v="112"/>
+    </i>
+    <i>
+      <x v="113"/>
+    </i>
+    <i>
+      <x v="114"/>
+    </i>
+    <i>
+      <x v="115"/>
+    </i>
+    <i>
+      <x v="116"/>
+    </i>
+    <i>
+      <x v="117"/>
+    </i>
+    <i>
+      <x v="118"/>
+    </i>
+    <i>
+      <x v="119"/>
+    </i>
+    <i>
+      <x v="120"/>
+    </i>
+    <i>
+      <x v="121"/>
+    </i>
+    <i>
+      <x v="122"/>
+    </i>
+    <i>
+      <x v="123"/>
+    </i>
+    <i>
+      <x v="124"/>
+    </i>
+    <i>
+      <x v="125"/>
+    </i>
+    <i>
+      <x v="126"/>
+    </i>
+    <i>
+      <x v="127"/>
+    </i>
+    <i>
+      <x v="128"/>
+    </i>
+    <i>
+      <x v="129"/>
+    </i>
+    <i>
+      <x v="130"/>
+    </i>
+    <i>
+      <x v="131"/>
+    </i>
+    <i>
+      <x v="132"/>
+    </i>
+    <i>
+      <x v="133"/>
+    </i>
+    <i>
+      <x v="134"/>
+    </i>
+    <i>
+      <x v="135"/>
+    </i>
+    <i>
+      <x v="136"/>
+    </i>
+    <i>
+      <x v="137"/>
+    </i>
+    <i>
+      <x v="138"/>
+    </i>
+    <i>
+      <x v="139"/>
+    </i>
+    <i>
+      <x v="140"/>
+    </i>
+    <i>
+      <x v="141"/>
+    </i>
+    <i>
+      <x v="142"/>
+    </i>
+    <i>
+      <x v="143"/>
+    </i>
+    <i>
+      <x v="144"/>
+    </i>
+    <i>
+      <x v="145"/>
+    </i>
+    <i>
+      <x v="146"/>
+    </i>
+    <i>
+      <x v="147"/>
+    </i>
+    <i>
+      <x v="148"/>
+    </i>
+    <i>
+      <x v="149"/>
+    </i>
+    <i>
+      <x v="150"/>
+    </i>
+    <i>
+      <x v="151"/>
+    </i>
+    <i>
+      <x v="152"/>
+    </i>
+    <i>
+      <x v="153"/>
+    </i>
+    <i>
+      <x v="154"/>
+    </i>
+    <i>
+      <x v="155"/>
+    </i>
+    <i>
+      <x v="156"/>
+    </i>
+    <i>
+      <x v="157"/>
+    </i>
+    <i>
+      <x v="158"/>
+    </i>
+    <i>
+      <x v="159"/>
+    </i>
+    <i>
+      <x v="160"/>
+    </i>
+    <i>
+      <x v="161"/>
+    </i>
+    <i>
+      <x v="162"/>
+    </i>
+    <i>
+      <x v="163"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Sum of OrderValue" fld="7" baseField="4" baseItem="0"/>
+    <dataField name="Average of OrderValue2" fld="7" subtotal="average" baseField="4" baseItem="163"/>
+    <dataField name="Count of OrderValue2" fld="7" subtotal="count" baseField="4" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC386F7F-46BB-4E10-B271-29A12B9974D5}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J3:P241" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="165">
+        <item x="63"/>
+        <item x="45"/>
+        <item x="155"/>
+        <item x="40"/>
+        <item x="1"/>
+        <item x="124"/>
+        <item x="110"/>
+        <item x="138"/>
+        <item x="162"/>
+        <item x="37"/>
+        <item x="107"/>
+        <item x="142"/>
+        <item x="156"/>
+        <item x="152"/>
+        <item x="30"/>
+        <item x="97"/>
+        <item x="0"/>
+        <item x="31"/>
+        <item x="136"/>
+        <item x="51"/>
+        <item x="130"/>
+        <item x="95"/>
+        <item x="24"/>
+        <item x="76"/>
+        <item x="27"/>
+        <item x="39"/>
+        <item x="74"/>
+        <item x="23"/>
+        <item x="126"/>
+        <item x="28"/>
+        <item x="41"/>
+        <item x="146"/>
+        <item x="9"/>
+        <item x="15"/>
+        <item x="60"/>
+        <item x="94"/>
+        <item x="159"/>
+        <item x="112"/>
+        <item x="16"/>
+        <item x="158"/>
+        <item x="42"/>
+        <item x="106"/>
+        <item x="10"/>
+        <item x="105"/>
+        <item x="21"/>
+        <item x="86"/>
+        <item x="117"/>
+        <item x="75"/>
+        <item x="102"/>
+        <item x="26"/>
+        <item x="145"/>
+        <item x="154"/>
+        <item x="133"/>
+        <item x="82"/>
+        <item x="114"/>
+        <item x="128"/>
+        <item x="69"/>
+        <item x="67"/>
+        <item x="25"/>
+        <item x="35"/>
+        <item x="88"/>
+        <item x="84"/>
+        <item x="18"/>
+        <item x="13"/>
+        <item x="22"/>
+        <item x="122"/>
+        <item x="55"/>
+        <item x="66"/>
+        <item x="61"/>
+        <item x="77"/>
+        <item x="68"/>
+        <item x="129"/>
+        <item x="108"/>
+        <item x="100"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="140"/>
+        <item x="33"/>
+        <item x="111"/>
+        <item x="144"/>
+        <item x="6"/>
+        <item x="32"/>
+        <item x="120"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="52"/>
+        <item x="70"/>
+        <item x="116"/>
+        <item x="36"/>
+        <item x="121"/>
+        <item x="151"/>
+        <item x="62"/>
+        <item x="123"/>
+        <item x="163"/>
+        <item x="147"/>
+        <item x="96"/>
+        <item x="46"/>
+        <item x="104"/>
+        <item x="98"/>
+        <item x="83"/>
+        <item x="59"/>
+        <item x="81"/>
+        <item x="141"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="38"/>
+        <item x="90"/>
+        <item x="50"/>
+        <item x="5"/>
+        <item x="137"/>
+        <item x="79"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="118"/>
+        <item x="109"/>
+        <item x="103"/>
+        <item x="99"/>
+        <item x="19"/>
+        <item x="56"/>
+        <item x="149"/>
+        <item x="65"/>
+        <item x="29"/>
+        <item x="134"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="14"/>
+        <item x="8"/>
+        <item x="58"/>
+        <item x="153"/>
+        <item x="20"/>
+        <item x="127"/>
+        <item x="135"/>
+        <item x="54"/>
+        <item x="49"/>
+        <item x="115"/>
+        <item x="157"/>
+        <item x="73"/>
+        <item x="89"/>
+        <item x="160"/>
+        <item x="48"/>
+        <item x="125"/>
+        <item x="148"/>
+        <item x="131"/>
+        <item x="44"/>
+        <item x="47"/>
+        <item x="53"/>
+        <item x="17"/>
+        <item x="113"/>
+        <item x="78"/>
+        <item x="43"/>
+        <item x="91"/>
+        <item x="85"/>
+        <item x="139"/>
+        <item x="80"/>
+        <item x="161"/>
+        <item x="34"/>
+        <item x="101"/>
+        <item x="57"/>
+        <item x="150"/>
+        <item x="119"/>
+        <item x="143"/>
+        <item x="87"/>
+        <item x="132"/>
+        <item x="64"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="36">
+        <item x="11"/>
+        <item x="6"/>
+        <item x="29"/>
+        <item x="18"/>
+        <item x="12"/>
+        <item x="31"/>
+        <item x="27"/>
+        <item x="21"/>
+        <item x="28"/>
+        <item x="3"/>
+        <item x="33"/>
+        <item x="15"/>
+        <item x="25"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="34"/>
+        <item x="0"/>
+        <item x="32"/>
+        <item x="10"/>
+        <item x="30"/>
+        <item x="26"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="16"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="13"/>
+        <item x="8"/>
+        <item x="17"/>
+        <item x="24"/>
+        <item x="19"/>
+        <item x="1"/>
+        <item x="20"/>
+        <item x="14"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="43" showAll="0"/>
+    <pivotField numFmtId="43" showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="5"/>
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="236">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="40"/>
+    </i>
+    <i r="1">
+      <x v="91"/>
+    </i>
+    <i r="1">
+      <x v="111"/>
+    </i>
+    <i r="1">
+      <x v="112"/>
+    </i>
+    <i r="1">
+      <x v="139"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="55"/>
+    </i>
+    <i r="1">
+      <x v="79"/>
+    </i>
+    <i r="1">
+      <x v="80"/>
+    </i>
+    <i r="1">
+      <x v="87"/>
+    </i>
+    <i r="1">
+      <x v="90"/>
+    </i>
+    <i r="1">
+      <x v="142"/>
+    </i>
+    <i r="1">
+      <x v="156"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="48"/>
+    </i>
+    <i r="1">
+      <x v="61"/>
+    </i>
+    <i r="1">
+      <x v="121"/>
+    </i>
+    <i r="1">
+      <x v="126"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="44"/>
+    </i>
+    <i r="1">
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="41"/>
+    </i>
+    <i r="1">
+      <x v="63"/>
+    </i>
+    <i r="1">
+      <x v="67"/>
+    </i>
+    <i r="1">
+      <x v="74"/>
+    </i>
+    <i r="1">
+      <x v="88"/>
+    </i>
+    <i r="1">
+      <x v="140"/>
+    </i>
+    <i r="1">
+      <x v="157"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="69"/>
+    </i>
+    <i r="1">
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="145"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="160"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="50"/>
+    </i>
+    <i r="1">
+      <x v="96"/>
+    </i>
+    <i r="1">
+      <x v="127"/>
+    </i>
+    <i r="1">
+      <x v="132"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="96"/>
+    </i>
+    <i r="1">
+      <x v="104"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="58"/>
+    </i>
+    <i r="1">
+      <x v="102"/>
+    </i>
+    <i r="1">
+      <x v="108"/>
+    </i>
+    <i r="1">
+      <x v="110"/>
+    </i>
+    <i r="1">
+      <x v="154"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="43"/>
+    </i>
+    <i r="1">
+      <x v="72"/>
+    </i>
+    <i r="1">
+      <x v="88"/>
+    </i>
+    <i r="1">
+      <x v="134"/>
+    </i>
+    <i r="1">
+      <x v="146"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="35"/>
+    </i>
+    <i r="1">
+      <x v="127"/>
+    </i>
+    <i r="1">
+      <x v="148"/>
+    </i>
+    <i r="1">
+      <x v="153"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x v="30"/>
+    </i>
+    <i r="1">
+      <x v="122"/>
+    </i>
+    <i r="1">
+      <x v="147"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="51"/>
+    </i>
+    <i r="1">
+      <x v="86"/>
+    </i>
+    <i r="1">
+      <x v="94"/>
+    </i>
+    <i r="1">
+      <x v="95"/>
+    </i>
+    <i r="1">
+      <x v="105"/>
+    </i>
+    <i r="1">
+      <x v="128"/>
+    </i>
+    <i r="1">
+      <x v="156"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x v="30"/>
+    </i>
+    <i r="1">
+      <x v="37"/>
+    </i>
+    <i r="1">
+      <x v="60"/>
+    </i>
+    <i r="1">
+      <x v="143"/>
+    </i>
+    <i r="1">
+      <x v="152"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="42"/>
+    </i>
+    <i r="1">
+      <x v="78"/>
+    </i>
+    <i r="1">
+      <x v="119"/>
+    </i>
+    <i r="1">
+      <x v="161"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="47"/>
+    </i>
+    <i r="1">
+      <x v="52"/>
+    </i>
+    <i r="1">
+      <x v="84"/>
+    </i>
+    <i r="1">
+      <x v="113"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="82"/>
+    </i>
+    <i r="1">
+      <x v="114"/>
+    </i>
+    <i r="1">
+      <x v="131"/>
+    </i>
+    <i r="1">
+      <x v="133"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="32"/>
+    </i>
+    <i r="1">
+      <x v="33"/>
+    </i>
+    <i r="1">
+      <x v="40"/>
+    </i>
+    <i r="1">
+      <x v="75"/>
+    </i>
+    <i r="1">
+      <x v="77"/>
+    </i>
+    <i r="1">
+      <x v="109"/>
+    </i>
+    <i r="1">
+      <x v="116"/>
+    </i>
+    <i r="1">
+      <x v="149"/>
+    </i>
+    <i r="1">
+      <x v="150"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="46"/>
+    </i>
+    <i r="1">
+      <x v="48"/>
+    </i>
+    <i r="1">
+      <x v="70"/>
+    </i>
+    <i r="1">
+      <x v="86"/>
+    </i>
+    <i r="1">
+      <x v="95"/>
+    </i>
+    <i r="1">
+      <x v="103"/>
+    </i>
+    <i r="1">
+      <x v="107"/>
+    </i>
+    <i r="1">
+      <x v="110"/>
+    </i>
+    <i r="1">
+      <x v="121"/>
+    </i>
+    <i r="1">
+      <x v="138"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="54"/>
+    </i>
+    <i r="1">
+      <x v="62"/>
+    </i>
+    <i r="1">
+      <x v="93"/>
+    </i>
+    <i r="1">
+      <x v="100"/>
+    </i>
+    <i r="1">
+      <x v="120"/>
+    </i>
+    <i r="1">
+      <x v="133"/>
+    </i>
+    <i r="1">
+      <x v="155"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x v="31"/>
+    </i>
+    <i r="1">
+      <x v="45"/>
+    </i>
+    <i r="1">
+      <x v="57"/>
+    </i>
+    <i r="1">
+      <x v="81"/>
+    </i>
+    <i r="1">
+      <x v="95"/>
+    </i>
+    <i r="1">
+      <x v="121"/>
+    </i>
+    <i r="1">
+      <x v="123"/>
+    </i>
+    <i r="1">
+      <x v="127"/>
+    </i>
+    <i r="1">
+      <x v="140"/>
+    </i>
+    <i r="1">
+      <x v="159"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="39"/>
+    </i>
+    <i r="1">
+      <x v="59"/>
+    </i>
+    <i r="1">
+      <x v="99"/>
+    </i>
+    <i r="1">
+      <x v="108"/>
+    </i>
+    <i r="1">
+      <x v="149"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="66"/>
+    </i>
+    <i r="1">
+      <x v="76"/>
+    </i>
+    <i r="1">
+      <x v="124"/>
+    </i>
+    <i r="1">
+      <x v="162"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="125"/>
+    </i>
+    <i r="1">
+      <x v="143"/>
+    </i>
+    <i r="1">
+      <x v="144"/>
+    </i>
+    <i r="1">
+      <x v="146"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x v="64"/>
+    </i>
+    <i r="1">
+      <x v="89"/>
+    </i>
+    <i r="1">
+      <x v="97"/>
+    </i>
+    <i r="1">
+      <x v="98"/>
+    </i>
+    <i r="1">
+      <x v="106"/>
+    </i>
+    <i r="1">
+      <x v="126"/>
+    </i>
+    <i r="1">
+      <x v="130"/>
+    </i>
+    <i r="1">
+      <x v="135"/>
+    </i>
+    <i r="1">
+      <x v="156"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="83"/>
+    </i>
+    <i r="1">
+      <x v="101"/>
+    </i>
+    <i r="1">
+      <x v="117"/>
+    </i>
+    <i r="1">
+      <x v="130"/>
+    </i>
+    <i r="1">
+      <x v="136"/>
+    </i>
+    <i r="1">
+      <x v="161"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i r="1">
+      <x v="34"/>
+    </i>
+    <i r="1">
+      <x v="66"/>
+    </i>
+    <i r="1">
+      <x v="92"/>
+    </i>
+    <i r="1">
+      <x v="118"/>
+    </i>
+    <i r="1">
+      <x v="125"/>
+    </i>
+    <i r="1">
+      <x v="143"/>
+    </i>
+    <i r="1">
+      <x v="158"/>
+    </i>
+    <i r="1">
+      <x v="163"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i r="1">
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="58"/>
+    </i>
+    <i r="1">
+      <x v="85"/>
+    </i>
+    <i r="1">
+      <x v="115"/>
+    </i>
+    <i r="1">
+      <x v="137"/>
+    </i>
+    <i r="1">
+      <x v="151"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i r="1">
+      <x v="29"/>
+    </i>
+    <i r="1">
+      <x v="36"/>
+    </i>
+    <i r="1">
+      <x v="47"/>
+    </i>
+    <i r="1">
+      <x v="68"/>
+    </i>
+    <i r="1">
+      <x v="141"/>
+    </i>
+    <i r="1">
+      <x v="161"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i r="1">
+      <x v="38"/>
+    </i>
+    <i r="1">
+      <x v="49"/>
+    </i>
+    <i r="1">
+      <x v="56"/>
+    </i>
+    <i r="1">
+      <x v="129"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="8"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of OrderValue" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Calc Field 0" fld="12" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF5ABC90-2C4C-454A-873C-C7F4EDBF4997}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E99" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
@@ -6614,1049 +8787,6 @@
     <dataField name="Average of Rating" fld="10" subtotal="average" baseField="5" baseItem="1"/>
     <dataField name="Count of Score" fld="11" subtotal="count" showDataAs="percentOfTotal" baseField="8" baseItem="0" numFmtId="10"/>
     <dataField name="Count of PostalZip" fld="3" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0F2B5079-6B18-4D66-AA94-F999746B3D52}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="S3:V4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField dataField="1" numFmtId="43" showAll="0"/>
-    <pivotField dataField="1" numFmtId="43" showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <dataFields count="4">
-    <dataField name="Sum of OrderValue" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Rating" fld="10" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Score" fld="11" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Calc Field 0" fld="12" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC386F7F-46BB-4E10-B271-29A12B9974D5}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J3:P241" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="165">
-        <item x="63"/>
-        <item x="45"/>
-        <item x="155"/>
-        <item x="40"/>
-        <item x="1"/>
-        <item x="124"/>
-        <item x="110"/>
-        <item x="138"/>
-        <item x="162"/>
-        <item x="37"/>
-        <item x="107"/>
-        <item x="142"/>
-        <item x="156"/>
-        <item x="152"/>
-        <item x="30"/>
-        <item x="97"/>
-        <item x="0"/>
-        <item x="31"/>
-        <item x="136"/>
-        <item x="51"/>
-        <item x="130"/>
-        <item x="95"/>
-        <item x="24"/>
-        <item x="76"/>
-        <item x="27"/>
-        <item x="39"/>
-        <item x="74"/>
-        <item x="23"/>
-        <item x="126"/>
-        <item x="28"/>
-        <item x="41"/>
-        <item x="146"/>
-        <item x="9"/>
-        <item x="15"/>
-        <item x="60"/>
-        <item x="94"/>
-        <item x="159"/>
-        <item x="112"/>
-        <item x="16"/>
-        <item x="158"/>
-        <item x="42"/>
-        <item x="106"/>
-        <item x="10"/>
-        <item x="105"/>
-        <item x="21"/>
-        <item x="86"/>
-        <item x="117"/>
-        <item x="75"/>
-        <item x="102"/>
-        <item x="26"/>
-        <item x="145"/>
-        <item x="154"/>
-        <item x="133"/>
-        <item x="82"/>
-        <item x="114"/>
-        <item x="128"/>
-        <item x="69"/>
-        <item x="67"/>
-        <item x="25"/>
-        <item x="35"/>
-        <item x="88"/>
-        <item x="84"/>
-        <item x="18"/>
-        <item x="13"/>
-        <item x="22"/>
-        <item x="122"/>
-        <item x="55"/>
-        <item x="66"/>
-        <item x="61"/>
-        <item x="77"/>
-        <item x="68"/>
-        <item x="129"/>
-        <item x="108"/>
-        <item x="100"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="140"/>
-        <item x="33"/>
-        <item x="111"/>
-        <item x="144"/>
-        <item x="6"/>
-        <item x="32"/>
-        <item x="120"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="52"/>
-        <item x="70"/>
-        <item x="116"/>
-        <item x="36"/>
-        <item x="121"/>
-        <item x="151"/>
-        <item x="62"/>
-        <item x="123"/>
-        <item x="163"/>
-        <item x="147"/>
-        <item x="96"/>
-        <item x="46"/>
-        <item x="104"/>
-        <item x="98"/>
-        <item x="83"/>
-        <item x="59"/>
-        <item x="81"/>
-        <item x="141"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="38"/>
-        <item x="90"/>
-        <item x="50"/>
-        <item x="5"/>
-        <item x="137"/>
-        <item x="79"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="118"/>
-        <item x="109"/>
-        <item x="103"/>
-        <item x="99"/>
-        <item x="19"/>
-        <item x="56"/>
-        <item x="149"/>
-        <item x="65"/>
-        <item x="29"/>
-        <item x="134"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="14"/>
-        <item x="8"/>
-        <item x="58"/>
-        <item x="153"/>
-        <item x="20"/>
-        <item x="127"/>
-        <item x="135"/>
-        <item x="54"/>
-        <item x="49"/>
-        <item x="115"/>
-        <item x="157"/>
-        <item x="73"/>
-        <item x="89"/>
-        <item x="160"/>
-        <item x="48"/>
-        <item x="125"/>
-        <item x="148"/>
-        <item x="131"/>
-        <item x="44"/>
-        <item x="47"/>
-        <item x="53"/>
-        <item x="17"/>
-        <item x="113"/>
-        <item x="78"/>
-        <item x="43"/>
-        <item x="91"/>
-        <item x="85"/>
-        <item x="139"/>
-        <item x="80"/>
-        <item x="161"/>
-        <item x="34"/>
-        <item x="101"/>
-        <item x="57"/>
-        <item x="150"/>
-        <item x="119"/>
-        <item x="143"/>
-        <item x="87"/>
-        <item x="132"/>
-        <item x="64"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="36">
-        <item x="11"/>
-        <item x="6"/>
-        <item x="29"/>
-        <item x="18"/>
-        <item x="12"/>
-        <item x="31"/>
-        <item x="27"/>
-        <item x="21"/>
-        <item x="28"/>
-        <item x="3"/>
-        <item x="33"/>
-        <item x="15"/>
-        <item x="25"/>
-        <item x="23"/>
-        <item x="22"/>
-        <item x="34"/>
-        <item x="0"/>
-        <item x="32"/>
-        <item x="10"/>
-        <item x="30"/>
-        <item x="26"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="16"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="13"/>
-        <item x="8"/>
-        <item x="17"/>
-        <item x="24"/>
-        <item x="19"/>
-        <item x="1"/>
-        <item x="20"/>
-        <item x="14"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="43" showAll="0"/>
-    <pivotField numFmtId="43" showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="5"/>
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="236">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="40"/>
-    </i>
-    <i r="1">
-      <x v="91"/>
-    </i>
-    <i r="1">
-      <x v="111"/>
-    </i>
-    <i r="1">
-      <x v="112"/>
-    </i>
-    <i r="1">
-      <x v="139"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="55"/>
-    </i>
-    <i r="1">
-      <x v="79"/>
-    </i>
-    <i r="1">
-      <x v="80"/>
-    </i>
-    <i r="1">
-      <x v="87"/>
-    </i>
-    <i r="1">
-      <x v="90"/>
-    </i>
-    <i r="1">
-      <x v="142"/>
-    </i>
-    <i r="1">
-      <x v="156"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="48"/>
-    </i>
-    <i r="1">
-      <x v="61"/>
-    </i>
-    <i r="1">
-      <x v="121"/>
-    </i>
-    <i r="1">
-      <x v="126"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="44"/>
-    </i>
-    <i r="1">
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="25"/>
-    </i>
-    <i r="1">
-      <x v="41"/>
-    </i>
-    <i r="1">
-      <x v="63"/>
-    </i>
-    <i r="1">
-      <x v="67"/>
-    </i>
-    <i r="1">
-      <x v="74"/>
-    </i>
-    <i r="1">
-      <x v="88"/>
-    </i>
-    <i r="1">
-      <x v="140"/>
-    </i>
-    <i r="1">
-      <x v="157"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="69"/>
-    </i>
-    <i r="1">
-      <x v="73"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="18"/>
-    </i>
-    <i r="1">
-      <x v="145"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="17"/>
-    </i>
-    <i r="1">
-      <x v="20"/>
-    </i>
-    <i r="1">
-      <x v="160"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="50"/>
-    </i>
-    <i r="1">
-      <x v="96"/>
-    </i>
-    <i r="1">
-      <x v="127"/>
-    </i>
-    <i r="1">
-      <x v="132"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="23"/>
-    </i>
-    <i r="1">
-      <x v="96"/>
-    </i>
-    <i r="1">
-      <x v="104"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="20"/>
-    </i>
-    <i r="1">
-      <x v="58"/>
-    </i>
-    <i r="1">
-      <x v="102"/>
-    </i>
-    <i r="1">
-      <x v="108"/>
-    </i>
-    <i r="1">
-      <x v="110"/>
-    </i>
-    <i r="1">
-      <x v="154"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="43"/>
-    </i>
-    <i r="1">
-      <x v="72"/>
-    </i>
-    <i r="1">
-      <x v="88"/>
-    </i>
-    <i r="1">
-      <x v="134"/>
-    </i>
-    <i r="1">
-      <x v="146"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="35"/>
-    </i>
-    <i r="1">
-      <x v="127"/>
-    </i>
-    <i r="1">
-      <x v="148"/>
-    </i>
-    <i r="1">
-      <x v="153"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="15"/>
-    </i>
-    <i r="1">
-      <x v="28"/>
-    </i>
-    <i r="1">
-      <x v="30"/>
-    </i>
-    <i r="1">
-      <x v="122"/>
-    </i>
-    <i r="1">
-      <x v="147"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x v="26"/>
-    </i>
-    <i r="1">
-      <x v="51"/>
-    </i>
-    <i r="1">
-      <x v="86"/>
-    </i>
-    <i r="1">
-      <x v="94"/>
-    </i>
-    <i r="1">
-      <x v="95"/>
-    </i>
-    <i r="1">
-      <x v="105"/>
-    </i>
-    <i r="1">
-      <x v="128"/>
-    </i>
-    <i r="1">
-      <x v="156"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="16"/>
-    </i>
-    <i r="1">
-      <x v="27"/>
-    </i>
-    <i r="1">
-      <x v="30"/>
-    </i>
-    <i r="1">
-      <x v="37"/>
-    </i>
-    <i r="1">
-      <x v="60"/>
-    </i>
-    <i r="1">
-      <x v="143"/>
-    </i>
-    <i r="1">
-      <x v="152"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i r="1">
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i r="1">
-      <x v="42"/>
-    </i>
-    <i r="1">
-      <x v="78"/>
-    </i>
-    <i r="1">
-      <x v="119"/>
-    </i>
-    <i r="1">
-      <x v="161"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="47"/>
-    </i>
-    <i r="1">
-      <x v="52"/>
-    </i>
-    <i r="1">
-      <x v="84"/>
-    </i>
-    <i r="1">
-      <x v="113"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="82"/>
-    </i>
-    <i r="1">
-      <x v="114"/>
-    </i>
-    <i r="1">
-      <x v="131"/>
-    </i>
-    <i r="1">
-      <x v="133"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i r="1">
-      <x v="32"/>
-    </i>
-    <i r="1">
-      <x v="33"/>
-    </i>
-    <i r="1">
-      <x v="40"/>
-    </i>
-    <i r="1">
-      <x v="75"/>
-    </i>
-    <i r="1">
-      <x v="77"/>
-    </i>
-    <i r="1">
-      <x v="109"/>
-    </i>
-    <i r="1">
-      <x v="116"/>
-    </i>
-    <i r="1">
-      <x v="149"/>
-    </i>
-    <i r="1">
-      <x v="150"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i r="1">
-      <x v="46"/>
-    </i>
-    <i r="1">
-      <x v="48"/>
-    </i>
-    <i r="1">
-      <x v="70"/>
-    </i>
-    <i r="1">
-      <x v="86"/>
-    </i>
-    <i r="1">
-      <x v="95"/>
-    </i>
-    <i r="1">
-      <x v="103"/>
-    </i>
-    <i r="1">
-      <x v="107"/>
-    </i>
-    <i r="1">
-      <x v="110"/>
-    </i>
-    <i r="1">
-      <x v="121"/>
-    </i>
-    <i r="1">
-      <x v="138"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i r="1">
-      <x v="54"/>
-    </i>
-    <i r="1">
-      <x v="62"/>
-    </i>
-    <i r="1">
-      <x v="93"/>
-    </i>
-    <i r="1">
-      <x v="100"/>
-    </i>
-    <i r="1">
-      <x v="120"/>
-    </i>
-    <i r="1">
-      <x v="133"/>
-    </i>
-    <i r="1">
-      <x v="155"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i r="1">
-      <x v="31"/>
-    </i>
-    <i r="1">
-      <x v="45"/>
-    </i>
-    <i r="1">
-      <x v="57"/>
-    </i>
-    <i r="1">
-      <x v="81"/>
-    </i>
-    <i r="1">
-      <x v="95"/>
-    </i>
-    <i r="1">
-      <x v="121"/>
-    </i>
-    <i r="1">
-      <x v="123"/>
-    </i>
-    <i r="1">
-      <x v="127"/>
-    </i>
-    <i r="1">
-      <x v="140"/>
-    </i>
-    <i r="1">
-      <x v="159"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i r="1">
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x v="19"/>
-    </i>
-    <i r="1">
-      <x v="22"/>
-    </i>
-    <i r="1">
-      <x v="39"/>
-    </i>
-    <i r="1">
-      <x v="59"/>
-    </i>
-    <i r="1">
-      <x v="99"/>
-    </i>
-    <i r="1">
-      <x v="108"/>
-    </i>
-    <i r="1">
-      <x v="149"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i r="1">
-      <x v="19"/>
-    </i>
-    <i r="1">
-      <x v="66"/>
-    </i>
-    <i r="1">
-      <x v="76"/>
-    </i>
-    <i r="1">
-      <x v="124"/>
-    </i>
-    <i r="1">
-      <x v="162"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="125"/>
-    </i>
-    <i r="1">
-      <x v="143"/>
-    </i>
-    <i r="1">
-      <x v="144"/>
-    </i>
-    <i r="1">
-      <x v="146"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i r="1">
-      <x v="64"/>
-    </i>
-    <i r="1">
-      <x v="89"/>
-    </i>
-    <i r="1">
-      <x v="97"/>
-    </i>
-    <i r="1">
-      <x v="98"/>
-    </i>
-    <i r="1">
-      <x v="106"/>
-    </i>
-    <i r="1">
-      <x v="126"/>
-    </i>
-    <i r="1">
-      <x v="130"/>
-    </i>
-    <i r="1">
-      <x v="135"/>
-    </i>
-    <i r="1">
-      <x v="156"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="21"/>
-    </i>
-    <i r="1">
-      <x v="83"/>
-    </i>
-    <i r="1">
-      <x v="101"/>
-    </i>
-    <i r="1">
-      <x v="117"/>
-    </i>
-    <i r="1">
-      <x v="130"/>
-    </i>
-    <i r="1">
-      <x v="136"/>
-    </i>
-    <i r="1">
-      <x v="161"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i r="1">
-      <x v="34"/>
-    </i>
-    <i r="1">
-      <x v="66"/>
-    </i>
-    <i r="1">
-      <x v="92"/>
-    </i>
-    <i r="1">
-      <x v="118"/>
-    </i>
-    <i r="1">
-      <x v="125"/>
-    </i>
-    <i r="1">
-      <x v="143"/>
-    </i>
-    <i r="1">
-      <x v="158"/>
-    </i>
-    <i r="1">
-      <x v="163"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i r="1">
-      <x v="24"/>
-    </i>
-    <i r="1">
-      <x v="27"/>
-    </i>
-    <i r="1">
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="58"/>
-    </i>
-    <i r="1">
-      <x v="85"/>
-    </i>
-    <i r="1">
-      <x v="115"/>
-    </i>
-    <i r="1">
-      <x v="137"/>
-    </i>
-    <i r="1">
-      <x v="151"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i r="1">
-      <x v="29"/>
-    </i>
-    <i r="1">
-      <x v="36"/>
-    </i>
-    <i r="1">
-      <x v="47"/>
-    </i>
-    <i r="1">
-      <x v="68"/>
-    </i>
-    <i r="1">
-      <x v="141"/>
-    </i>
-    <i r="1">
-      <x v="161"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i r="1">
-      <x v="38"/>
-    </i>
-    <i r="1">
-      <x v="49"/>
-    </i>
-    <i r="1">
-      <x v="56"/>
-    </i>
-    <i r="1">
-      <x v="129"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="8"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="6">
-    <i>
-      <x/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-    <i t="grand" i="1">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of OrderValue" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Calc Field 0" fld="12" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -8010,7 +9140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EFEC6A7-19AA-43AD-A5F9-CEDF221BB280}">
   <dimension ref="A1:L201"/>
   <sheetViews>
-    <sheetView topLeftCell="A149" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A1:L201"/>
     </sheetView>
   </sheetViews>
@@ -15678,10 +16808,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36A9D4C-BD73-439F-BF4F-8CCD9B94A2F1}">
-  <dimension ref="A1:V241"/>
+  <dimension ref="A1:AB241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" topLeftCell="J135" workbookViewId="0">
+      <selection activeCell="AA168" sqref="AA168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15703,9 +16833,13 @@
     <col min="20" max="20" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -15713,7 +16847,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>853</v>
       </c>
@@ -15744,8 +16878,20 @@
       <c r="V3" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y3" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>858</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>869</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>36</v>
       </c>
@@ -15785,8 +16931,20 @@
       <c r="V4" s="10">
         <v>9895964</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y4" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z4" s="11">
+        <v>16459.38</v>
+      </c>
+      <c r="AA4" s="11">
+        <v>16459.38</v>
+      </c>
+      <c r="AB4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>855</v>
       </c>
@@ -15817,8 +16975,20 @@
       <c r="N5" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y5" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z5" s="11">
+        <v>13864.85</v>
+      </c>
+      <c r="AA5" s="11">
+        <v>13864.85</v>
+      </c>
+      <c r="AB5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>856</v>
       </c>
@@ -15856,8 +17026,20 @@
       <c r="P6">
         <v>301178</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y6" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="Z6" s="11">
+        <v>50924.3</v>
+      </c>
+      <c r="AA6" s="11">
+        <v>50924.3</v>
+      </c>
+      <c r="AB6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
@@ -15891,8 +17073,20 @@
       <c r="P7">
         <v>67002</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y7" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>169343.28</v>
+      </c>
+      <c r="AA7" s="11">
+        <v>56447.76</v>
+      </c>
+      <c r="AB7" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>855</v>
       </c>
@@ -15926,8 +17120,20 @@
       <c r="P8">
         <v>22442</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z8" s="11">
+        <v>73875.25</v>
+      </c>
+      <c r="AA8" s="11">
+        <v>73875.25</v>
+      </c>
+      <c r="AB8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>856</v>
       </c>
@@ -15961,8 +17167,20 @@
       <c r="P9">
         <v>95631</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y9" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="Z9" s="11">
+        <v>32905.53</v>
+      </c>
+      <c r="AA9" s="11">
+        <v>32905.53</v>
+      </c>
+      <c r="AB9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
@@ -15996,8 +17214,20 @@
       <c r="P10">
         <v>37398</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z10" s="11">
+        <v>27932.68</v>
+      </c>
+      <c r="AA10" s="11">
+        <v>27932.68</v>
+      </c>
+      <c r="AB10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>855</v>
       </c>
@@ -16031,8 +17261,20 @@
       <c r="P11">
         <v>78705</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y11" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>142242.6</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>71121.3</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>856</v>
       </c>
@@ -16069,8 +17311,20 @@
       <c r="P12">
         <v>337112</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z12" s="11">
+        <v>42659.75</v>
+      </c>
+      <c r="AA12" s="11">
+        <v>42659.75</v>
+      </c>
+      <c r="AB12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>47</v>
       </c>
@@ -16104,8 +17358,20 @@
       <c r="P13">
         <v>44933</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y13" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>76370.97</v>
+      </c>
+      <c r="AA13" s="11">
+        <v>76370.97</v>
+      </c>
+      <c r="AB13" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>855</v>
       </c>
@@ -16139,8 +17405,20 @@
       <c r="P14">
         <v>26786</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y14" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="Z14" s="11">
+        <v>56303.45</v>
+      </c>
+      <c r="AA14" s="11">
+        <v>56303.45</v>
+      </c>
+      <c r="AB14" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>856</v>
       </c>
@@ -16174,8 +17452,20 @@
       <c r="P15">
         <v>25150</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y15" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>42901.51</v>
+      </c>
+      <c r="AA15" s="11">
+        <v>42901.51</v>
+      </c>
+      <c r="AB15" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>38</v>
       </c>
@@ -16209,8 +17499,20 @@
       <c r="P16">
         <v>78338</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z16" s="11">
+        <v>70471.25</v>
+      </c>
+      <c r="AA16" s="11">
+        <v>70471.25</v>
+      </c>
+      <c r="AB16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>855</v>
       </c>
@@ -16244,8 +17546,20 @@
       <c r="P17">
         <v>54215</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y17" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="Z17" s="11">
+        <v>81192.95</v>
+      </c>
+      <c r="AA17" s="11">
+        <v>81192.95</v>
+      </c>
+      <c r="AB17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>856</v>
       </c>
@@ -16279,8 +17593,20 @@
       <c r="P18">
         <v>38203</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y18" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z18" s="11">
+        <v>68436.149999999994</v>
+      </c>
+      <c r="AA18" s="11">
+        <v>68436.149999999994</v>
+      </c>
+      <c r="AB18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>66</v>
       </c>
@@ -16314,8 +17640,20 @@
       <c r="P19">
         <v>69487</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y19" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="Z19" s="11">
+        <v>33731.56</v>
+      </c>
+      <c r="AA19" s="11">
+        <v>33731.56</v>
+      </c>
+      <c r="AB19" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>856</v>
       </c>
@@ -16352,8 +17690,20 @@
       <c r="P20">
         <v>210407</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z20" s="11">
+        <v>40060.519999999997</v>
+      </c>
+      <c r="AA20" s="11">
+        <v>40060.519999999997</v>
+      </c>
+      <c r="AB20" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>5</v>
       </c>
@@ -16387,8 +17737,20 @@
       <c r="P21">
         <v>70158</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z21" s="11">
+        <v>62052.89</v>
+      </c>
+      <c r="AA21" s="11">
+        <v>62052.89</v>
+      </c>
+      <c r="AB21" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>855</v>
       </c>
@@ -16422,8 +17784,20 @@
       <c r="P22">
         <v>47192</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y22" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="Z22" s="11">
+        <v>86247.96</v>
+      </c>
+      <c r="AA22" s="11">
+        <v>86247.96</v>
+      </c>
+      <c r="AB22" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>44</v>
       </c>
@@ -16457,8 +17831,20 @@
       <c r="P23">
         <v>4573</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z23" s="11">
+        <v>60371.920000000006</v>
+      </c>
+      <c r="AA23" s="11">
+        <v>30185.960000000003</v>
+      </c>
+      <c r="AB23" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>855</v>
       </c>
@@ -16492,8 +17878,20 @@
       <c r="P24">
         <v>2944</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y24" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="Z24" s="11">
+        <v>95703.360000000001</v>
+      </c>
+      <c r="AA24" s="11">
+        <v>47851.68</v>
+      </c>
+      <c r="AB24" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>856</v>
       </c>
@@ -16527,8 +17925,20 @@
       <c r="P25">
         <v>55968</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y25" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="Z25" s="11">
+        <v>54746.71</v>
+      </c>
+      <c r="AA25" s="11">
+        <v>54746.71</v>
+      </c>
+      <c r="AB25" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>34</v>
       </c>
@@ -16562,8 +17972,20 @@
       <c r="P26">
         <v>29572</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z26" s="11">
+        <v>3619.93</v>
+      </c>
+      <c r="AA26" s="11">
+        <v>3619.93</v>
+      </c>
+      <c r="AB26" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>855</v>
       </c>
@@ -16600,8 +18022,20 @@
       <c r="P27">
         <v>48205</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y27" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="Z27" s="11">
+        <v>26128.86</v>
+      </c>
+      <c r="AA27" s="11">
+        <v>26128.86</v>
+      </c>
+      <c r="AB27" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>856</v>
       </c>
@@ -16635,8 +18069,20 @@
       <c r="P28">
         <v>12553</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y28" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z28" s="11">
+        <v>15735.99</v>
+      </c>
+      <c r="AA28" s="11">
+        <v>15735.99</v>
+      </c>
+      <c r="AB28" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
@@ -16670,8 +18116,20 @@
       <c r="P29">
         <v>35651</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y29" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="Z29" s="11">
+        <v>63074.64</v>
+      </c>
+      <c r="AA29" s="11">
+        <v>63074.64</v>
+      </c>
+      <c r="AB29" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>855</v>
       </c>
@@ -16708,8 +18166,20 @@
       <c r="P30">
         <v>308234</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y30" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="Z30" s="11">
+        <v>46521.04</v>
+      </c>
+      <c r="AA30" s="11">
+        <v>46521.04</v>
+      </c>
+      <c r="AB30" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>17</v>
       </c>
@@ -16743,8 +18213,20 @@
       <c r="P31">
         <v>69382</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z31" s="11">
+        <v>123696.19</v>
+      </c>
+      <c r="AA31" s="11">
+        <v>61848.095000000001</v>
+      </c>
+      <c r="AB31" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>855</v>
       </c>
@@ -16778,8 +18260,20 @@
       <c r="P32">
         <v>31488</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y32" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z32" s="11">
+        <v>85416.21</v>
+      </c>
+      <c r="AA32" s="11">
+        <v>85416.21</v>
+      </c>
+      <c r="AB32" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>856</v>
       </c>
@@ -16813,8 +18307,20 @@
       <c r="P33">
         <v>54223</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y33" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z33" s="11">
+        <v>35270.660000000003</v>
+      </c>
+      <c r="AA33" s="11">
+        <v>35270.660000000003</v>
+      </c>
+      <c r="AB33" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>61</v>
       </c>
@@ -16848,8 +18354,20 @@
       <c r="P34">
         <v>39347</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y34" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z34" s="11">
+        <v>79562.95</v>
+      </c>
+      <c r="AA34" s="11">
+        <v>39781.474999999999</v>
+      </c>
+      <c r="AB34" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>855</v>
       </c>
@@ -16883,8 +18401,20 @@
       <c r="P35">
         <v>27899</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y35" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="Z35" s="11">
+        <v>64703.05</v>
+      </c>
+      <c r="AA35" s="11">
+        <v>64703.05</v>
+      </c>
+      <c r="AB35" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>856</v>
       </c>
@@ -16918,8 +18448,20 @@
       <c r="P36">
         <v>20515</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y36" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z36" s="11">
+        <v>48578.11</v>
+      </c>
+      <c r="AA36" s="11">
+        <v>48578.11</v>
+      </c>
+      <c r="AB36" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>22</v>
       </c>
@@ -16953,8 +18495,20 @@
       <c r="P37">
         <v>6984</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y37" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z37" s="11">
+        <v>8729.49</v>
+      </c>
+      <c r="AA37" s="11">
+        <v>8729.49</v>
+      </c>
+      <c r="AB37" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>855</v>
       </c>
@@ -16988,8 +18542,20 @@
       <c r="P38">
         <v>58397</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y38" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z38" s="11">
+        <v>718.49</v>
+      </c>
+      <c r="AA38" s="11">
+        <v>718.49</v>
+      </c>
+      <c r="AB38" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>23</v>
       </c>
@@ -17026,8 +18592,20 @@
       <c r="P39">
         <v>85369</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z39" s="11">
+        <v>13302.79</v>
+      </c>
+      <c r="AA39" s="11">
+        <v>13302.79</v>
+      </c>
+      <c r="AB39" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>855</v>
       </c>
@@ -17061,8 +18639,20 @@
       <c r="P40">
         <v>370</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y40" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="Z40" s="11">
+        <v>37203.35</v>
+      </c>
+      <c r="AA40" s="11">
+        <v>37203.35</v>
+      </c>
+      <c r="AB40" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>856</v>
       </c>
@@ -17096,8 +18686,20 @@
       <c r="P41">
         <v>84998</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z41" s="11">
+        <v>60972.66</v>
+      </c>
+      <c r="AA41" s="11">
+        <v>60972.66</v>
+      </c>
+      <c r="AB41" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>71</v>
       </c>
@@ -17131,8 +18733,20 @@
       <c r="P42">
         <v>192251</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y42" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z42" s="11">
+        <v>38717.9</v>
+      </c>
+      <c r="AA42" s="11">
+        <v>38717.9</v>
+      </c>
+      <c r="AB42" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>855</v>
       </c>
@@ -17166,8 +18780,20 @@
       <c r="P43">
         <v>94873</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y43" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z43" s="11">
+        <v>36306.9</v>
+      </c>
+      <c r="AA43" s="11">
+        <v>36306.9</v>
+      </c>
+      <c r="AB43" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>856</v>
       </c>
@@ -17201,8 +18827,20 @@
       <c r="P44">
         <v>97378</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y44" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z44" s="11">
+        <v>106055.57</v>
+      </c>
+      <c r="AA44" s="11">
+        <v>53027.785000000003</v>
+      </c>
+      <c r="AB44" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>53</v>
       </c>
@@ -17239,8 +18877,20 @@
       <c r="P45">
         <v>166683</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y45" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="Z45" s="11">
+        <v>28625.14</v>
+      </c>
+      <c r="AA45" s="11">
+        <v>28625.14</v>
+      </c>
+      <c r="AB45" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>855</v>
       </c>
@@ -17274,8 +18924,20 @@
       <c r="P46">
         <v>68258</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y46" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z46" s="11">
+        <v>54406.29</v>
+      </c>
+      <c r="AA46" s="11">
+        <v>54406.29</v>
+      </c>
+      <c r="AB46" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>856</v>
       </c>
@@ -17309,8 +18971,20 @@
       <c r="P47">
         <v>90398</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y47" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="Z47" s="11">
+        <v>1374.12</v>
+      </c>
+      <c r="AA47" s="11">
+        <v>1374.12</v>
+      </c>
+      <c r="AB47" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>14</v>
       </c>
@@ -17344,8 +19018,20 @@
       <c r="P48">
         <v>8027</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y48" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z48" s="11">
+        <v>11412.23</v>
+      </c>
+      <c r="AA48" s="11">
+        <v>11412.23</v>
+      </c>
+      <c r="AB48" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>856</v>
       </c>
@@ -17382,8 +19068,20 @@
       <c r="P49">
         <v>164924</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y49" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="Z49" s="11">
+        <v>12962.91</v>
+      </c>
+      <c r="AA49" s="11">
+        <v>12962.91</v>
+      </c>
+      <c r="AB49" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>42</v>
       </c>
@@ -17417,8 +19115,20 @@
       <c r="P50">
         <v>36994</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y50" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="Z50" s="11">
+        <v>85264.3</v>
+      </c>
+      <c r="AA50" s="11">
+        <v>85264.3</v>
+      </c>
+      <c r="AB50" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>855</v>
       </c>
@@ -17452,8 +19162,20 @@
       <c r="P51">
         <v>97264</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y51" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="Z51" s="11">
+        <v>75262.16</v>
+      </c>
+      <c r="AA51" s="11">
+        <v>37631.08</v>
+      </c>
+      <c r="AB51" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>856</v>
       </c>
@@ -17487,8 +19209,20 @@
       <c r="P52">
         <v>30038</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y52" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z52" s="11">
+        <v>30287.159999999996</v>
+      </c>
+      <c r="AA52" s="11">
+        <v>15143.579999999998</v>
+      </c>
+      <c r="AB52" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>2</v>
       </c>
@@ -17522,8 +19256,20 @@
       <c r="P53">
         <v>628</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y53" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z53" s="11">
+        <v>87450</v>
+      </c>
+      <c r="AA53" s="11">
+        <v>87450</v>
+      </c>
+      <c r="AB53" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>855</v>
       </c>
@@ -17560,8 +19306,20 @@
       <c r="P54">
         <v>231762</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y54" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z54" s="11">
+        <v>33631.040000000001</v>
+      </c>
+      <c r="AA54" s="11">
+        <v>33631.040000000001</v>
+      </c>
+      <c r="AB54" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>856</v>
       </c>
@@ -17595,8 +19353,20 @@
       <c r="P55">
         <v>25142</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y55" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="Z55" s="11">
+        <v>7813.36</v>
+      </c>
+      <c r="AA55" s="11">
+        <v>7813.36</v>
+      </c>
+      <c r="AB55" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>16</v>
       </c>
@@ -17630,8 +19400,20 @@
       <c r="P56">
         <v>28742</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y56" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z56" s="11">
+        <v>73677.600000000006</v>
+      </c>
+      <c r="AA56" s="11">
+        <v>73677.600000000006</v>
+      </c>
+      <c r="AB56" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>855</v>
       </c>
@@ -17665,8 +19447,20 @@
       <c r="P57">
         <v>86798</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y57" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="Z57" s="11">
+        <v>66029.7</v>
+      </c>
+      <c r="AA57" s="11">
+        <v>66029.7</v>
+      </c>
+      <c r="AB57" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>856</v>
       </c>
@@ -17700,8 +19494,20 @@
       <c r="P58">
         <v>91081</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y58" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z58" s="11">
+        <v>62968.51</v>
+      </c>
+      <c r="AA58" s="11">
+        <v>62968.51</v>
+      </c>
+      <c r="AB58" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>48</v>
       </c>
@@ -17738,8 +19544,20 @@
       <c r="P59">
         <v>241175</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y59" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="Z59" s="11">
+        <v>40847.769999999997</v>
+      </c>
+      <c r="AA59" s="11">
+        <v>40847.769999999997</v>
+      </c>
+      <c r="AB59" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>855</v>
       </c>
@@ -17773,8 +19591,20 @@
       <c r="P60">
         <v>14875</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y60" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z60" s="11">
+        <v>33525.82</v>
+      </c>
+      <c r="AA60" s="11">
+        <v>33525.82</v>
+      </c>
+      <c r="AB60" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>856</v>
       </c>
@@ -17808,8 +19638,20 @@
       <c r="P61">
         <v>62037</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y61" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="Z61" s="11">
+        <v>41410.54</v>
+      </c>
+      <c r="AA61" s="11">
+        <v>41410.54</v>
+      </c>
+      <c r="AB61" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>37</v>
       </c>
@@ -17843,8 +19685,20 @@
       <c r="P62">
         <v>56815</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y62" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z62" s="11">
+        <v>59784.55</v>
+      </c>
+      <c r="AA62" s="11">
+        <v>29892.275000000001</v>
+      </c>
+      <c r="AB62" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>855</v>
       </c>
@@ -17878,8 +19732,20 @@
       <c r="P63">
         <v>77611</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y63" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z63" s="11">
+        <v>58974.98</v>
+      </c>
+      <c r="AA63" s="11">
+        <v>58974.98</v>
+      </c>
+      <c r="AB63" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>856</v>
       </c>
@@ -17913,8 +19779,20 @@
       <c r="P64">
         <v>25306</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y64" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="Z64" s="11">
+        <v>87614.3</v>
+      </c>
+      <c r="AA64" s="11">
+        <v>87614.3</v>
+      </c>
+      <c r="AB64" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>13</v>
       </c>
@@ -17948,8 +19826,20 @@
       <c r="P65">
         <v>4530</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y65" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="Z65" s="11">
+        <v>2676.8</v>
+      </c>
+      <c r="AA65" s="11">
+        <v>2676.8</v>
+      </c>
+      <c r="AB65" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>855</v>
       </c>
@@ -17986,8 +19876,20 @@
       <c r="P66">
         <v>469816</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y66" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z66" s="11">
+        <v>88193.17</v>
+      </c>
+      <c r="AA66" s="11">
+        <v>88193.17</v>
+      </c>
+      <c r="AB66" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>856</v>
       </c>
@@ -18021,8 +19923,20 @@
       <c r="P67">
         <v>90978</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y67" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z67" s="11">
+        <v>49293.96</v>
+      </c>
+      <c r="AA67" s="11">
+        <v>49293.96</v>
+      </c>
+      <c r="AB67" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>12</v>
       </c>
@@ -18056,8 +19970,20 @@
       <c r="P68">
         <v>61934</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y68" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z68" s="11">
+        <v>22188.53</v>
+      </c>
+      <c r="AA68" s="11">
+        <v>22188.53</v>
+      </c>
+      <c r="AB68" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>855</v>
       </c>
@@ -18091,8 +20017,20 @@
       <c r="P69">
         <v>77518</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y69" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z69" s="11">
+        <v>32410.240000000002</v>
+      </c>
+      <c r="AA69" s="11">
+        <v>32410.240000000002</v>
+      </c>
+      <c r="AB69" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>856</v>
       </c>
@@ -18126,8 +20064,20 @@
       <c r="P70">
         <v>1512</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y70" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z70" s="11">
+        <v>72390.95</v>
+      </c>
+      <c r="AA70" s="11">
+        <v>36195.474999999999</v>
+      </c>
+      <c r="AB70" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>15</v>
       </c>
@@ -18161,8 +20111,20 @@
       <c r="P71">
         <v>87085</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y71" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="Z71" s="11">
+        <v>35769.71</v>
+      </c>
+      <c r="AA71" s="11">
+        <v>35769.71</v>
+      </c>
+      <c r="AB71" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>855</v>
       </c>
@@ -18196,8 +20158,20 @@
       <c r="P72">
         <v>23507</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y72" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z72" s="11">
+        <v>30923.360000000001</v>
+      </c>
+      <c r="AA72" s="11">
+        <v>30923.360000000001</v>
+      </c>
+      <c r="AB72" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>856</v>
       </c>
@@ -18231,8 +20205,20 @@
       <c r="P73">
         <v>78869</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y73" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="Z73" s="11">
+        <v>336.68</v>
+      </c>
+      <c r="AA73" s="11">
+        <v>336.68</v>
+      </c>
+      <c r="AB73" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>3</v>
       </c>
@@ -18266,8 +20252,20 @@
       <c r="P74">
         <v>48414</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y74" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z74" s="11">
+        <v>16107.59</v>
+      </c>
+      <c r="AA74" s="11">
+        <v>16107.59</v>
+      </c>
+      <c r="AB74" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>855</v>
       </c>
@@ -18304,8 +20302,20 @@
       <c r="P75">
         <v>146891</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y75" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z75" s="11">
+        <v>14941.36</v>
+      </c>
+      <c r="AA75" s="11">
+        <v>14941.36</v>
+      </c>
+      <c r="AB75" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>32</v>
       </c>
@@ -18339,8 +20349,20 @@
       <c r="P76">
         <v>15251</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y76" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="Z76" s="11">
+        <v>79167.850000000006</v>
+      </c>
+      <c r="AA76" s="11">
+        <v>79167.850000000006</v>
+      </c>
+      <c r="AB76" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>855</v>
       </c>
@@ -18374,8 +20396,20 @@
       <c r="P77">
         <v>14633</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y77" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z77" s="11">
+        <v>77271.08</v>
+      </c>
+      <c r="AA77" s="11">
+        <v>77271.08</v>
+      </c>
+      <c r="AB77" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>856</v>
       </c>
@@ -18409,8 +20443,20 @@
       <c r="P78">
         <v>44669</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y78" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="Z78" s="11">
+        <v>25362.35</v>
+      </c>
+      <c r="AA78" s="11">
+        <v>25362.35</v>
+      </c>
+      <c r="AB78" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>28</v>
       </c>
@@ -18444,8 +20490,20 @@
       <c r="P79">
         <v>36626</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y79" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="Z79" s="11">
+        <v>49644.62</v>
+      </c>
+      <c r="AA79" s="11">
+        <v>49644.62</v>
+      </c>
+      <c r="AB79" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>855</v>
       </c>
@@ -18479,8 +20537,20 @@
       <c r="P80">
         <v>35711</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y80" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="Z80" s="11">
+        <v>42845.9</v>
+      </c>
+      <c r="AA80" s="11">
+        <v>42845.9</v>
+      </c>
+      <c r="AB80" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>856</v>
       </c>
@@ -18517,8 +20587,20 @@
       <c r="P81">
         <v>363720</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y81" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z81" s="11">
+        <v>71538.320000000007</v>
+      </c>
+      <c r="AA81" s="11">
+        <v>71538.320000000007</v>
+      </c>
+      <c r="AB81" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>33</v>
       </c>
@@ -18552,8 +20634,20 @@
       <c r="P82">
         <v>60763</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y82" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="Z82" s="11">
+        <v>38046.22</v>
+      </c>
+      <c r="AA82" s="11">
+        <v>38046.22</v>
+      </c>
+      <c r="AB82" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>855</v>
       </c>
@@ -18587,8 +20681,20 @@
       <c r="P83">
         <v>37105</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y83" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="Z83" s="11">
+        <v>24350.75</v>
+      </c>
+      <c r="AA83" s="11">
+        <v>24350.75</v>
+      </c>
+      <c r="AB83" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>856</v>
       </c>
@@ -18622,8 +20728,20 @@
       <c r="P84">
         <v>93958</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y84" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z84" s="11">
+        <v>22863.95</v>
+      </c>
+      <c r="AA84" s="11">
+        <v>22863.95</v>
+      </c>
+      <c r="AB84" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>64</v>
       </c>
@@ -18657,8 +20775,20 @@
       <c r="P85">
         <v>62024</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y85" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z85" s="11">
+        <v>6380.07</v>
+      </c>
+      <c r="AA85" s="11">
+        <v>6380.07</v>
+      </c>
+      <c r="AB85" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>855</v>
       </c>
@@ -18692,8 +20822,20 @@
       <c r="P86">
         <v>38851</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y86" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z86" s="11">
+        <v>29270.35</v>
+      </c>
+      <c r="AA86" s="11">
+        <v>29270.35</v>
+      </c>
+      <c r="AB86" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>856</v>
       </c>
@@ -18727,8 +20869,20 @@
       <c r="P87">
         <v>71018</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y87" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z87" s="11">
+        <v>84391</v>
+      </c>
+      <c r="AA87" s="11">
+        <v>84391</v>
+      </c>
+      <c r="AB87" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>9</v>
       </c>
@@ -18765,8 +20919,20 @@
       <c r="P88">
         <v>400171</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y88" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z88" s="11">
+        <v>82849.77</v>
+      </c>
+      <c r="AA88" s="11">
+        <v>82849.77</v>
+      </c>
+      <c r="AB88" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>855</v>
       </c>
@@ -18800,8 +20966,20 @@
       <c r="P89">
         <v>51173</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y89" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z89" s="11">
+        <v>768.33</v>
+      </c>
+      <c r="AA89" s="11">
+        <v>768.33</v>
+      </c>
+      <c r="AB89" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>856</v>
       </c>
@@ -18835,8 +21013,20 @@
       <c r="P90">
         <v>8595</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y90" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z90" s="11">
+        <v>55995.7</v>
+      </c>
+      <c r="AA90" s="11">
+        <v>27997.85</v>
+      </c>
+      <c r="AB90" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>40</v>
       </c>
@@ -18870,8 +21060,20 @@
       <c r="P91">
         <v>34077</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y91" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="Z91" s="11">
+        <v>71216.03</v>
+      </c>
+      <c r="AA91" s="11">
+        <v>71216.03</v>
+      </c>
+      <c r="AB91" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>855</v>
       </c>
@@ -18905,8 +21107,20 @@
       <c r="P92">
         <v>92066</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y92" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z92" s="11">
+        <v>40020.46</v>
+      </c>
+      <c r="AA92" s="11">
+        <v>20010.23</v>
+      </c>
+      <c r="AB92" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>856</v>
       </c>
@@ -18940,8 +21154,20 @@
       <c r="P93">
         <v>63328</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y93" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="Z93" s="11">
+        <v>83001.91</v>
+      </c>
+      <c r="AA93" s="11">
+        <v>83001.91</v>
+      </c>
+      <c r="AB93" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>19</v>
       </c>
@@ -18975,8 +21201,20 @@
       <c r="P94">
         <v>6412</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y94" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="Z94" s="11">
+        <v>49286.720000000001</v>
+      </c>
+      <c r="AA94" s="11">
+        <v>49286.720000000001</v>
+      </c>
+      <c r="AB94" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>855</v>
       </c>
@@ -19010,8 +21248,20 @@
       <c r="P95">
         <v>88706</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y95" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z95" s="11">
+        <v>20402.2</v>
+      </c>
+      <c r="AA95" s="11">
+        <v>20402.2</v>
+      </c>
+      <c r="AB95" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>856</v>
       </c>
@@ -19045,8 +21295,20 @@
       <c r="P96">
         <v>55814</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y96" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="Z96" s="11">
+        <v>79331.37</v>
+      </c>
+      <c r="AA96" s="11">
+        <v>79331.37</v>
+      </c>
+      <c r="AB96" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>7</v>
       </c>
@@ -19080,8 +21342,20 @@
       <c r="P97">
         <v>95704</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y97" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="Z97" s="11">
+        <v>40457.550000000003</v>
+      </c>
+      <c r="AA97" s="11">
+        <v>40457.550000000003</v>
+      </c>
+      <c r="AB97" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>856</v>
       </c>
@@ -19115,8 +21389,20 @@
       <c r="P98">
         <v>95704</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y98" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z98" s="11">
+        <v>83696.009999999995</v>
+      </c>
+      <c r="AA98" s="11">
+        <v>83696.009999999995</v>
+      </c>
+      <c r="AB98" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>854</v>
       </c>
@@ -19153,8 +21439,20 @@
       <c r="P99">
         <v>512469</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y99" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z99" s="11">
+        <v>182306.34</v>
+      </c>
+      <c r="AA99" s="11">
+        <v>60768.78</v>
+      </c>
+      <c r="AB99" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J100" s="7" t="s">
         <v>57</v>
       </c>
@@ -19173,8 +21471,20 @@
       <c r="P100">
         <v>46926</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y100" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z100" s="11">
+        <v>167329.20000000001</v>
+      </c>
+      <c r="AA100" s="11">
+        <v>83664.600000000006</v>
+      </c>
+      <c r="AB100" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J101" s="7" t="s">
         <v>77</v>
       </c>
@@ -19193,8 +21503,20 @@
       <c r="P101">
         <v>44067</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y101" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="Z101" s="11">
+        <v>978.01</v>
+      </c>
+      <c r="AA101" s="11">
+        <v>978.01</v>
+      </c>
+      <c r="AB101" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J102" s="7" t="s">
         <v>70</v>
       </c>
@@ -19213,8 +21535,20 @@
       <c r="P102">
         <v>98675</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y102" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="Z102" s="11">
+        <v>78772.259999999995</v>
+      </c>
+      <c r="AA102" s="11">
+        <v>78772.259999999995</v>
+      </c>
+      <c r="AB102" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J103" s="7" t="s">
         <v>243</v>
       </c>
@@ -19233,8 +21567,20 @@
       <c r="P103">
         <v>25495</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y103" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="Z103" s="11">
+        <v>21539.16</v>
+      </c>
+      <c r="AA103" s="11">
+        <v>21539.16</v>
+      </c>
+      <c r="AB103" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J104" s="7" t="s">
         <v>11</v>
       </c>
@@ -19253,8 +21599,20 @@
       <c r="P104">
         <v>67070</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y104" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="Z104" s="11">
+        <v>61803.49</v>
+      </c>
+      <c r="AA104" s="11">
+        <v>61803.49</v>
+      </c>
+      <c r="AB104" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J105" s="7" t="s">
         <v>466</v>
       </c>
@@ -19273,8 +21631,20 @@
       <c r="P105">
         <v>96376</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y105" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="Z105" s="11">
+        <v>10628.5</v>
+      </c>
+      <c r="AA105" s="11">
+        <v>10628.5</v>
+      </c>
+      <c r="AB105" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J106" s="7" t="s">
         <v>255</v>
       </c>
@@ -19293,8 +21663,20 @@
       <c r="P106">
         <v>59479</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y106" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="Z106" s="11">
+        <v>51650.16</v>
+      </c>
+      <c r="AA106" s="11">
+        <v>51650.16</v>
+      </c>
+      <c r="AB106" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J107" s="7" t="s">
         <v>691</v>
       </c>
@@ -19313,8 +21695,20 @@
       <c r="P107">
         <v>74382</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y107" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z107" s="11">
+        <v>65095.51</v>
+      </c>
+      <c r="AA107" s="11">
+        <v>65095.51</v>
+      </c>
+      <c r="AB107" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J108" s="6" t="s">
         <v>14</v>
       </c>
@@ -19333,8 +21727,20 @@
       <c r="P108">
         <v>16435</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y108" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z108" s="11">
+        <v>82800.600000000006</v>
+      </c>
+      <c r="AA108" s="11">
+        <v>82800.600000000006</v>
+      </c>
+      <c r="AB108" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J109" s="7" t="s">
         <v>63</v>
       </c>
@@ -19353,8 +21759,20 @@
       <c r="P109">
         <v>16435</v>
       </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y109" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z109" s="11">
+        <v>5829.39</v>
+      </c>
+      <c r="AA109" s="11">
+        <v>5829.39</v>
+      </c>
+      <c r="AB109" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J110" s="6" t="s">
         <v>42</v>
       </c>
@@ -19376,8 +21794,20 @@
       <c r="P110">
         <v>184873</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y110" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="Z110" s="11">
+        <v>78228.34</v>
+      </c>
+      <c r="AA110" s="11">
+        <v>78228.34</v>
+      </c>
+      <c r="AB110" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J111" s="7" t="s">
         <v>115</v>
       </c>
@@ -19396,8 +21826,20 @@
       <c r="P111">
         <v>59847</v>
       </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Y111" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z111" s="11">
+        <v>17679.95</v>
+      </c>
+      <c r="AA111" s="11">
+        <v>17679.95</v>
+      </c>
+      <c r="AB111" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J112" s="7" t="s">
         <v>558</v>
       </c>
@@ -19416,8 +21858,20 @@
       <c r="P112">
         <v>41851</v>
       </c>
-    </row>
-    <row r="113" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y112" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z112" s="11">
+        <v>89914.64</v>
+      </c>
+      <c r="AA112" s="11">
+        <v>44957.32</v>
+      </c>
+      <c r="AB112" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J113" s="7" t="s">
         <v>743</v>
       </c>
@@ -19436,8 +21890,20 @@
       <c r="P113">
         <v>14567</v>
       </c>
-    </row>
-    <row r="114" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y113" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="Z113" s="11">
+        <v>35488.400000000001</v>
+      </c>
+      <c r="AA113" s="11">
+        <v>35488.400000000001</v>
+      </c>
+      <c r="AB113" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J114" s="7" t="s">
         <v>462</v>
       </c>
@@ -19456,8 +21922,20 @@
       <c r="P114">
         <v>68609</v>
       </c>
-    </row>
-    <row r="115" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y114" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="Z114" s="11">
+        <v>105317</v>
+      </c>
+      <c r="AA114" s="11">
+        <v>52658.5</v>
+      </c>
+      <c r="AB114" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J115" s="6" t="s">
         <v>2</v>
       </c>
@@ -19479,8 +21957,20 @@
       <c r="P115">
         <v>283620</v>
       </c>
-    </row>
-    <row r="116" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y115" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z115" s="11">
+        <v>86936.95</v>
+      </c>
+      <c r="AA115" s="11">
+        <v>86936.95</v>
+      </c>
+      <c r="AB115" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J116" s="7" t="s">
         <v>754</v>
       </c>
@@ -19499,8 +21989,20 @@
       <c r="P116">
         <v>89312</v>
       </c>
-    </row>
-    <row r="117" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y116" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z116" s="11">
+        <v>33997.99</v>
+      </c>
+      <c r="AA116" s="11">
+        <v>33997.99</v>
+      </c>
+      <c r="AB116" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J117" s="7" t="s">
         <v>405</v>
       </c>
@@ -19519,8 +22021,20 @@
       <c r="P117">
         <v>15282</v>
       </c>
-    </row>
-    <row r="118" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y117" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z117" s="11">
+        <v>6222.75</v>
+      </c>
+      <c r="AA117" s="11">
+        <v>6222.75</v>
+      </c>
+      <c r="AB117" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J118" s="7" t="s">
         <v>8</v>
       </c>
@@ -19539,8 +22053,20 @@
       <c r="P118">
         <v>81045</v>
       </c>
-    </row>
-    <row r="119" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y118" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="Z118" s="11">
+        <v>80223.039999999994</v>
+      </c>
+      <c r="AA118" s="11">
+        <v>80223.039999999994</v>
+      </c>
+      <c r="AB118" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J119" s="7" t="s">
         <v>383</v>
       </c>
@@ -19559,8 +22085,20 @@
       <c r="P119">
         <v>91135</v>
       </c>
-    </row>
-    <row r="120" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y119" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="Z119" s="11">
+        <v>71578.97</v>
+      </c>
+      <c r="AA119" s="11">
+        <v>71578.97</v>
+      </c>
+      <c r="AB119" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J120" s="7" t="s">
         <v>21</v>
       </c>
@@ -19579,8 +22117,20 @@
       <c r="P120">
         <v>6845</v>
       </c>
-    </row>
-    <row r="121" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y120" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="Z120" s="11">
+        <v>21442.28</v>
+      </c>
+      <c r="AA120" s="11">
+        <v>21442.28</v>
+      </c>
+      <c r="AB120" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J121" s="6" t="s">
         <v>16</v>
       </c>
@@ -19602,8 +22152,20 @@
       <c r="P121">
         <v>196499</v>
       </c>
-    </row>
-    <row r="122" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y121" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z121" s="11">
+        <v>36714.550000000003</v>
+      </c>
+      <c r="AA121" s="11">
+        <v>36714.550000000003</v>
+      </c>
+      <c r="AB121" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J122" s="7" t="s">
         <v>617</v>
       </c>
@@ -19622,8 +22184,20 @@
       <c r="P122">
         <v>36196</v>
       </c>
-    </row>
-    <row r="123" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y122" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z122" s="11">
+        <v>6333.53</v>
+      </c>
+      <c r="AA122" s="11">
+        <v>6333.53</v>
+      </c>
+      <c r="AB122" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J123" s="7" t="s">
         <v>60</v>
       </c>
@@ -19642,8 +22216,20 @@
       <c r="P123">
         <v>32197</v>
       </c>
-    </row>
-    <row r="124" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y123" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="Z123" s="11">
+        <v>13242.66</v>
+      </c>
+      <c r="AA123" s="11">
+        <v>13242.66</v>
+      </c>
+      <c r="AB123" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J124" s="7" t="s">
         <v>551</v>
       </c>
@@ -19662,8 +22248,20 @@
       <c r="P124">
         <v>88245</v>
       </c>
-    </row>
-    <row r="125" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y124" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="Z124" s="11">
+        <v>66441.679999999993</v>
+      </c>
+      <c r="AA124" s="11">
+        <v>66441.679999999993</v>
+      </c>
+      <c r="AB124" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J125" s="7" t="s">
         <v>676</v>
       </c>
@@ -19682,8 +22280,20 @@
       <c r="P125">
         <v>32782</v>
       </c>
-    </row>
-    <row r="126" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y125" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z125" s="11">
+        <v>168499.24000000002</v>
+      </c>
+      <c r="AA125" s="11">
+        <v>56166.413333333338</v>
+      </c>
+      <c r="AB125" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J126" s="7" t="s">
         <v>52</v>
       </c>
@@ -19702,8 +22312,20 @@
       <c r="P126">
         <v>7079</v>
       </c>
-    </row>
-    <row r="127" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y126" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="Z126" s="11">
+        <v>35319.5</v>
+      </c>
+      <c r="AA126" s="11">
+        <v>35319.5</v>
+      </c>
+      <c r="AB126" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J127" s="6" t="s">
         <v>48</v>
       </c>
@@ -19725,8 +22347,20 @@
       <c r="P127">
         <v>494643</v>
       </c>
-    </row>
-    <row r="128" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y127" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z127" s="11">
+        <v>74933.490000000005</v>
+      </c>
+      <c r="AA127" s="11">
+        <v>74933.490000000005</v>
+      </c>
+      <c r="AB127" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J128" s="7" t="s">
         <v>110</v>
       </c>
@@ -19745,8 +22379,20 @@
       <c r="P128">
         <v>53436</v>
       </c>
-    </row>
-    <row r="129" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y128" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z128" s="11">
+        <v>48316.49</v>
+      </c>
+      <c r="AA128" s="11">
+        <v>48316.49</v>
+      </c>
+      <c r="AB128" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J129" s="7" t="s">
         <v>137</v>
       </c>
@@ -19765,8 +22411,20 @@
       <c r="P129">
         <v>9602</v>
       </c>
-    </row>
-    <row r="130" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y129" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z129" s="11">
+        <v>116663.9</v>
+      </c>
+      <c r="AA129" s="11">
+        <v>58331.95</v>
+      </c>
+      <c r="AB129" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J130" s="7" t="s">
         <v>51</v>
       </c>
@@ -19785,8 +22443,20 @@
       <c r="P130">
         <v>49659</v>
       </c>
-    </row>
-    <row r="131" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y130" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z130" s="11">
+        <v>47010.8</v>
+      </c>
+      <c r="AA130" s="11">
+        <v>23505.4</v>
+      </c>
+      <c r="AB130" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J131" s="7" t="s">
         <v>487</v>
       </c>
@@ -19805,8 +22475,20 @@
       <c r="P131">
         <v>54609</v>
       </c>
-    </row>
-    <row r="132" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y131" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z131" s="11">
+        <v>134091.13999999998</v>
+      </c>
+      <c r="AA131" s="11">
+        <v>44697.046666666662</v>
+      </c>
+      <c r="AB131" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J132" s="7" t="s">
         <v>211</v>
       </c>
@@ -19825,8 +22507,20 @@
       <c r="P132">
         <v>78692</v>
       </c>
-    </row>
-    <row r="133" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y132" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="Z132" s="11">
+        <v>80641.86</v>
+      </c>
+      <c r="AA132" s="11">
+        <v>80641.86</v>
+      </c>
+      <c r="AB132" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J133" s="7" t="s">
         <v>683</v>
       </c>
@@ -19845,8 +22539,20 @@
       <c r="P133">
         <v>39037</v>
       </c>
-    </row>
-    <row r="134" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y133" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z133" s="11">
+        <v>86567.11</v>
+      </c>
+      <c r="AA133" s="11">
+        <v>86567.11</v>
+      </c>
+      <c r="AB133" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J134" s="7" t="s">
         <v>511</v>
       </c>
@@ -19865,8 +22571,20 @@
       <c r="P134">
         <v>23587</v>
       </c>
-    </row>
-    <row r="135" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y134" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="Z134" s="11">
+        <v>34956.1</v>
+      </c>
+      <c r="AA134" s="11">
+        <v>17478.05</v>
+      </c>
+      <c r="AB134" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J135" s="7" t="s">
         <v>251</v>
       </c>
@@ -19885,8 +22603,20 @@
       <c r="P135">
         <v>87392</v>
       </c>
-    </row>
-    <row r="136" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y135" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="Z135" s="11">
+        <v>29801.53</v>
+      </c>
+      <c r="AA135" s="11">
+        <v>29801.53</v>
+      </c>
+      <c r="AB135" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J136" s="7" t="s">
         <v>479</v>
       </c>
@@ -19905,8 +22635,20 @@
       <c r="P136">
         <v>98629</v>
       </c>
-    </row>
-    <row r="137" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y136" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z136" s="11">
+        <v>571.11</v>
+      </c>
+      <c r="AA136" s="11">
+        <v>571.11</v>
+      </c>
+      <c r="AB136" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J137" s="6" t="s">
         <v>37</v>
       </c>
@@ -19928,8 +22670,20 @@
       <c r="P137">
         <v>520283</v>
       </c>
-    </row>
-    <row r="138" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y137" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z137" s="11">
+        <v>43276.33</v>
+      </c>
+      <c r="AA137" s="11">
+        <v>21638.165000000001</v>
+      </c>
+      <c r="AB137" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J138" s="7" t="s">
         <v>589</v>
       </c>
@@ -19948,8 +22702,20 @@
       <c r="P138">
         <v>93791</v>
       </c>
-    </row>
-    <row r="139" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y138" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="Z138" s="11">
+        <v>71699.37</v>
+      </c>
+      <c r="AA138" s="11">
+        <v>71699.37</v>
+      </c>
+      <c r="AB138" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J139" s="7" t="s">
         <v>24</v>
       </c>
@@ -19968,8 +22734,20 @@
       <c r="P139">
         <v>28742</v>
       </c>
-    </row>
-    <row r="140" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y139" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="Z139" s="11">
+        <v>37103.4</v>
+      </c>
+      <c r="AA139" s="11">
+        <v>37103.4</v>
+      </c>
+      <c r="AB139" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J140" s="7" t="s">
         <v>360</v>
       </c>
@@ -19988,8 +22766,20 @@
       <c r="P140">
         <v>17718</v>
       </c>
-    </row>
-    <row r="141" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y140" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z140" s="11">
+        <v>48371.360000000001</v>
+      </c>
+      <c r="AA140" s="11">
+        <v>48371.360000000001</v>
+      </c>
+      <c r="AB140" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J141" s="7" t="s">
         <v>370</v>
       </c>
@@ -20008,8 +22798,20 @@
       <c r="P141">
         <v>27518</v>
       </c>
-    </row>
-    <row r="142" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y141" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="Z141" s="11">
+        <v>49573.54</v>
+      </c>
+      <c r="AA141" s="11">
+        <v>49573.54</v>
+      </c>
+      <c r="AB141" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J142" s="7" t="s">
         <v>25</v>
       </c>
@@ -20028,8 +22830,20 @@
       <c r="P142">
         <v>50568</v>
       </c>
-    </row>
-    <row r="143" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y142" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="Z142" s="11">
+        <v>38061.58</v>
+      </c>
+      <c r="AA142" s="11">
+        <v>38061.58</v>
+      </c>
+      <c r="AB142" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J143" s="7" t="s">
         <v>102</v>
       </c>
@@ -20048,8 +22862,20 @@
       <c r="P143">
         <v>71605</v>
       </c>
-    </row>
-    <row r="144" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y143" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z143" s="11">
+        <v>71549.95</v>
+      </c>
+      <c r="AA143" s="11">
+        <v>71549.95</v>
+      </c>
+      <c r="AB143" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J144" s="7" t="s">
         <v>281</v>
       </c>
@@ -20068,8 +22894,20 @@
       <c r="P144">
         <v>19448</v>
       </c>
-    </row>
-    <row r="145" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y144" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="Z144" s="11">
+        <v>85602.37</v>
+      </c>
+      <c r="AA144" s="11">
+        <v>42801.184999999998</v>
+      </c>
+      <c r="AB144" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J145" s="7" t="s">
         <v>425</v>
       </c>
@@ -20088,8 +22926,20 @@
       <c r="P145">
         <v>90543</v>
       </c>
-    </row>
-    <row r="146" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y145" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="Z145" s="11">
+        <v>16035.43</v>
+      </c>
+      <c r="AA145" s="11">
+        <v>16035.43</v>
+      </c>
+      <c r="AB145" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J146" s="7" t="s">
         <v>58</v>
       </c>
@@ -20108,8 +22958,20 @@
       <c r="P146">
         <v>78482</v>
       </c>
-    </row>
-    <row r="147" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y146" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="Z146" s="11">
+        <v>34729.96</v>
+      </c>
+      <c r="AA146" s="11">
+        <v>34729.96</v>
+      </c>
+      <c r="AB146" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J147" s="7" t="s">
         <v>797</v>
       </c>
@@ -20128,8 +22990,20 @@
       <c r="P147">
         <v>41868</v>
       </c>
-    </row>
-    <row r="148" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y147" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z147" s="11">
+        <v>114582.67</v>
+      </c>
+      <c r="AA147" s="11">
+        <v>38194.223333333335</v>
+      </c>
+      <c r="AB147" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J148" s="6" t="s">
         <v>13</v>
       </c>
@@ -20151,8 +23025,20 @@
       <c r="P148">
         <v>470711</v>
       </c>
-    </row>
-    <row r="149" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y148" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z148" s="11">
+        <v>10271.66</v>
+      </c>
+      <c r="AA148" s="11">
+        <v>10271.66</v>
+      </c>
+      <c r="AB148" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J149" s="7" t="s">
         <v>55</v>
       </c>
@@ -20171,8 +23057,20 @@
       <c r="P149">
         <v>69265</v>
       </c>
-    </row>
-    <row r="150" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y149" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z149" s="11">
+        <v>88525.6</v>
+      </c>
+      <c r="AA149" s="11">
+        <v>88525.6</v>
+      </c>
+      <c r="AB149" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J150" s="7" t="s">
         <v>49</v>
       </c>
@@ -20191,8 +23089,20 @@
       <c r="P150">
         <v>97012</v>
       </c>
-    </row>
-    <row r="151" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y150" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z150" s="11">
+        <v>89027.92</v>
+      </c>
+      <c r="AA150" s="11">
+        <v>44513.96</v>
+      </c>
+      <c r="AB150" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J151" s="7" t="s">
         <v>811</v>
       </c>
@@ -20211,8 +23121,20 @@
       <c r="P151">
         <v>44503</v>
       </c>
-    </row>
-    <row r="152" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y151" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="Z151" s="11">
+        <v>64562.14</v>
+      </c>
+      <c r="AA151" s="11">
+        <v>64562.14</v>
+      </c>
+      <c r="AB151" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J152" s="7" t="s">
         <v>323</v>
       </c>
@@ -20231,8 +23153,20 @@
       <c r="P152">
         <v>67984</v>
       </c>
-    </row>
-    <row r="153" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y152" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="Z152" s="11">
+        <v>33296.620000000003</v>
+      </c>
+      <c r="AA152" s="11">
+        <v>33296.620000000003</v>
+      </c>
+      <c r="AB152" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J153" s="7" t="s">
         <v>348</v>
       </c>
@@ -20251,8 +23185,20 @@
       <c r="P153">
         <v>73086</v>
       </c>
-    </row>
-    <row r="154" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y153" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z153" s="11">
+        <v>115932.38</v>
+      </c>
+      <c r="AA153" s="11">
+        <v>57966.19</v>
+      </c>
+      <c r="AB153" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J154" s="7" t="s">
         <v>52</v>
       </c>
@@ -20271,8 +23217,20 @@
       <c r="P154">
         <v>40525</v>
       </c>
-    </row>
-    <row r="155" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y154" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="Z154" s="11">
+        <v>89663</v>
+      </c>
+      <c r="AA154" s="11">
+        <v>89663</v>
+      </c>
+      <c r="AB154" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J155" s="7" t="s">
         <v>215</v>
       </c>
@@ -20291,8 +23249,20 @@
       <c r="P155">
         <v>78335</v>
       </c>
-    </row>
-    <row r="156" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y155" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z155" s="11">
+        <v>65413.5</v>
+      </c>
+      <c r="AA155" s="11">
+        <v>65413.5</v>
+      </c>
+      <c r="AB155" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J156" s="6" t="s">
         <v>12</v>
       </c>
@@ -20314,8 +23284,20 @@
       <c r="P156">
         <v>541671</v>
       </c>
-    </row>
-    <row r="157" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y156" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="Z156" s="11">
+        <v>67620.27</v>
+      </c>
+      <c r="AA156" s="11">
+        <v>67620.27</v>
+      </c>
+      <c r="AB156" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J157" s="7" t="s">
         <v>728</v>
       </c>
@@ -20334,8 +23316,20 @@
       <c r="P157">
         <v>71173</v>
       </c>
-    </row>
-    <row r="158" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y157" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="Z157" s="11">
+        <v>32464.2</v>
+      </c>
+      <c r="AA157" s="11">
+        <v>32464.2</v>
+      </c>
+      <c r="AB157" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J158" s="7" t="s">
         <v>458</v>
       </c>
@@ -20354,8 +23348,20 @@
       <c r="P158">
         <v>14259</v>
       </c>
-    </row>
-    <row r="159" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y158" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="Z158" s="11">
+        <v>4118.1499999999996</v>
+      </c>
+      <c r="AA158" s="11">
+        <v>4118.1499999999996</v>
+      </c>
+      <c r="AB158" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J159" s="7" t="s">
         <v>356</v>
       </c>
@@ -20374,8 +23380,20 @@
       <c r="P159">
         <v>45552</v>
       </c>
-    </row>
-    <row r="160" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y159" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z159" s="11">
+        <v>71213.23</v>
+      </c>
+      <c r="AA159" s="11">
+        <v>71213.23</v>
+      </c>
+      <c r="AB159" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J160" s="7" t="s">
         <v>208</v>
       </c>
@@ -20394,8 +23412,20 @@
       <c r="P160">
         <v>7018</v>
       </c>
-    </row>
-    <row r="161" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y160" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="Z160" s="11">
+        <v>200864.43</v>
+      </c>
+      <c r="AA160" s="11">
+        <v>66954.81</v>
+      </c>
+      <c r="AB160" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J161" s="7" t="s">
         <v>25</v>
       </c>
@@ -20414,8 +23444,20 @@
       <c r="P161">
         <v>86641</v>
       </c>
-    </row>
-    <row r="162" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y161" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z161" s="11">
+        <v>53087.93</v>
+      </c>
+      <c r="AA161" s="11">
+        <v>53087.93</v>
+      </c>
+      <c r="AB161" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J162" s="7" t="s">
         <v>58</v>
       </c>
@@ -20434,8 +23476,20 @@
       <c r="P162">
         <v>50899</v>
       </c>
-    </row>
-    <row r="163" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y162" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z162" s="11">
+        <v>78029.36</v>
+      </c>
+      <c r="AA162" s="11">
+        <v>78029.36</v>
+      </c>
+      <c r="AB162" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J163" s="7" t="s">
         <v>85</v>
       </c>
@@ -20454,8 +23508,20 @@
       <c r="P163">
         <v>82427</v>
       </c>
-    </row>
-    <row r="164" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y163" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="Z163" s="11">
+        <v>21572.26</v>
+      </c>
+      <c r="AA163" s="11">
+        <v>21572.26</v>
+      </c>
+      <c r="AB163" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J164" s="7" t="s">
         <v>10</v>
       </c>
@@ -20474,8 +23540,20 @@
       <c r="P164">
         <v>72793</v>
       </c>
-    </row>
-    <row r="165" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y164" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="Z164" s="11">
+        <v>7297.22</v>
+      </c>
+      <c r="AA164" s="11">
+        <v>7297.22</v>
+      </c>
+      <c r="AB164" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J165" s="7" t="s">
         <v>621</v>
       </c>
@@ -20494,8 +23572,20 @@
       <c r="P165">
         <v>87178</v>
       </c>
-    </row>
-    <row r="166" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y165" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="Z165" s="11">
+        <v>138023.07</v>
+      </c>
+      <c r="AA165" s="11">
+        <v>46007.69</v>
+      </c>
+      <c r="AB165" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J166" s="7" t="s">
         <v>596</v>
       </c>
@@ -20514,8 +23604,20 @@
       <c r="P166">
         <v>23729</v>
       </c>
-    </row>
-    <row r="167" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y166" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z166" s="11">
+        <v>5751.15</v>
+      </c>
+      <c r="AA166" s="11">
+        <v>5751.15</v>
+      </c>
+      <c r="AB166" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J167" s="6" t="s">
         <v>15</v>
       </c>
@@ -20537,8 +23639,20 @@
       <c r="P167">
         <v>330924</v>
       </c>
-    </row>
-    <row r="168" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y167" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z167" s="11">
+        <v>43316.480000000003</v>
+      </c>
+      <c r="AA167" s="11">
+        <v>43316.480000000003</v>
+      </c>
+      <c r="AB167" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J168" s="7" t="s">
         <v>198</v>
       </c>
@@ -20557,8 +23671,20 @@
       <c r="P168">
         <v>75280</v>
       </c>
-    </row>
-    <row r="169" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="Y168" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="Z168" s="11">
+        <v>8996331.089999998</v>
+      </c>
+      <c r="AA168" s="11">
+        <v>44981.655449999991</v>
+      </c>
+      <c r="AB168" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="169" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J169" s="7" t="s">
         <v>68</v>
       </c>
@@ -20578,7 +23704,7 @@
         <v>61730</v>
       </c>
     </row>
-    <row r="170" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J170" s="7" t="s">
         <v>6</v>
       </c>
@@ -20598,7 +23724,7 @@
         <v>3982</v>
       </c>
     </row>
-    <row r="171" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J171" s="7" t="s">
         <v>45</v>
       </c>
@@ -20618,7 +23744,7 @@
         <v>39938</v>
       </c>
     </row>
-    <row r="172" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J172" s="7" t="s">
         <v>218</v>
       </c>
@@ -20638,7 +23764,7 @@
         <v>64872</v>
       </c>
     </row>
-    <row r="173" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J173" s="7" t="s">
         <v>444</v>
       </c>
@@ -20658,7 +23784,7 @@
         <v>23693</v>
       </c>
     </row>
-    <row r="174" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J174" s="7" t="s">
         <v>67</v>
       </c>
@@ -20678,7 +23804,7 @@
         <v>21295</v>
       </c>
     </row>
-    <row r="175" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J175" s="7" t="s">
         <v>251</v>
       </c>
@@ -20698,7 +23824,7 @@
         <v>40134</v>
       </c>
     </row>
-    <row r="176" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J176" s="6" t="s">
         <v>3</v>
       </c>

--- a/src/EPPlusTest/Workbooks/PivotTableCalculation.xlsx
+++ b/src/EPPlusTest/Workbooks/PivotTableCalculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kod\EPPlusSoftware\EPPlus7\EPPlus\src\EPPlusTest\Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A001C5B8-43FB-4346-A98D-D9BB92EE239B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC5555F-B1E6-463F-AB8A-EE740AEA532E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10680" yWindow="4185" windowWidth="64545" windowHeight="15585" activeTab="1" xr2:uid="{200B1F7E-8BFE-40B8-B944-8AFB90FBF3BA}"/>
+    <workbookView xWindow="4530" yWindow="4680" windowWidth="57600" windowHeight="15345" activeTab="1" xr2:uid="{200B1F7E-8BFE-40B8-B944-8AFB90FBF3BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="872">
   <si>
     <t>Items</t>
   </si>
@@ -2653,6 +2653,9 @@
   </si>
   <si>
     <t>Count of OrderValue2</t>
+  </si>
+  <si>
+    <t>Average of Score</t>
   </si>
 </sst>
 </file>
@@ -6251,6 +6254,1541 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{25383572-0AEC-49A2-B8DF-D588202AB465}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AD3:AF234" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="165">
+        <item x="63"/>
+        <item x="45"/>
+        <item x="155"/>
+        <item x="40"/>
+        <item x="1"/>
+        <item x="124"/>
+        <item x="110"/>
+        <item x="138"/>
+        <item x="162"/>
+        <item x="37"/>
+        <item x="107"/>
+        <item x="142"/>
+        <item x="156"/>
+        <item x="152"/>
+        <item x="30"/>
+        <item x="97"/>
+        <item x="0"/>
+        <item x="31"/>
+        <item x="136"/>
+        <item x="51"/>
+        <item x="130"/>
+        <item x="95"/>
+        <item x="24"/>
+        <item x="76"/>
+        <item x="27"/>
+        <item x="39"/>
+        <item x="74"/>
+        <item x="23"/>
+        <item x="126"/>
+        <item x="28"/>
+        <item x="41"/>
+        <item x="146"/>
+        <item x="9"/>
+        <item x="15"/>
+        <item x="60"/>
+        <item x="94"/>
+        <item x="159"/>
+        <item x="112"/>
+        <item x="16"/>
+        <item x="158"/>
+        <item x="42"/>
+        <item x="106"/>
+        <item x="10"/>
+        <item x="105"/>
+        <item x="21"/>
+        <item x="86"/>
+        <item x="117"/>
+        <item x="75"/>
+        <item x="102"/>
+        <item x="26"/>
+        <item x="145"/>
+        <item x="154"/>
+        <item x="133"/>
+        <item x="82"/>
+        <item x="114"/>
+        <item x="128"/>
+        <item x="69"/>
+        <item x="67"/>
+        <item x="25"/>
+        <item x="35"/>
+        <item x="88"/>
+        <item x="84"/>
+        <item x="18"/>
+        <item x="13"/>
+        <item x="22"/>
+        <item x="122"/>
+        <item x="55"/>
+        <item x="66"/>
+        <item x="61"/>
+        <item x="77"/>
+        <item x="68"/>
+        <item x="129"/>
+        <item x="108"/>
+        <item x="100"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="140"/>
+        <item x="33"/>
+        <item x="111"/>
+        <item x="144"/>
+        <item x="6"/>
+        <item x="32"/>
+        <item x="120"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="52"/>
+        <item x="70"/>
+        <item x="116"/>
+        <item x="36"/>
+        <item x="121"/>
+        <item x="151"/>
+        <item x="62"/>
+        <item x="123"/>
+        <item x="163"/>
+        <item x="147"/>
+        <item x="96"/>
+        <item x="46"/>
+        <item x="104"/>
+        <item x="98"/>
+        <item x="83"/>
+        <item x="59"/>
+        <item x="81"/>
+        <item x="141"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="38"/>
+        <item x="90"/>
+        <item x="50"/>
+        <item x="5"/>
+        <item x="137"/>
+        <item x="79"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="118"/>
+        <item x="109"/>
+        <item x="103"/>
+        <item x="99"/>
+        <item x="19"/>
+        <item x="56"/>
+        <item x="149"/>
+        <item x="65"/>
+        <item x="29"/>
+        <item x="134"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="14"/>
+        <item x="8"/>
+        <item x="58"/>
+        <item x="153"/>
+        <item x="20"/>
+        <item x="127"/>
+        <item x="135"/>
+        <item x="54"/>
+        <item x="49"/>
+        <item x="115"/>
+        <item x="157"/>
+        <item x="73"/>
+        <item x="89"/>
+        <item x="160"/>
+        <item x="48"/>
+        <item x="125"/>
+        <item x="148"/>
+        <item x="131"/>
+        <item x="44"/>
+        <item x="47"/>
+        <item x="53"/>
+        <item x="17"/>
+        <item x="113"/>
+        <item x="78"/>
+        <item x="43"/>
+        <item x="91"/>
+        <item x="85"/>
+        <item x="139"/>
+        <item x="80"/>
+        <item x="161"/>
+        <item x="34"/>
+        <item x="101"/>
+        <item x="57"/>
+        <item x="150"/>
+        <item x="119"/>
+        <item x="143"/>
+        <item x="87"/>
+        <item x="132"/>
+        <item x="64"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="35">
+        <item sd="0" x="11"/>
+        <item x="6"/>
+        <item x="29"/>
+        <item x="18"/>
+        <item x="12"/>
+        <item x="31"/>
+        <item x="27"/>
+        <item x="21"/>
+        <item x="28"/>
+        <item x="3"/>
+        <item x="33"/>
+        <item x="15"/>
+        <item x="25"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="34"/>
+        <item x="0"/>
+        <item x="32"/>
+        <item x="10"/>
+        <item x="30"/>
+        <item x="26"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="16"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="13"/>
+        <item x="8"/>
+        <item x="17"/>
+        <item x="24"/>
+        <item x="19"/>
+        <item x="1"/>
+        <item x="20"/>
+        <item x="14"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="43" showAll="0"/>
+    <pivotField dataField="1" numFmtId="43" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="5"/>
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="231">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="55"/>
+    </i>
+    <i r="1">
+      <x v="79"/>
+    </i>
+    <i r="1">
+      <x v="80"/>
+    </i>
+    <i r="1">
+      <x v="87"/>
+    </i>
+    <i r="1">
+      <x v="90"/>
+    </i>
+    <i r="1">
+      <x v="142"/>
+    </i>
+    <i r="1">
+      <x v="156"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="48"/>
+    </i>
+    <i r="1">
+      <x v="61"/>
+    </i>
+    <i r="1">
+      <x v="121"/>
+    </i>
+    <i r="1">
+      <x v="126"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="44"/>
+    </i>
+    <i r="1">
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="41"/>
+    </i>
+    <i r="1">
+      <x v="63"/>
+    </i>
+    <i r="1">
+      <x v="67"/>
+    </i>
+    <i r="1">
+      <x v="74"/>
+    </i>
+    <i r="1">
+      <x v="88"/>
+    </i>
+    <i r="1">
+      <x v="140"/>
+    </i>
+    <i r="1">
+      <x v="157"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="69"/>
+    </i>
+    <i r="1">
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="145"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="160"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="50"/>
+    </i>
+    <i r="1">
+      <x v="96"/>
+    </i>
+    <i r="1">
+      <x v="127"/>
+    </i>
+    <i r="1">
+      <x v="132"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="96"/>
+    </i>
+    <i r="1">
+      <x v="104"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="58"/>
+    </i>
+    <i r="1">
+      <x v="102"/>
+    </i>
+    <i r="1">
+      <x v="108"/>
+    </i>
+    <i r="1">
+      <x v="110"/>
+    </i>
+    <i r="1">
+      <x v="154"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="43"/>
+    </i>
+    <i r="1">
+      <x v="72"/>
+    </i>
+    <i r="1">
+      <x v="88"/>
+    </i>
+    <i r="1">
+      <x v="134"/>
+    </i>
+    <i r="1">
+      <x v="146"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="35"/>
+    </i>
+    <i r="1">
+      <x v="127"/>
+    </i>
+    <i r="1">
+      <x v="148"/>
+    </i>
+    <i r="1">
+      <x v="153"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x v="30"/>
+    </i>
+    <i r="1">
+      <x v="122"/>
+    </i>
+    <i r="1">
+      <x v="147"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="51"/>
+    </i>
+    <i r="1">
+      <x v="86"/>
+    </i>
+    <i r="1">
+      <x v="94"/>
+    </i>
+    <i r="1">
+      <x v="95"/>
+    </i>
+    <i r="1">
+      <x v="105"/>
+    </i>
+    <i r="1">
+      <x v="128"/>
+    </i>
+    <i r="1">
+      <x v="156"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x v="30"/>
+    </i>
+    <i r="1">
+      <x v="37"/>
+    </i>
+    <i r="1">
+      <x v="60"/>
+    </i>
+    <i r="1">
+      <x v="143"/>
+    </i>
+    <i r="1">
+      <x v="152"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="42"/>
+    </i>
+    <i r="1">
+      <x v="78"/>
+    </i>
+    <i r="1">
+      <x v="119"/>
+    </i>
+    <i r="1">
+      <x v="161"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="47"/>
+    </i>
+    <i r="1">
+      <x v="52"/>
+    </i>
+    <i r="1">
+      <x v="84"/>
+    </i>
+    <i r="1">
+      <x v="113"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="82"/>
+    </i>
+    <i r="1">
+      <x v="114"/>
+    </i>
+    <i r="1">
+      <x v="131"/>
+    </i>
+    <i r="1">
+      <x v="133"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="32"/>
+    </i>
+    <i r="1">
+      <x v="33"/>
+    </i>
+    <i r="1">
+      <x v="40"/>
+    </i>
+    <i r="1">
+      <x v="75"/>
+    </i>
+    <i r="1">
+      <x v="77"/>
+    </i>
+    <i r="1">
+      <x v="109"/>
+    </i>
+    <i r="1">
+      <x v="116"/>
+    </i>
+    <i r="1">
+      <x v="149"/>
+    </i>
+    <i r="1">
+      <x v="150"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="46"/>
+    </i>
+    <i r="1">
+      <x v="48"/>
+    </i>
+    <i r="1">
+      <x v="70"/>
+    </i>
+    <i r="1">
+      <x v="86"/>
+    </i>
+    <i r="1">
+      <x v="95"/>
+    </i>
+    <i r="1">
+      <x v="103"/>
+    </i>
+    <i r="1">
+      <x v="107"/>
+    </i>
+    <i r="1">
+      <x v="110"/>
+    </i>
+    <i r="1">
+      <x v="121"/>
+    </i>
+    <i r="1">
+      <x v="138"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="54"/>
+    </i>
+    <i r="1">
+      <x v="62"/>
+    </i>
+    <i r="1">
+      <x v="93"/>
+    </i>
+    <i r="1">
+      <x v="100"/>
+    </i>
+    <i r="1">
+      <x v="120"/>
+    </i>
+    <i r="1">
+      <x v="133"/>
+    </i>
+    <i r="1">
+      <x v="155"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x v="31"/>
+    </i>
+    <i r="1">
+      <x v="45"/>
+    </i>
+    <i r="1">
+      <x v="57"/>
+    </i>
+    <i r="1">
+      <x v="81"/>
+    </i>
+    <i r="1">
+      <x v="95"/>
+    </i>
+    <i r="1">
+      <x v="121"/>
+    </i>
+    <i r="1">
+      <x v="123"/>
+    </i>
+    <i r="1">
+      <x v="127"/>
+    </i>
+    <i r="1">
+      <x v="140"/>
+    </i>
+    <i r="1">
+      <x v="159"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="39"/>
+    </i>
+    <i r="1">
+      <x v="59"/>
+    </i>
+    <i r="1">
+      <x v="99"/>
+    </i>
+    <i r="1">
+      <x v="108"/>
+    </i>
+    <i r="1">
+      <x v="149"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="66"/>
+    </i>
+    <i r="1">
+      <x v="76"/>
+    </i>
+    <i r="1">
+      <x v="124"/>
+    </i>
+    <i r="1">
+      <x v="162"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="125"/>
+    </i>
+    <i r="1">
+      <x v="143"/>
+    </i>
+    <i r="1">
+      <x v="144"/>
+    </i>
+    <i r="1">
+      <x v="146"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x v="64"/>
+    </i>
+    <i r="1">
+      <x v="89"/>
+    </i>
+    <i r="1">
+      <x v="97"/>
+    </i>
+    <i r="1">
+      <x v="98"/>
+    </i>
+    <i r="1">
+      <x v="106"/>
+    </i>
+    <i r="1">
+      <x v="126"/>
+    </i>
+    <i r="1">
+      <x v="130"/>
+    </i>
+    <i r="1">
+      <x v="135"/>
+    </i>
+    <i r="1">
+      <x v="156"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="83"/>
+    </i>
+    <i r="1">
+      <x v="101"/>
+    </i>
+    <i r="1">
+      <x v="117"/>
+    </i>
+    <i r="1">
+      <x v="130"/>
+    </i>
+    <i r="1">
+      <x v="136"/>
+    </i>
+    <i r="1">
+      <x v="161"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i r="1">
+      <x v="34"/>
+    </i>
+    <i r="1">
+      <x v="66"/>
+    </i>
+    <i r="1">
+      <x v="92"/>
+    </i>
+    <i r="1">
+      <x v="118"/>
+    </i>
+    <i r="1">
+      <x v="125"/>
+    </i>
+    <i r="1">
+      <x v="143"/>
+    </i>
+    <i r="1">
+      <x v="158"/>
+    </i>
+    <i r="1">
+      <x v="163"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i r="1">
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="58"/>
+    </i>
+    <i r="1">
+      <x v="85"/>
+    </i>
+    <i r="1">
+      <x v="115"/>
+    </i>
+    <i r="1">
+      <x v="137"/>
+    </i>
+    <i r="1">
+      <x v="151"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i r="1">
+      <x v="29"/>
+    </i>
+    <i r="1">
+      <x v="36"/>
+    </i>
+    <i r="1">
+      <x v="47"/>
+    </i>
+    <i r="1">
+      <x v="68"/>
+    </i>
+    <i r="1">
+      <x v="141"/>
+    </i>
+    <i r="1">
+      <x v="161"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i r="1">
+      <x v="38"/>
+    </i>
+    <i r="1">
+      <x v="49"/>
+    </i>
+    <i r="1">
+      <x v="56"/>
+    </i>
+    <i r="1">
+      <x v="129"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of OrderValue" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Average of Score" fld="11" subtotal="average" baseField="5" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF5ABC90-2C4C-454A-873C-C7F4EDBF4997}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E99" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="36">
+        <item x="11"/>
+        <item x="6"/>
+        <item x="29"/>
+        <item x="18"/>
+        <item x="12"/>
+        <item x="31"/>
+        <item x="27"/>
+        <item x="21"/>
+        <item x="28"/>
+        <item x="3"/>
+        <item x="33"/>
+        <item x="15"/>
+        <item x="25"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="34"/>
+        <item x="0"/>
+        <item x="32"/>
+        <item x="10"/>
+        <item x="30"/>
+        <item x="26"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="16"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="13"/>
+        <item x="8"/>
+        <item x="17"/>
+        <item x="24"/>
+        <item x="19"/>
+        <item x="1"/>
+        <item x="20"/>
+        <item x="14"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" numFmtId="14" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="187">
+        <item x="62"/>
+        <item x="63"/>
+        <item h="1" x="127"/>
+        <item h="1" x="88"/>
+        <item h="1" x="114"/>
+        <item x="159"/>
+        <item h="1" x="107"/>
+        <item h="1" x="14"/>
+        <item x="17"/>
+        <item x="64"/>
+        <item x="129"/>
+        <item x="47"/>
+        <item x="46"/>
+        <item x="183"/>
+        <item x="66"/>
+        <item x="59"/>
+        <item x="163"/>
+        <item h="1" x="60"/>
+        <item h="1" x="81"/>
+        <item h="1" x="80"/>
+        <item x="7"/>
+        <item h="1" x="3"/>
+        <item x="154"/>
+        <item x="32"/>
+        <item x="23"/>
+        <item x="152"/>
+        <item x="101"/>
+        <item x="89"/>
+        <item h="1" x="50"/>
+        <item x="140"/>
+        <item h="1" x="120"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="110"/>
+        <item x="33"/>
+        <item h="1" x="96"/>
+        <item h="1" x="145"/>
+        <item x="136"/>
+        <item h="1" x="24"/>
+        <item x="28"/>
+        <item x="52"/>
+        <item h="1" x="67"/>
+        <item x="115"/>
+        <item x="76"/>
+        <item x="56"/>
+        <item x="157"/>
+        <item x="170"/>
+        <item x="51"/>
+        <item x="119"/>
+        <item x="21"/>
+        <item h="1" x="99"/>
+        <item h="1" x="53"/>
+        <item x="71"/>
+        <item h="1" x="169"/>
+        <item x="142"/>
+        <item x="26"/>
+        <item x="58"/>
+        <item x="22"/>
+        <item h="1" x="84"/>
+        <item h="1" x="68"/>
+        <item x="121"/>
+        <item x="20"/>
+        <item x="174"/>
+        <item x="27"/>
+        <item x="161"/>
+        <item x="30"/>
+        <item x="9"/>
+        <item x="104"/>
+        <item h="1" x="94"/>
+        <item h="1" x="1"/>
+        <item x="11"/>
+        <item x="178"/>
+        <item x="37"/>
+        <item x="171"/>
+        <item x="29"/>
+        <item x="122"/>
+        <item x="162"/>
+        <item x="139"/>
+        <item x="82"/>
+        <item h="1" x="144"/>
+        <item h="1" x="78"/>
+        <item h="1" x="175"/>
+        <item h="1" x="143"/>
+        <item x="103"/>
+        <item x="176"/>
+        <item x="61"/>
+        <item x="172"/>
+        <item x="181"/>
+        <item x="124"/>
+        <item x="18"/>
+        <item x="149"/>
+        <item h="1" x="12"/>
+        <item h="1" x="151"/>
+        <item h="1" x="73"/>
+        <item x="118"/>
+        <item x="150"/>
+        <item x="5"/>
+        <item x="167"/>
+        <item x="132"/>
+        <item x="106"/>
+        <item h="1" x="41"/>
+        <item h="1" x="180"/>
+        <item x="25"/>
+        <item h="1" x="83"/>
+        <item x="92"/>
+        <item x="147"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="138"/>
+        <item x="91"/>
+        <item x="75"/>
+        <item x="113"/>
+        <item h="1" x="160"/>
+        <item x="34"/>
+        <item x="86"/>
+        <item h="1" x="44"/>
+        <item h="1" x="125"/>
+        <item x="177"/>
+        <item h="1" x="74"/>
+        <item h="1" x="70"/>
+        <item x="79"/>
+        <item x="153"/>
+        <item x="148"/>
+        <item x="158"/>
+        <item x="134"/>
+        <item h="1" x="16"/>
+        <item x="45"/>
+        <item h="1" x="111"/>
+        <item h="1" x="87"/>
+        <item h="1" x="57"/>
+        <item x="69"/>
+        <item x="133"/>
+        <item x="95"/>
+        <item x="90"/>
+        <item x="10"/>
+        <item x="109"/>
+        <item x="168"/>
+        <item x="49"/>
+        <item x="123"/>
+        <item x="40"/>
+        <item x="182"/>
+        <item x="93"/>
+        <item x="146"/>
+        <item x="100"/>
+        <item x="72"/>
+        <item x="173"/>
+        <item x="77"/>
+        <item x="2"/>
+        <item x="141"/>
+        <item h="1" x="130"/>
+        <item x="105"/>
+        <item x="102"/>
+        <item x="15"/>
+        <item h="1" x="165"/>
+        <item x="97"/>
+        <item x="116"/>
+        <item x="98"/>
+        <item x="117"/>
+        <item x="85"/>
+        <item x="135"/>
+        <item x="179"/>
+        <item x="54"/>
+        <item x="13"/>
+        <item x="35"/>
+        <item x="48"/>
+        <item x="184"/>
+        <item x="65"/>
+        <item x="128"/>
+        <item x="36"/>
+        <item x="156"/>
+        <item x="164"/>
+        <item x="6"/>
+        <item x="166"/>
+        <item x="126"/>
+        <item x="131"/>
+        <item x="31"/>
+        <item x="112"/>
+        <item x="137"/>
+        <item x="8"/>
+        <item h="1" x="43"/>
+        <item h="1" x="185"/>
+        <item h="1" x="19"/>
+        <item h="1" x="155"/>
+        <item h="1" x="108"/>
+        <item h="1" x="55"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="43" showAll="0"/>
+    <pivotField dataField="1" numFmtId="43" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="5"/>
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="96">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="9" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="Sum of OrderValue" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Average of Rating" fld="10" subtotal="average" baseField="5" baseItem="1"/>
+    <dataField name="Count of Score" fld="11" subtotal="count" showDataAs="percentOfTotal" baseField="8" baseItem="0" numFmtId="10"/>
+    <dataField name="Count of PostalZip" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0F2B5079-6B18-4D66-AA94-F999746B3D52}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="S3:V4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="13">
@@ -6306,7 +7844,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8B3A59F0-BFB0-4B1E-88C2-12993252B036}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="Y3:AB168" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
@@ -7228,7 +8766,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC386F7F-46BB-4E10-B271-29A12B9974D5}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J3:P241" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="13">
@@ -8202,591 +9740,6 @@
   <dataFields count="2">
     <dataField name="Sum of OrderValue" fld="7" baseField="0" baseItem="0"/>
     <dataField name="Sum of Calc Field 0" fld="12" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF5ABC90-2C4C-454A-873C-C7F4EDBF4997}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:E99" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="36">
-        <item x="11"/>
-        <item x="6"/>
-        <item x="29"/>
-        <item x="18"/>
-        <item x="12"/>
-        <item x="31"/>
-        <item x="27"/>
-        <item x="21"/>
-        <item x="28"/>
-        <item x="3"/>
-        <item x="33"/>
-        <item x="15"/>
-        <item x="25"/>
-        <item x="23"/>
-        <item x="22"/>
-        <item x="34"/>
-        <item x="0"/>
-        <item x="32"/>
-        <item x="10"/>
-        <item x="30"/>
-        <item x="26"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="16"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="13"/>
-        <item x="8"/>
-        <item x="17"/>
-        <item x="24"/>
-        <item x="19"/>
-        <item x="1"/>
-        <item x="20"/>
-        <item x="14"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" numFmtId="14" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="187">
-        <item x="62"/>
-        <item x="63"/>
-        <item h="1" x="127"/>
-        <item h="1" x="88"/>
-        <item h="1" x="114"/>
-        <item x="159"/>
-        <item h="1" x="107"/>
-        <item h="1" x="14"/>
-        <item x="17"/>
-        <item x="64"/>
-        <item x="129"/>
-        <item x="47"/>
-        <item x="46"/>
-        <item x="183"/>
-        <item x="66"/>
-        <item x="59"/>
-        <item x="163"/>
-        <item h="1" x="60"/>
-        <item h="1" x="81"/>
-        <item h="1" x="80"/>
-        <item x="7"/>
-        <item h="1" x="3"/>
-        <item x="154"/>
-        <item x="32"/>
-        <item x="23"/>
-        <item x="152"/>
-        <item x="101"/>
-        <item x="89"/>
-        <item h="1" x="50"/>
-        <item x="140"/>
-        <item h="1" x="120"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="110"/>
-        <item x="33"/>
-        <item h="1" x="96"/>
-        <item h="1" x="145"/>
-        <item x="136"/>
-        <item h="1" x="24"/>
-        <item x="28"/>
-        <item x="52"/>
-        <item h="1" x="67"/>
-        <item x="115"/>
-        <item x="76"/>
-        <item x="56"/>
-        <item x="157"/>
-        <item x="170"/>
-        <item x="51"/>
-        <item x="119"/>
-        <item x="21"/>
-        <item h="1" x="99"/>
-        <item h="1" x="53"/>
-        <item x="71"/>
-        <item h="1" x="169"/>
-        <item x="142"/>
-        <item x="26"/>
-        <item x="58"/>
-        <item x="22"/>
-        <item h="1" x="84"/>
-        <item h="1" x="68"/>
-        <item x="121"/>
-        <item x="20"/>
-        <item x="174"/>
-        <item x="27"/>
-        <item x="161"/>
-        <item x="30"/>
-        <item x="9"/>
-        <item x="104"/>
-        <item h="1" x="94"/>
-        <item h="1" x="1"/>
-        <item x="11"/>
-        <item x="178"/>
-        <item x="37"/>
-        <item x="171"/>
-        <item x="29"/>
-        <item x="122"/>
-        <item x="162"/>
-        <item x="139"/>
-        <item x="82"/>
-        <item h="1" x="144"/>
-        <item h="1" x="78"/>
-        <item h="1" x="175"/>
-        <item h="1" x="143"/>
-        <item x="103"/>
-        <item x="176"/>
-        <item x="61"/>
-        <item x="172"/>
-        <item x="181"/>
-        <item x="124"/>
-        <item x="18"/>
-        <item x="149"/>
-        <item h="1" x="12"/>
-        <item h="1" x="151"/>
-        <item h="1" x="73"/>
-        <item x="118"/>
-        <item x="150"/>
-        <item x="5"/>
-        <item x="167"/>
-        <item x="132"/>
-        <item x="106"/>
-        <item h="1" x="41"/>
-        <item h="1" x="180"/>
-        <item x="25"/>
-        <item h="1" x="83"/>
-        <item x="92"/>
-        <item x="147"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="138"/>
-        <item x="91"/>
-        <item x="75"/>
-        <item x="113"/>
-        <item h="1" x="160"/>
-        <item x="34"/>
-        <item x="86"/>
-        <item h="1" x="44"/>
-        <item h="1" x="125"/>
-        <item x="177"/>
-        <item h="1" x="74"/>
-        <item h="1" x="70"/>
-        <item x="79"/>
-        <item x="153"/>
-        <item x="148"/>
-        <item x="158"/>
-        <item x="134"/>
-        <item h="1" x="16"/>
-        <item x="45"/>
-        <item h="1" x="111"/>
-        <item h="1" x="87"/>
-        <item h="1" x="57"/>
-        <item x="69"/>
-        <item x="133"/>
-        <item x="95"/>
-        <item x="90"/>
-        <item x="10"/>
-        <item x="109"/>
-        <item x="168"/>
-        <item x="49"/>
-        <item x="123"/>
-        <item x="40"/>
-        <item x="182"/>
-        <item x="93"/>
-        <item x="146"/>
-        <item x="100"/>
-        <item x="72"/>
-        <item x="173"/>
-        <item x="77"/>
-        <item x="2"/>
-        <item x="141"/>
-        <item h="1" x="130"/>
-        <item x="105"/>
-        <item x="102"/>
-        <item x="15"/>
-        <item h="1" x="165"/>
-        <item x="97"/>
-        <item x="116"/>
-        <item x="98"/>
-        <item x="117"/>
-        <item x="85"/>
-        <item x="135"/>
-        <item x="179"/>
-        <item x="54"/>
-        <item x="13"/>
-        <item x="35"/>
-        <item x="48"/>
-        <item x="184"/>
-        <item x="65"/>
-        <item x="128"/>
-        <item x="36"/>
-        <item x="156"/>
-        <item x="164"/>
-        <item x="6"/>
-        <item x="166"/>
-        <item x="126"/>
-        <item x="131"/>
-        <item x="31"/>
-        <item x="112"/>
-        <item x="137"/>
-        <item x="8"/>
-        <item h="1" x="43"/>
-        <item h="1" x="185"/>
-        <item h="1" x="19"/>
-        <item h="1" x="155"/>
-        <item h="1" x="108"/>
-        <item h="1" x="55"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="43" showAll="0"/>
-    <pivotField dataField="1" numFmtId="43" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="5"/>
-    <field x="8"/>
-  </rowFields>
-  <rowItems count="96">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="9" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="Sum of OrderValue" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Average of Rating" fld="10" subtotal="average" baseField="5" baseItem="1"/>
-    <dataField name="Count of Score" fld="11" subtotal="count" showDataAs="percentOfTotal" baseField="8" baseItem="0" numFmtId="10"/>
-    <dataField name="Count of PostalZip" fld="3" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -9140,7 +10093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EFEC6A7-19AA-43AD-A5F9-CEDF221BB280}">
   <dimension ref="A1:L201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A149" workbookViewId="0">
       <selection activeCell="A2" sqref="A1:L201"/>
     </sheetView>
   </sheetViews>
@@ -16808,10 +17761,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36A9D4C-BD73-439F-BF4F-8CCD9B94A2F1}">
-  <dimension ref="A1:AB241"/>
+  <dimension ref="A1:AF241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J135" workbookViewId="0">
-      <selection activeCell="AA168" sqref="AA168"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AH13" sqref="AH7:AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16837,9 +17790,12 @@
     <col min="26" max="26" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -16847,7 +17803,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>853</v>
       </c>
@@ -16890,8 +17846,17 @@
       <c r="AB3" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD3" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>858</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>36</v>
       </c>
@@ -16934,17 +17899,26 @@
       <c r="Y4" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="Z4" s="11">
+      <c r="Z4">
         <v>16459.38</v>
       </c>
-      <c r="AA4" s="11">
+      <c r="AA4">
         <v>16459.38</v>
       </c>
-      <c r="AB4" s="11">
+      <c r="AB4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE4" s="11">
+        <v>273798.42000000004</v>
+      </c>
+      <c r="AF4" s="11">
+        <v>51.453999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>855</v>
       </c>
@@ -16978,17 +17952,22 @@
       <c r="Y5" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="Z5" s="11">
+      <c r="Z5">
         <v>13864.85</v>
       </c>
-      <c r="AA5" s="11">
+      <c r="AA5">
         <v>13864.85</v>
       </c>
-      <c r="AB5" s="11">
+      <c r="AB5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>856</v>
       </c>
@@ -17029,17 +18008,26 @@
       <c r="Y6" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="Z6" s="11">
+      <c r="Z6">
         <v>50924.3</v>
       </c>
-      <c r="AA6" s="11">
+      <c r="AA6">
         <v>50924.3</v>
       </c>
-      <c r="AB6" s="11">
+      <c r="AB6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD6" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="AE6" s="11">
+        <v>40847.769999999997</v>
+      </c>
+      <c r="AF6" s="11">
+        <v>28.52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
@@ -17076,17 +18064,26 @@
       <c r="Y7" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="Z7" s="11">
+      <c r="Z7">
         <v>169343.28</v>
       </c>
-      <c r="AA7" s="11">
+      <c r="AA7">
         <v>56447.76</v>
       </c>
-      <c r="AB7" s="11">
+      <c r="AB7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD7" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>24350.75</v>
+      </c>
+      <c r="AF7" s="11">
+        <v>78.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>855</v>
       </c>
@@ -17123,17 +18120,26 @@
       <c r="Y8" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="Z8" s="11">
+      <c r="Z8">
         <v>73875.25</v>
       </c>
-      <c r="AA8" s="11">
+      <c r="AA8">
         <v>73875.25</v>
       </c>
-      <c r="AB8" s="11">
+      <c r="AB8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE8" s="11">
+        <v>22863.95</v>
+      </c>
+      <c r="AF8" s="11">
+        <v>14.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>856</v>
       </c>
@@ -17170,17 +18176,26 @@
       <c r="Y9" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="Z9" s="11">
+      <c r="Z9">
         <v>32905.53</v>
       </c>
-      <c r="AA9" s="11">
+      <c r="AA9">
         <v>32905.53</v>
       </c>
-      <c r="AB9" s="11">
+      <c r="AB9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD9" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="AE9" s="11">
+        <v>71216.03</v>
+      </c>
+      <c r="AF9" s="11">
+        <v>77.37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
@@ -17217,17 +18232,26 @@
       <c r="Y10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Z10" s="11">
+      <c r="Z10">
         <v>27932.68</v>
       </c>
-      <c r="AA10" s="11">
+      <c r="AA10">
         <v>27932.68</v>
       </c>
-      <c r="AB10" s="11">
+      <c r="AB10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD10" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="AE10" s="11">
+        <v>49286.720000000001</v>
+      </c>
+      <c r="AF10" s="11">
+        <v>82.14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>855</v>
       </c>
@@ -17261,20 +18285,33 @@
       <c r="P11">
         <v>78705</v>
       </c>
+      <c r="T11">
+        <f>GETPIVOTDATA("Sum of Rating",$S$3)</f>
+        <v>3727.8809999999994</v>
+      </c>
       <c r="Y11" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="Z11" s="11">
+      <c r="Z11">
         <v>142242.6</v>
       </c>
-      <c r="AA11" s="11">
+      <c r="AA11">
         <v>71121.3</v>
       </c>
-      <c r="AB11" s="11">
+      <c r="AB11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD11" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>34729.96</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>21.34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>856</v>
       </c>
@@ -17314,17 +18351,26 @@
       <c r="Y12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="Z12" s="11">
+      <c r="Z12">
         <v>42659.75</v>
       </c>
-      <c r="AA12" s="11">
+      <c r="AA12">
         <v>42659.75</v>
       </c>
-      <c r="AB12" s="11">
+      <c r="AB12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD12" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="AE12" s="11">
+        <v>63170.44</v>
+      </c>
+      <c r="AF12" s="11">
+        <v>95.82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>47</v>
       </c>
@@ -17361,17 +18407,22 @@
       <c r="Y13" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="Z13" s="11">
+      <c r="Z13">
         <v>76370.97</v>
       </c>
-      <c r="AA13" s="11">
+      <c r="AA13">
         <v>76370.97</v>
       </c>
-      <c r="AB13" s="11">
+      <c r="AB13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>855</v>
       </c>
@@ -17408,17 +18459,26 @@
       <c r="Y14" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="Z14" s="11">
+      <c r="Z14">
         <v>56303.45</v>
       </c>
-      <c r="AA14" s="11">
+      <c r="AA14">
         <v>56303.45</v>
       </c>
-      <c r="AB14" s="11">
+      <c r="AB14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD14" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE14" s="11">
+        <v>63779.9</v>
+      </c>
+      <c r="AF14" s="11">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>856</v>
       </c>
@@ -17455,17 +18515,26 @@
       <c r="Y15" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="Z15" s="11">
+      <c r="Z15">
         <v>42901.51</v>
       </c>
-      <c r="AA15" s="11">
+      <c r="AA15">
         <v>42901.51</v>
       </c>
-      <c r="AB15" s="11">
+      <c r="AB15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD15" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="AE15" s="11">
+        <v>42901.51</v>
+      </c>
+      <c r="AF15" s="11">
+        <v>14.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>38</v>
       </c>
@@ -17502,17 +18571,26 @@
       <c r="Y16" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="Z16" s="11">
+      <c r="Z16">
         <v>70471.25</v>
       </c>
-      <c r="AA16" s="11">
+      <c r="AA16">
         <v>70471.25</v>
       </c>
-      <c r="AB16" s="11">
+      <c r="AB16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE16" s="11">
+        <v>4157.6499999999996</v>
+      </c>
+      <c r="AF16" s="11">
+        <v>18.07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>855</v>
       </c>
@@ -17549,17 +18627,26 @@
       <c r="Y17" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="Z17" s="11">
+      <c r="Z17">
         <v>81192.95</v>
       </c>
-      <c r="AA17" s="11">
+      <c r="AA17">
         <v>81192.95</v>
       </c>
-      <c r="AB17" s="11">
+      <c r="AB17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD17" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE17" s="11">
+        <v>2676.8</v>
+      </c>
+      <c r="AF17" s="11">
+        <v>62.84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>856</v>
       </c>
@@ -17596,17 +18683,26 @@
       <c r="Y18" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="Z18" s="11">
+      <c r="Z18">
         <v>68436.149999999994</v>
       </c>
-      <c r="AA18" s="11">
+      <c r="AA18">
         <v>68436.149999999994</v>
       </c>
-      <c r="AB18" s="11">
+      <c r="AB18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE18" s="11">
+        <v>50879.73</v>
+      </c>
+      <c r="AF18" s="11">
+        <v>19.48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>66</v>
       </c>
@@ -17643,17 +18739,26 @@
       <c r="Y19" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="Z19" s="11">
+      <c r="Z19">
         <v>33731.56</v>
       </c>
-      <c r="AA19" s="11">
+      <c r="AA19">
         <v>33731.56</v>
       </c>
-      <c r="AB19" s="11">
+      <c r="AB19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE19" s="11">
+        <v>26883.82</v>
+      </c>
+      <c r="AF19" s="11">
+        <v>15.93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>856</v>
       </c>
@@ -17693,17 +18798,22 @@
       <c r="Y20" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="Z20" s="11">
+      <c r="Z20">
         <v>40060.519999999997</v>
       </c>
-      <c r="AA20" s="11">
+      <c r="AA20">
         <v>40060.519999999997</v>
       </c>
-      <c r="AB20" s="11">
+      <c r="AB20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>5</v>
       </c>
@@ -17740,17 +18850,26 @@
       <c r="Y21" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Z21" s="11">
+      <c r="Z21">
         <v>62052.89</v>
       </c>
-      <c r="AA21" s="11">
+      <c r="AA21">
         <v>62052.89</v>
       </c>
-      <c r="AB21" s="11">
+      <c r="AB21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD21" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE21" s="11">
+        <v>11412.23</v>
+      </c>
+      <c r="AF21" s="11">
+        <v>20.28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>855</v>
       </c>
@@ -17787,17 +18906,26 @@
       <c r="Y22" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="Z22" s="11">
+      <c r="Z22">
         <v>86247.96</v>
       </c>
-      <c r="AA22" s="11">
+      <c r="AA22">
         <v>86247.96</v>
       </c>
-      <c r="AB22" s="11">
+      <c r="AB22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE22" s="11">
+        <v>32410.240000000002</v>
+      </c>
+      <c r="AF22" s="11">
+        <v>88.43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>44</v>
       </c>
@@ -17834,17 +18962,22 @@
       <c r="Y23" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="Z23" s="11">
+      <c r="Z23">
         <v>60371.920000000006</v>
       </c>
-      <c r="AA23" s="11">
+      <c r="AA23">
         <v>30185.960000000003</v>
       </c>
-      <c r="AB23" s="11">
+      <c r="AB23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>855</v>
       </c>
@@ -17881,17 +19014,26 @@
       <c r="Y24" s="6" t="s">
         <v>652</v>
       </c>
-      <c r="Z24" s="11">
+      <c r="Z24">
         <v>95703.360000000001</v>
       </c>
-      <c r="AA24" s="11">
+      <c r="AA24">
         <v>47851.68</v>
       </c>
-      <c r="AB24" s="11">
+      <c r="AB24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD24" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="AE24" s="11">
+        <v>63074.64</v>
+      </c>
+      <c r="AF24" s="11">
+        <v>71.47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>856</v>
       </c>
@@ -17928,17 +19070,26 @@
       <c r="Y25" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="Z25" s="11">
+      <c r="Z25">
         <v>54746.71</v>
       </c>
-      <c r="AA25" s="11">
+      <c r="AA25">
         <v>54746.71</v>
       </c>
-      <c r="AB25" s="11">
+      <c r="AB25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD25" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="AE25" s="11">
+        <v>28625.14</v>
+      </c>
+      <c r="AF25" s="11">
+        <v>73.27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>34</v>
       </c>
@@ -17975,17 +19126,26 @@
       <c r="Y26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="Z26" s="11">
+      <c r="Z26">
         <v>3619.93</v>
       </c>
-      <c r="AA26" s="11">
+      <c r="AA26">
         <v>3619.93</v>
       </c>
-      <c r="AB26" s="11">
+      <c r="AB26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE26" s="11">
+        <v>49293.96</v>
+      </c>
+      <c r="AF26" s="11">
+        <v>24.09</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>855</v>
       </c>
@@ -18025,17 +19185,26 @@
       <c r="Y27" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="Z27" s="11">
+      <c r="Z27">
         <v>26128.86</v>
       </c>
-      <c r="AA27" s="11">
+      <c r="AA27">
         <v>26128.86</v>
       </c>
-      <c r="AB27" s="11">
+      <c r="AB27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD27" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="AE27" s="11">
+        <v>35769.71</v>
+      </c>
+      <c r="AF27" s="11">
+        <v>11.03</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>856</v>
       </c>
@@ -18072,17 +19241,26 @@
       <c r="Y28" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="Z28" s="11">
+      <c r="Z28">
         <v>15735.99</v>
       </c>
-      <c r="AA28" s="11">
+      <c r="AA28">
         <v>15735.99</v>
       </c>
-      <c r="AB28" s="11">
+      <c r="AB28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD28" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE28" s="11">
+        <v>25362.35</v>
+      </c>
+      <c r="AF28" s="11">
+        <v>83.62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
@@ -18119,17 +19297,26 @@
       <c r="Y29" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Z29" s="11">
+      <c r="Z29">
         <v>63074.64</v>
       </c>
-      <c r="AA29" s="11">
+      <c r="AA29">
         <v>63074.64</v>
       </c>
-      <c r="AB29" s="11">
+      <c r="AB29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD29" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="AE29" s="11">
+        <v>18650.169999999998</v>
+      </c>
+      <c r="AF29" s="11">
+        <v>35.82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>855</v>
       </c>
@@ -18169,17 +19356,26 @@
       <c r="Y30" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="Z30" s="11">
+      <c r="Z30">
         <v>46521.04</v>
       </c>
-      <c r="AA30" s="11">
+      <c r="AA30">
         <v>46521.04</v>
       </c>
-      <c r="AB30" s="11">
+      <c r="AB30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD30" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="AE30" s="11">
+        <v>6349.19</v>
+      </c>
+      <c r="AF30" s="11">
+        <v>22.42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>17</v>
       </c>
@@ -18216,17 +19412,26 @@
       <c r="Y31" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="Z31" s="11">
+      <c r="Z31">
         <v>123696.19</v>
       </c>
-      <c r="AA31" s="11">
+      <c r="AA31">
         <v>61848.095000000001</v>
       </c>
-      <c r="AB31" s="11">
+      <c r="AB31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD31" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE31" s="11">
+        <v>53087.93</v>
+      </c>
+      <c r="AF31" s="11">
+        <v>12.08</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>855</v>
       </c>
@@ -18263,17 +19468,22 @@
       <c r="Y32" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="Z32" s="11">
+      <c r="Z32">
         <v>85416.21</v>
       </c>
-      <c r="AA32" s="11">
+      <c r="AA32">
         <v>85416.21</v>
       </c>
-      <c r="AB32" s="11">
+      <c r="AB32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD32" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="11"/>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>856</v>
       </c>
@@ -18310,17 +19520,26 @@
       <c r="Y33" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="Z33" s="11">
+      <c r="Z33">
         <v>35270.660000000003</v>
       </c>
-      <c r="AA33" s="11">
+      <c r="AA33">
         <v>35270.660000000003</v>
       </c>
-      <c r="AB33" s="11">
+      <c r="AB33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD33" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="AE33" s="11">
+        <v>336.68</v>
+      </c>
+      <c r="AF33" s="11">
+        <v>26.04</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>61</v>
       </c>
@@ -18357,17 +19576,26 @@
       <c r="Y34" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="Z34" s="11">
+      <c r="Z34">
         <v>79562.95</v>
       </c>
-      <c r="AA34" s="11">
+      <c r="AA34">
         <v>39781.474999999999</v>
       </c>
-      <c r="AB34" s="11">
+      <c r="AB34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE34" s="11">
+        <v>77271.08</v>
+      </c>
+      <c r="AF34" s="11">
+        <v>36.81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>855</v>
       </c>
@@ -18404,17 +19632,22 @@
       <c r="Y35" s="6" t="s">
         <v>728</v>
       </c>
-      <c r="Z35" s="11">
+      <c r="Z35">
         <v>64703.05</v>
       </c>
-      <c r="AA35" s="11">
+      <c r="AA35">
         <v>64703.05</v>
       </c>
-      <c r="AB35" s="11">
+      <c r="AB35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE35" s="11"/>
+      <c r="AF35" s="11"/>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>856</v>
       </c>
@@ -18451,17 +19684,26 @@
       <c r="Y36" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="Z36" s="11">
+      <c r="Z36">
         <v>48578.11</v>
       </c>
-      <c r="AA36" s="11">
+      <c r="AA36">
         <v>48578.11</v>
       </c>
-      <c r="AB36" s="11">
+      <c r="AB36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD36" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="AE36" s="11">
+        <v>86247.96</v>
+      </c>
+      <c r="AF36" s="11">
+        <v>96.17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>22</v>
       </c>
@@ -18498,17 +19740,26 @@
       <c r="Y37" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="Z37" s="11">
+      <c r="Z37">
         <v>8729.49</v>
       </c>
-      <c r="AA37" s="11">
+      <c r="AA37">
         <v>8729.49</v>
       </c>
-      <c r="AB37" s="11">
+      <c r="AB37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD37" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE37" s="11">
+        <v>88525.6</v>
+      </c>
+      <c r="AF37" s="11">
+        <v>11.57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>855</v>
       </c>
@@ -18545,17 +19796,22 @@
       <c r="Y38" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Z38" s="11">
+      <c r="Z38">
         <v>718.49</v>
       </c>
-      <c r="AA38" s="11">
+      <c r="AA38">
         <v>718.49</v>
       </c>
-      <c r="AB38" s="11">
+      <c r="AB38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD38" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="11"/>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>23</v>
       </c>
@@ -18595,17 +19851,26 @@
       <c r="Y39" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="Z39" s="11">
+      <c r="Z39">
         <v>13302.79</v>
       </c>
-      <c r="AA39" s="11">
+      <c r="AA39">
         <v>13302.79</v>
       </c>
-      <c r="AB39" s="11">
+      <c r="AB39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD39" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE39" s="11">
+        <v>62052.89</v>
+      </c>
+      <c r="AF39" s="11">
+        <v>68.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>855</v>
       </c>
@@ -18642,17 +19907,26 @@
       <c r="Y40" s="6" t="s">
         <v>790</v>
       </c>
-      <c r="Z40" s="11">
+      <c r="Z40">
         <v>37203.35</v>
       </c>
-      <c r="AA40" s="11">
+      <c r="AA40">
         <v>37203.35</v>
       </c>
-      <c r="AB40" s="11">
+      <c r="AB40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD40" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="AE40" s="11">
+        <v>82180.23</v>
+      </c>
+      <c r="AF40" s="11">
+        <v>60.51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>856</v>
       </c>
@@ -18689,17 +19963,26 @@
       <c r="Y41" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Z41" s="11">
+      <c r="Z41">
         <v>60972.66</v>
       </c>
-      <c r="AA41" s="11">
+      <c r="AA41">
         <v>60972.66</v>
       </c>
-      <c r="AB41" s="11">
+      <c r="AB41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD41" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="AE41" s="11">
+        <v>7297.22</v>
+      </c>
+      <c r="AF41" s="11">
+        <v>31.19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>71</v>
       </c>
@@ -18736,17 +20019,22 @@
       <c r="Y42" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Z42" s="11">
+      <c r="Z42">
         <v>38717.9</v>
       </c>
-      <c r="AA42" s="11">
+      <c r="AA42">
         <v>38717.9</v>
       </c>
-      <c r="AB42" s="11">
+      <c r="AB42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD42" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE42" s="11"/>
+      <c r="AF42" s="11"/>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>855</v>
       </c>
@@ -18783,17 +20071,26 @@
       <c r="Y43" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Z43" s="11">
+      <c r="Z43">
         <v>36306.9</v>
       </c>
-      <c r="AA43" s="11">
+      <c r="AA43">
         <v>36306.9</v>
       </c>
-      <c r="AB43" s="11">
+      <c r="AB43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE43" s="11">
+        <v>33631.040000000001</v>
+      </c>
+      <c r="AF43" s="11">
+        <v>29.92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>856</v>
       </c>
@@ -18830,17 +20127,26 @@
       <c r="Y44" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="Z44" s="11">
+      <c r="Z44">
         <v>106055.57</v>
       </c>
-      <c r="AA44" s="11">
+      <c r="AA44">
         <v>53027.785000000003</v>
       </c>
-      <c r="AB44" s="11">
+      <c r="AB44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD44" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE44" s="11">
+        <v>88422.06</v>
+      </c>
+      <c r="AF44" s="11">
+        <v>77.63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>53</v>
       </c>
@@ -18880,17 +20186,26 @@
       <c r="Y45" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="Z45" s="11">
+      <c r="Z45">
         <v>28625.14</v>
       </c>
-      <c r="AA45" s="11">
+      <c r="AA45">
         <v>28625.14</v>
       </c>
-      <c r="AB45" s="11">
+      <c r="AB45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE45" s="11">
+        <v>27306.95</v>
+      </c>
+      <c r="AF45" s="11">
+        <v>70.14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>855</v>
       </c>
@@ -18927,17 +20242,26 @@
       <c r="Y46" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="Z46" s="11">
+      <c r="Z46">
         <v>54406.29</v>
       </c>
-      <c r="AA46" s="11">
+      <c r="AA46">
         <v>54406.29</v>
       </c>
-      <c r="AB46" s="11">
+      <c r="AB46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD46" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE46" s="11">
+        <v>571.11</v>
+      </c>
+      <c r="AF46" s="11">
+        <v>28.92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>856</v>
       </c>
@@ -18974,17 +20298,22 @@
       <c r="Y47" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="Z47" s="11">
+      <c r="Z47">
         <v>1374.12</v>
       </c>
-      <c r="AA47" s="11">
+      <c r="AA47">
         <v>1374.12</v>
       </c>
-      <c r="AB47" s="11">
+      <c r="AB47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD47" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE47" s="11"/>
+      <c r="AF47" s="11"/>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>14</v>
       </c>
@@ -19021,17 +20350,26 @@
       <c r="Y48" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="Z48" s="11">
+      <c r="Z48">
         <v>11412.23</v>
       </c>
-      <c r="AA48" s="11">
+      <c r="AA48">
         <v>11412.23</v>
       </c>
-      <c r="AB48" s="11">
+      <c r="AB48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD48" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE48" s="11">
+        <v>22856.21</v>
+      </c>
+      <c r="AF48" s="11">
+        <v>88.86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>856</v>
       </c>
@@ -19071,17 +20409,26 @@
       <c r="Y49" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="Z49" s="11">
+      <c r="Z49">
         <v>12962.91</v>
       </c>
-      <c r="AA49" s="11">
+      <c r="AA49">
         <v>12962.91</v>
       </c>
-      <c r="AB49" s="11">
+      <c r="AB49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD49" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="AE49" s="11">
+        <v>26128.86</v>
+      </c>
+      <c r="AF49" s="11">
+        <v>12.09</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>42</v>
       </c>
@@ -19118,17 +20465,26 @@
       <c r="Y50" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="Z50" s="11">
+      <c r="Z50">
         <v>85264.3</v>
       </c>
-      <c r="AA50" s="11">
+      <c r="AA50">
         <v>85264.3</v>
       </c>
-      <c r="AB50" s="11">
+      <c r="AB50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD50" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE50" s="11">
+        <v>78907.14</v>
+      </c>
+      <c r="AF50" s="11">
+        <v>72.459999999999994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>855</v>
       </c>
@@ -19165,17 +20521,26 @@
       <c r="Y51" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="Z51" s="11">
+      <c r="Z51">
         <v>75262.16</v>
       </c>
-      <c r="AA51" s="11">
+      <c r="AA51">
         <v>37631.08</v>
       </c>
-      <c r="AB51" s="11">
+      <c r="AB51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD51" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE51" s="11">
+        <v>82800.600000000006</v>
+      </c>
+      <c r="AF51" s="11">
+        <v>52.17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>856</v>
       </c>
@@ -19212,17 +20577,22 @@
       <c r="Y52" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Z52" s="11">
+      <c r="Z52">
         <v>30287.159999999996</v>
       </c>
-      <c r="AA52" s="11">
+      <c r="AA52">
         <v>15143.579999999998</v>
       </c>
-      <c r="AB52" s="11">
+      <c r="AB52">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD52" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE52" s="11"/>
+      <c r="AF52" s="11"/>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>2</v>
       </c>
@@ -19259,17 +20629,26 @@
       <c r="Y53" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="Z53" s="11">
+      <c r="Z53">
         <v>87450</v>
       </c>
-      <c r="AA53" s="11">
+      <c r="AA53">
         <v>87450</v>
       </c>
-      <c r="AB53" s="11">
+      <c r="AB53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD53" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="AE53" s="11">
+        <v>13523.13</v>
+      </c>
+      <c r="AF53" s="11">
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>855</v>
       </c>
@@ -19309,17 +20688,26 @@
       <c r="Y54" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="Z54" s="11">
+      <c r="Z54">
         <v>33631.040000000001</v>
       </c>
-      <c r="AA54" s="11">
+      <c r="AA54">
         <v>33631.040000000001</v>
       </c>
-      <c r="AB54" s="11">
+      <c r="AB54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD54" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE54" s="11">
+        <v>56397.440000000002</v>
+      </c>
+      <c r="AF54" s="11">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>856</v>
       </c>
@@ -19356,17 +20744,26 @@
       <c r="Y55" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="Z55" s="11">
+      <c r="Z55">
         <v>7813.36</v>
       </c>
-      <c r="AA55" s="11">
+      <c r="AA55">
         <v>7813.36</v>
       </c>
-      <c r="AB55" s="11">
+      <c r="AB55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD55" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="AE55" s="11">
+        <v>51650.16</v>
+      </c>
+      <c r="AF55" s="11">
+        <v>26.77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>16</v>
       </c>
@@ -19403,17 +20800,26 @@
       <c r="Y56" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="Z56" s="11">
+      <c r="Z56">
         <v>73677.600000000006</v>
       </c>
-      <c r="AA56" s="11">
+      <c r="AA56">
         <v>73677.600000000006</v>
       </c>
-      <c r="AB56" s="11">
+      <c r="AB56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD56" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE56" s="11">
+        <v>70555.59</v>
+      </c>
+      <c r="AF56" s="11">
+        <v>72.11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>855</v>
       </c>
@@ -19450,17 +20856,26 @@
       <c r="Y57" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="Z57" s="11">
+      <c r="Z57">
         <v>66029.7</v>
       </c>
-      <c r="AA57" s="11">
+      <c r="AA57">
         <v>66029.7</v>
       </c>
-      <c r="AB57" s="11">
+      <c r="AB57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD57" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="AE57" s="11">
+        <v>23005.3</v>
+      </c>
+      <c r="AF57" s="11">
+        <v>43.91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>856</v>
       </c>
@@ -19497,17 +20912,26 @@
       <c r="Y58" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="Z58" s="11">
+      <c r="Z58">
         <v>62968.51</v>
       </c>
-      <c r="AA58" s="11">
+      <c r="AA58">
         <v>62968.51</v>
       </c>
-      <c r="AB58" s="11">
+      <c r="AB58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD58" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="AE58" s="11">
+        <v>4118.1499999999996</v>
+      </c>
+      <c r="AF58" s="11">
+        <v>68.760000000000005</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>48</v>
       </c>
@@ -19547,17 +20971,22 @@
       <c r="Y59" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="Z59" s="11">
+      <c r="Z59">
         <v>40847.769999999997</v>
       </c>
-      <c r="AA59" s="11">
+      <c r="AA59">
         <v>40847.769999999997</v>
       </c>
-      <c r="AB59" s="11">
+      <c r="AB59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD59" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE59" s="11"/>
+      <c r="AF59" s="11"/>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>855</v>
       </c>
@@ -19594,17 +21023,26 @@
       <c r="Y60" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="Z60" s="11">
+      <c r="Z60">
         <v>33525.82</v>
       </c>
-      <c r="AA60" s="11">
+      <c r="AA60">
         <v>33525.82</v>
       </c>
-      <c r="AB60" s="11">
+      <c r="AB60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD60" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE60" s="11">
+        <v>82707.17</v>
+      </c>
+      <c r="AF60" s="11">
+        <v>18.14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>856</v>
       </c>
@@ -19641,17 +21079,26 @@
       <c r="Y61" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="Z61" s="11">
+      <c r="Z61">
         <v>41410.54</v>
       </c>
-      <c r="AA61" s="11">
+      <c r="AA61">
         <v>41410.54</v>
       </c>
-      <c r="AB61" s="11">
+      <c r="AB61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD61" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="AE61" s="11">
+        <v>56303.45</v>
+      </c>
+      <c r="AF61" s="11">
+        <v>45.28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>37</v>
       </c>
@@ -19688,17 +21135,26 @@
       <c r="Y62" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="Z62" s="11">
+      <c r="Z62">
         <v>59784.55</v>
       </c>
-      <c r="AA62" s="11">
+      <c r="AA62">
         <v>29892.275000000001</v>
       </c>
-      <c r="AB62" s="11">
+      <c r="AB62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD62" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE62" s="11">
+        <v>70471.25</v>
+      </c>
+      <c r="AF62" s="11">
+        <v>61.26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>855</v>
       </c>
@@ -19735,17 +21191,26 @@
       <c r="Y63" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="Z63" s="11">
+      <c r="Z63">
         <v>58974.98</v>
       </c>
-      <c r="AA63" s="11">
+      <c r="AA63">
         <v>58974.98</v>
       </c>
-      <c r="AB63" s="11">
+      <c r="AB63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD63" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="AE63" s="11">
+        <v>1374.12</v>
+      </c>
+      <c r="AF63" s="11">
+        <v>31.28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>856</v>
       </c>
@@ -19782,17 +21247,26 @@
       <c r="Y64" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="Z64" s="11">
+      <c r="Z64">
         <v>87614.3</v>
       </c>
-      <c r="AA64" s="11">
+      <c r="AA64">
         <v>87614.3</v>
       </c>
-      <c r="AB64" s="11">
+      <c r="AB64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD64" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="AE64" s="11">
+        <v>79167.850000000006</v>
+      </c>
+      <c r="AF64" s="11">
+        <v>70.02</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>13</v>
       </c>
@@ -19829,17 +21303,26 @@
       <c r="Y65" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="Z65" s="11">
+      <c r="Z65">
         <v>2676.8</v>
       </c>
-      <c r="AA65" s="11">
+      <c r="AA65">
         <v>2676.8</v>
       </c>
-      <c r="AB65" s="11">
+      <c r="AB65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD65" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="AE65" s="11">
+        <v>21370.29</v>
+      </c>
+      <c r="AF65" s="11">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>855</v>
       </c>
@@ -19879,17 +21362,26 @@
       <c r="Y66" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="Z66" s="11">
+      <c r="Z66">
         <v>88193.17</v>
       </c>
-      <c r="AA66" s="11">
+      <c r="AA66">
         <v>88193.17</v>
       </c>
-      <c r="AB66" s="11">
+      <c r="AB66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD66" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="AE66" s="11">
+        <v>71699.37</v>
+      </c>
+      <c r="AF66" s="11">
+        <v>71.73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>856</v>
       </c>
@@ -19926,17 +21418,26 @@
       <c r="Y67" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="Z67" s="11">
+      <c r="Z67">
         <v>49293.96</v>
       </c>
-      <c r="AA67" s="11">
+      <c r="AA67">
         <v>49293.96</v>
       </c>
-      <c r="AB67" s="11">
+      <c r="AB67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD67" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE67" s="11">
+        <v>44012.4</v>
+      </c>
+      <c r="AF67" s="11">
+        <v>69.62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>12</v>
       </c>
@@ -19973,17 +21474,22 @@
       <c r="Y68" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="Z68" s="11">
+      <c r="Z68">
         <v>22188.53</v>
       </c>
-      <c r="AA68" s="11">
+      <c r="AA68">
         <v>22188.53</v>
       </c>
-      <c r="AB68" s="11">
+      <c r="AB68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD68" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE68" s="11"/>
+      <c r="AF68" s="11"/>
+    </row>
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>855</v>
       </c>
@@ -20020,17 +21526,26 @@
       <c r="Y69" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Z69" s="11">
+      <c r="Z69">
         <v>32410.240000000002</v>
       </c>
-      <c r="AA69" s="11">
+      <c r="AA69">
         <v>32410.240000000002</v>
       </c>
-      <c r="AB69" s="11">
+      <c r="AB69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD69" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE69" s="11">
+        <v>13864.85</v>
+      </c>
+      <c r="AF69" s="11">
+        <v>16.18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>856</v>
       </c>
@@ -20067,17 +21582,26 @@
       <c r="Y70" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="Z70" s="11">
+      <c r="Z70">
         <v>72390.95</v>
       </c>
-      <c r="AA70" s="11">
+      <c r="AA70">
         <v>36195.474999999999</v>
       </c>
-      <c r="AB70" s="11">
+      <c r="AB70">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD70" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE70" s="11">
+        <v>13302.79</v>
+      </c>
+      <c r="AF70" s="11">
+        <v>63.45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>15</v>
       </c>
@@ -20114,17 +21638,26 @@
       <c r="Y71" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="Z71" s="11">
+      <c r="Z71">
         <v>35769.71</v>
       </c>
-      <c r="AA71" s="11">
+      <c r="AA71">
         <v>35769.71</v>
       </c>
-      <c r="AB71" s="11">
+      <c r="AB71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD71" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE71" s="11">
+        <v>40608.43</v>
+      </c>
+      <c r="AF71" s="11">
+        <v>99.06</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>855</v>
       </c>
@@ -20161,17 +21694,26 @@
       <c r="Y72" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="Z72" s="11">
+      <c r="Z72">
         <v>30923.360000000001</v>
       </c>
-      <c r="AA72" s="11">
+      <c r="AA72">
         <v>30923.360000000001</v>
       </c>
-      <c r="AB72" s="11">
+      <c r="AB72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD72" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="AE72" s="11">
+        <v>33296.620000000003</v>
+      </c>
+      <c r="AF72" s="11">
+        <v>59.12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>856</v>
       </c>
@@ -20208,17 +21750,26 @@
       <c r="Y73" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="Z73" s="11">
+      <c r="Z73">
         <v>336.68</v>
       </c>
-      <c r="AA73" s="11">
+      <c r="AA73">
         <v>336.68</v>
       </c>
-      <c r="AB73" s="11">
+      <c r="AB73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD73" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="AE73" s="11">
+        <v>32464.2</v>
+      </c>
+      <c r="AF73" s="11">
+        <v>38.64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>3</v>
       </c>
@@ -20255,17 +21806,22 @@
       <c r="Y74" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="Z74" s="11">
+      <c r="Z74">
         <v>16107.59</v>
       </c>
-      <c r="AA74" s="11">
+      <c r="AA74">
         <v>16107.59</v>
       </c>
-      <c r="AB74" s="11">
+      <c r="AB74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD74" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE74" s="11"/>
+      <c r="AF74" s="11"/>
+    </row>
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>855</v>
       </c>
@@ -20305,17 +21861,26 @@
       <c r="Y75" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="Z75" s="11">
+      <c r="Z75">
         <v>14941.36</v>
       </c>
-      <c r="AA75" s="11">
+      <c r="AA75">
         <v>14941.36</v>
       </c>
-      <c r="AB75" s="11">
+      <c r="AB75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD75" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="AE75" s="11">
+        <v>55239.21</v>
+      </c>
+      <c r="AF75" s="11">
+        <v>30.05</v>
+      </c>
+    </row>
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>32</v>
       </c>
@@ -20352,17 +21917,26 @@
       <c r="Y76" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="Z76" s="11">
+      <c r="Z76">
         <v>79167.850000000006</v>
       </c>
-      <c r="AA76" s="11">
+      <c r="AA76">
         <v>79167.850000000006</v>
       </c>
-      <c r="AB76" s="11">
+      <c r="AB76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD76" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="AE76" s="11">
+        <v>33731.56</v>
+      </c>
+      <c r="AF76" s="11">
+        <v>67.81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>855</v>
       </c>
@@ -20399,17 +21973,26 @@
       <c r="Y77" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="Z77" s="11">
+      <c r="Z77">
         <v>77271.08</v>
       </c>
-      <c r="AA77" s="11">
+      <c r="AA77">
         <v>77271.08</v>
       </c>
-      <c r="AB77" s="11">
+      <c r="AB77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD77" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE77" s="11">
+        <v>85416.21</v>
+      </c>
+      <c r="AF77" s="11">
+        <v>30.49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>856</v>
       </c>
@@ -20446,17 +22029,26 @@
       <c r="Y78" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="Z78" s="11">
+      <c r="Z78">
         <v>25362.35</v>
       </c>
-      <c r="AA78" s="11">
+      <c r="AA78">
         <v>25362.35</v>
       </c>
-      <c r="AB78" s="11">
+      <c r="AB78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD78" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE78" s="11">
+        <v>56385.51</v>
+      </c>
+      <c r="AF78" s="11">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>28</v>
       </c>
@@ -20493,17 +22085,26 @@
       <c r="Y79" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="Z79" s="11">
+      <c r="Z79">
         <v>49644.62</v>
       </c>
-      <c r="AA79" s="11">
+      <c r="AA79">
         <v>49644.62</v>
       </c>
-      <c r="AB79" s="11">
+      <c r="AB79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD79" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="AE79" s="11">
+        <v>35319.5</v>
+      </c>
+      <c r="AF79" s="11">
+        <v>67.86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>855</v>
       </c>
@@ -20540,17 +22141,26 @@
       <c r="Y80" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="Z80" s="11">
+      <c r="Z80">
         <v>42845.9</v>
       </c>
-      <c r="AA80" s="11">
+      <c r="AA80">
         <v>42845.9</v>
       </c>
-      <c r="AB80" s="11">
+      <c r="AB80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD80" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="AE80" s="11">
+        <v>64562.14</v>
+      </c>
+      <c r="AF80" s="11">
+        <v>93.92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>856</v>
       </c>
@@ -20590,17 +22200,22 @@
       <c r="Y81" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="Z81" s="11">
+      <c r="Z81">
         <v>71538.320000000007</v>
       </c>
-      <c r="AA81" s="11">
+      <c r="AA81">
         <v>71538.320000000007</v>
       </c>
-      <c r="AB81" s="11">
+      <c r="AB81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD81" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE81" s="11"/>
+      <c r="AF81" s="11"/>
+    </row>
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>33</v>
       </c>
@@ -20637,17 +22252,26 @@
       <c r="Y82" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="Z82" s="11">
+      <c r="Z82">
         <v>38046.22</v>
       </c>
-      <c r="AA82" s="11">
+      <c r="AA82">
         <v>38046.22</v>
       </c>
-      <c r="AB82" s="11">
+      <c r="AB82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD82" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="AE82" s="11">
+        <v>46521.04</v>
+      </c>
+      <c r="AF82" s="11">
+        <v>78.78</v>
+      </c>
+    </row>
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>855</v>
       </c>
@@ -20684,17 +22308,26 @@
       <c r="Y83" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="Z83" s="11">
+      <c r="Z83">
         <v>24350.75</v>
       </c>
-      <c r="AA83" s="11">
+      <c r="AA83">
         <v>24350.75</v>
       </c>
-      <c r="AB83" s="11">
+      <c r="AB83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD83" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="AE83" s="11">
+        <v>7813.36</v>
+      </c>
+      <c r="AF83" s="11">
+        <v>75.27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>856</v>
       </c>
@@ -20731,17 +22364,26 @@
       <c r="Y84" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="Z84" s="11">
+      <c r="Z84">
         <v>22863.95</v>
       </c>
-      <c r="AA84" s="11">
+      <c r="AA84">
         <v>22863.95</v>
       </c>
-      <c r="AB84" s="11">
+      <c r="AB84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD84" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE84" s="11">
+        <v>30979.24</v>
+      </c>
+      <c r="AF84" s="11">
+        <v>50.42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>64</v>
       </c>
@@ -20778,17 +22420,26 @@
       <c r="Y85" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="Z85" s="11">
+      <c r="Z85">
         <v>6380.07</v>
       </c>
-      <c r="AA85" s="11">
+      <c r="AA85">
         <v>6380.07</v>
       </c>
-      <c r="AB85" s="11">
+      <c r="AB85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD85" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE85" s="11">
+        <v>83696.009999999995</v>
+      </c>
+      <c r="AF85" s="11">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>855</v>
       </c>
@@ -20825,17 +22476,26 @@
       <c r="Y86" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="Z86" s="11">
+      <c r="Z86">
         <v>29270.35</v>
       </c>
-      <c r="AA86" s="11">
+      <c r="AA86">
         <v>29270.35</v>
       </c>
-      <c r="AB86" s="11">
+      <c r="AB86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD86" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE86" s="11">
+        <v>57571.13</v>
+      </c>
+      <c r="AF86" s="11">
+        <v>66.55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>856</v>
       </c>
@@ -20872,17 +22532,26 @@
       <c r="Y87" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="Z87" s="11">
+      <c r="Z87">
         <v>84391</v>
       </c>
-      <c r="AA87" s="11">
+      <c r="AA87">
         <v>84391</v>
       </c>
-      <c r="AB87" s="11">
+      <c r="AB87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD87" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="AE87" s="11">
+        <v>5829.39</v>
+      </c>
+      <c r="AF87" s="11">
+        <v>86.57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>9</v>
       </c>
@@ -20922,17 +22591,26 @@
       <c r="Y88" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="Z88" s="11">
+      <c r="Z88">
         <v>82849.77</v>
       </c>
-      <c r="AA88" s="11">
+      <c r="AA88">
         <v>82849.77</v>
       </c>
-      <c r="AB88" s="11">
+      <c r="AB88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD88" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="AE88" s="11">
+        <v>80641.86</v>
+      </c>
+      <c r="AF88" s="11">
+        <v>92.03</v>
+      </c>
+    </row>
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>855</v>
       </c>
@@ -20969,17 +22647,26 @@
       <c r="Y89" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="Z89" s="11">
+      <c r="Z89">
         <v>768.33</v>
       </c>
-      <c r="AA89" s="11">
+      <c r="AA89">
         <v>768.33</v>
       </c>
-      <c r="AB89" s="11">
+      <c r="AB89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD89" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="AE89" s="11">
+        <v>50739.62</v>
+      </c>
+      <c r="AF89" s="11">
+        <v>83.58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>856</v>
       </c>
@@ -21016,17 +22703,22 @@
       <c r="Y90" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="Z90" s="11">
+      <c r="Z90">
         <v>55995.7</v>
       </c>
-      <c r="AA90" s="11">
+      <c r="AA90">
         <v>27997.85</v>
       </c>
-      <c r="AB90" s="11">
+      <c r="AB90">
         <v>2</v>
       </c>
-    </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD90" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE90" s="11"/>
+      <c r="AF90" s="11"/>
+    </row>
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>40</v>
       </c>
@@ -21063,17 +22755,26 @@
       <c r="Y91" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="Z91" s="11">
+      <c r="Z91">
         <v>71216.03</v>
       </c>
-      <c r="AA91" s="11">
+      <c r="AA91">
         <v>71216.03</v>
       </c>
-      <c r="AB91" s="11">
+      <c r="AB91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD91" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="AE91" s="11">
+        <v>87003.39</v>
+      </c>
+      <c r="AF91" s="11">
+        <v>65.37</v>
+      </c>
+    </row>
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>855</v>
       </c>
@@ -21110,17 +22811,22 @@
       <c r="Y92" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="Z92" s="11">
+      <c r="Z92">
         <v>40020.46</v>
       </c>
-      <c r="AA92" s="11">
+      <c r="AA92">
         <v>20010.23</v>
       </c>
-      <c r="AB92" s="11">
+      <c r="AB92">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD92" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE92" s="11"/>
+      <c r="AF92" s="11"/>
+    </row>
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>856</v>
       </c>
@@ -21157,17 +22863,26 @@
       <c r="Y93" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="Z93" s="11">
+      <c r="Z93">
         <v>83001.91</v>
       </c>
-      <c r="AA93" s="11">
+      <c r="AA93">
         <v>83001.91</v>
       </c>
-      <c r="AB93" s="11">
+      <c r="AB93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD93" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE93" s="11">
+        <v>42659.75</v>
+      </c>
+      <c r="AF93" s="11">
+        <v>24.87</v>
+      </c>
+    </row>
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>19</v>
       </c>
@@ -21204,17 +22919,26 @@
       <c r="Y94" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="Z94" s="11">
+      <c r="Z94">
         <v>49286.720000000001</v>
       </c>
-      <c r="AA94" s="11">
+      <c r="AA94">
         <v>49286.720000000001</v>
       </c>
-      <c r="AB94" s="11">
+      <c r="AB94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD94" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE94" s="11">
+        <v>40060.519999999997</v>
+      </c>
+      <c r="AF94" s="11">
+        <v>99.92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>855</v>
       </c>
@@ -21251,17 +22975,26 @@
       <c r="Y95" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="Z95" s="11">
+      <c r="Z95">
         <v>20402.2</v>
       </c>
-      <c r="AA95" s="11">
+      <c r="AA95">
         <v>20402.2</v>
       </c>
-      <c r="AB95" s="11">
+      <c r="AB95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD95" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE95" s="11">
+        <v>89704.3</v>
+      </c>
+      <c r="AF95" s="11">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>856</v>
       </c>
@@ -21298,17 +23031,26 @@
       <c r="Y96" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="Z96" s="11">
+      <c r="Z96">
         <v>79331.37</v>
       </c>
-      <c r="AA96" s="11">
+      <c r="AA96">
         <v>79331.37</v>
       </c>
-      <c r="AB96" s="11">
+      <c r="AB96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD96" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE96" s="11">
+        <v>23177.439999999999</v>
+      </c>
+      <c r="AF96" s="11">
+        <v>7.84</v>
+      </c>
+    </row>
+    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>7</v>
       </c>
@@ -21345,17 +23087,26 @@
       <c r="Y97" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="Z97" s="11">
+      <c r="Z97">
         <v>40457.550000000003</v>
       </c>
-      <c r="AA97" s="11">
+      <c r="AA97">
         <v>40457.550000000003</v>
       </c>
-      <c r="AB97" s="11">
+      <c r="AB97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD97" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE97" s="11">
+        <v>60972.66</v>
+      </c>
+      <c r="AF97" s="11">
+        <v>75.36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>856</v>
       </c>
@@ -21392,17 +23143,26 @@
       <c r="Y98" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="Z98" s="11">
+      <c r="Z98">
         <v>83696.009999999995</v>
       </c>
-      <c r="AA98" s="11">
+      <c r="AA98">
         <v>83696.009999999995</v>
       </c>
-      <c r="AB98" s="11">
+      <c r="AB98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD98" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="AE98" s="11">
+        <v>87614.3</v>
+      </c>
+      <c r="AF98" s="11">
+        <v>32.44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>854</v>
       </c>
@@ -21442,17 +23202,26 @@
       <c r="Y99" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Z99" s="11">
+      <c r="Z99">
         <v>182306.34</v>
       </c>
-      <c r="AA99" s="11">
+      <c r="AA99">
         <v>60768.78</v>
       </c>
-      <c r="AB99" s="11">
+      <c r="AB99">
         <v>3</v>
       </c>
-    </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD99" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE99" s="11">
+        <v>54071.839999999997</v>
+      </c>
+      <c r="AF99" s="11">
+        <v>30.66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
       <c r="J100" s="7" t="s">
         <v>57</v>
       </c>
@@ -21474,17 +23243,26 @@
       <c r="Y100" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="Z100" s="11">
+      <c r="Z100">
         <v>167329.20000000001</v>
       </c>
-      <c r="AA100" s="11">
+      <c r="AA100">
         <v>83664.600000000006</v>
       </c>
-      <c r="AB100" s="11">
+      <c r="AB100">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD100" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="AE100" s="11">
+        <v>67620.27</v>
+      </c>
+      <c r="AF100" s="11">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
       <c r="J101" s="7" t="s">
         <v>77</v>
       </c>
@@ -21506,17 +23284,22 @@
       <c r="Y101" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="Z101" s="11">
+      <c r="Z101">
         <v>978.01</v>
       </c>
-      <c r="AA101" s="11">
+      <c r="AA101">
         <v>978.01</v>
       </c>
-      <c r="AB101" s="11">
+      <c r="AB101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD101" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE101" s="11"/>
+      <c r="AF101" s="11"/>
+    </row>
+    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
       <c r="J102" s="7" t="s">
         <v>70</v>
       </c>
@@ -21538,17 +23321,26 @@
       <c r="Y102" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="Z102" s="11">
+      <c r="Z102">
         <v>78772.259999999995</v>
       </c>
-      <c r="AA102" s="11">
+      <c r="AA102">
         <v>78772.259999999995</v>
       </c>
-      <c r="AB102" s="11">
+      <c r="AB102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD102" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE102" s="11">
+        <v>14941.36</v>
+      </c>
+      <c r="AF102" s="11">
+        <v>96.16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
       <c r="J103" s="7" t="s">
         <v>243</v>
       </c>
@@ -21570,17 +23362,22 @@
       <c r="Y103" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="Z103" s="11">
+      <c r="Z103">
         <v>21539.16</v>
       </c>
-      <c r="AA103" s="11">
+      <c r="AA103">
         <v>21539.16</v>
       </c>
-      <c r="AB103" s="11">
+      <c r="AB103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD103" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE103" s="11"/>
+      <c r="AF103" s="11"/>
+    </row>
+    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
       <c r="J104" s="7" t="s">
         <v>11</v>
       </c>
@@ -21602,17 +23399,26 @@
       <c r="Y104" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="Z104" s="11">
+      <c r="Z104">
         <v>61803.49</v>
       </c>
-      <c r="AA104" s="11">
+      <c r="AA104">
         <v>61803.49</v>
       </c>
-      <c r="AB104" s="11">
+      <c r="AB104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD104" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE104" s="11">
+        <v>54406.29</v>
+      </c>
+      <c r="AF104" s="11">
+        <v>91.72</v>
+      </c>
+    </row>
+    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
       <c r="J105" s="7" t="s">
         <v>466</v>
       </c>
@@ -21634,17 +23440,26 @@
       <c r="Y105" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="Z105" s="11">
+      <c r="Z105">
         <v>10628.5</v>
       </c>
-      <c r="AA105" s="11">
+      <c r="AA105">
         <v>10628.5</v>
       </c>
-      <c r="AB105" s="11">
+      <c r="AB105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD105" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="AE105" s="11">
+        <v>38046.22</v>
+      </c>
+      <c r="AF105" s="11">
+        <v>26.58</v>
+      </c>
+    </row>
+    <row r="106" spans="1:32" x14ac:dyDescent="0.25">
       <c r="J106" s="7" t="s">
         <v>255</v>
       </c>
@@ -21666,17 +23481,26 @@
       <c r="Y106" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="Z106" s="11">
+      <c r="Z106">
         <v>51650.16</v>
       </c>
-      <c r="AA106" s="11">
+      <c r="AA106">
         <v>51650.16</v>
       </c>
-      <c r="AB106" s="11">
+      <c r="AB106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD106" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="AE106" s="11">
+        <v>13242.66</v>
+      </c>
+      <c r="AF106" s="11">
+        <v>69.22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:32" x14ac:dyDescent="0.25">
       <c r="J107" s="7" t="s">
         <v>691</v>
       </c>
@@ -21698,17 +23522,26 @@
       <c r="Y107" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="Z107" s="11">
+      <c r="Z107">
         <v>65095.51</v>
       </c>
-      <c r="AA107" s="11">
+      <c r="AA107">
         <v>65095.51</v>
       </c>
-      <c r="AB107" s="11">
+      <c r="AB107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD107" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="AE107" s="11">
+        <v>62371.5</v>
+      </c>
+      <c r="AF107" s="11">
+        <v>55.49</v>
+      </c>
+    </row>
+    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
       <c r="J108" s="6" t="s">
         <v>14</v>
       </c>
@@ -21730,17 +23563,22 @@
       <c r="Y108" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="Z108" s="11">
+      <c r="Z108">
         <v>82800.600000000006</v>
       </c>
-      <c r="AA108" s="11">
+      <c r="AA108">
         <v>82800.600000000006</v>
       </c>
-      <c r="AB108" s="11">
+      <c r="AB108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD108" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE108" s="11"/>
+      <c r="AF108" s="11"/>
+    </row>
+    <row r="109" spans="1:32" x14ac:dyDescent="0.25">
       <c r="J109" s="7" t="s">
         <v>63</v>
       </c>
@@ -21762,17 +23600,26 @@
       <c r="Y109" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="Z109" s="11">
+      <c r="Z109">
         <v>5829.39</v>
       </c>
-      <c r="AA109" s="11">
+      <c r="AA109">
         <v>5829.39</v>
       </c>
-      <c r="AB109" s="11">
+      <c r="AB109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD109" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="AE109" s="11">
+        <v>81192.95</v>
+      </c>
+      <c r="AF109" s="11">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="110" spans="1:32" x14ac:dyDescent="0.25">
       <c r="J110" s="6" t="s">
         <v>42</v>
       </c>
@@ -21797,17 +23644,26 @@
       <c r="Y110" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="Z110" s="11">
+      <c r="Z110">
         <v>78228.34</v>
       </c>
-      <c r="AA110" s="11">
+      <c r="AA110">
         <v>78228.34</v>
       </c>
-      <c r="AB110" s="11">
+      <c r="AB110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD110" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="AE110" s="11">
+        <v>13893.18</v>
+      </c>
+      <c r="AF110" s="11">
+        <v>32.79</v>
+      </c>
+    </row>
+    <row r="111" spans="1:32" x14ac:dyDescent="0.25">
       <c r="J111" s="7" t="s">
         <v>115</v>
       </c>
@@ -21829,17 +23685,26 @@
       <c r="Y111" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="Z111" s="11">
+      <c r="Z111">
         <v>17679.95</v>
       </c>
-      <c r="AA111" s="11">
+      <c r="AA111">
         <v>17679.95</v>
       </c>
-      <c r="AB111" s="11">
+      <c r="AB111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD111" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE111" s="11">
+        <v>73677.600000000006</v>
+      </c>
+      <c r="AF111" s="11">
+        <v>69.930000000000007</v>
+      </c>
+    </row>
+    <row r="112" spans="1:32" x14ac:dyDescent="0.25">
       <c r="J112" s="7" t="s">
         <v>558</v>
       </c>
@@ -21861,17 +23726,26 @@
       <c r="Y112" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="Z112" s="11">
+      <c r="Z112">
         <v>89914.64</v>
       </c>
-      <c r="AA112" s="11">
+      <c r="AA112">
         <v>44957.32</v>
       </c>
-      <c r="AB112" s="11">
+      <c r="AB112">
         <v>2</v>
       </c>
-    </row>
-    <row r="113" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD112" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="AE112" s="11">
+        <v>82849.77</v>
+      </c>
+      <c r="AF112" s="11">
+        <v>43.78</v>
+      </c>
+    </row>
+    <row r="113" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J113" s="7" t="s">
         <v>743</v>
       </c>
@@ -21893,17 +23767,26 @@
       <c r="Y113" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="Z113" s="11">
+      <c r="Z113">
         <v>35488.400000000001</v>
       </c>
-      <c r="AA113" s="11">
+      <c r="AA113">
         <v>35488.400000000001</v>
       </c>
-      <c r="AB113" s="11">
+      <c r="AB113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD113" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE113" s="11">
+        <v>6222.75</v>
+      </c>
+      <c r="AF113" s="11">
+        <v>26.98</v>
+      </c>
+    </row>
+    <row r="114" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J114" s="7" t="s">
         <v>462</v>
       </c>
@@ -21925,17 +23808,22 @@
       <c r="Y114" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="Z114" s="11">
+      <c r="Z114">
         <v>105317</v>
       </c>
-      <c r="AA114" s="11">
+      <c r="AA114">
         <v>52658.5</v>
       </c>
-      <c r="AB114" s="11">
+      <c r="AB114">
         <v>2</v>
       </c>
-    </row>
-    <row r="115" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD114" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE114" s="11"/>
+      <c r="AF114" s="11"/>
+    </row>
+    <row r="115" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J115" s="6" t="s">
         <v>2</v>
       </c>
@@ -21960,17 +23848,26 @@
       <c r="Y115" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="Z115" s="11">
+      <c r="Z115">
         <v>86936.95</v>
       </c>
-      <c r="AA115" s="11">
+      <c r="AA115">
         <v>86936.95</v>
       </c>
-      <c r="AB115" s="11">
+      <c r="AB115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD115" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="AE115" s="11">
+        <v>32905.53</v>
+      </c>
+      <c r="AF115" s="11">
+        <v>56.46</v>
+      </c>
+    </row>
+    <row r="116" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J116" s="7" t="s">
         <v>754</v>
       </c>
@@ -21992,17 +23889,26 @@
       <c r="Y116" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="Z116" s="11">
+      <c r="Z116">
         <v>33997.99</v>
       </c>
-      <c r="AA116" s="11">
+      <c r="AA116">
         <v>33997.99</v>
       </c>
-      <c r="AB116" s="11">
+      <c r="AB116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD116" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE116" s="11">
+        <v>29270.35</v>
+      </c>
+      <c r="AF116" s="11">
+        <v>38.85</v>
+      </c>
+    </row>
+    <row r="117" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J117" s="7" t="s">
         <v>405</v>
       </c>
@@ -22024,17 +23930,26 @@
       <c r="Y117" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Z117" s="11">
+      <c r="Z117">
         <v>6222.75</v>
       </c>
-      <c r="AA117" s="11">
+      <c r="AA117">
         <v>6222.75</v>
       </c>
-      <c r="AB117" s="11">
+      <c r="AB117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD117" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="AE117" s="11">
+        <v>80223.039999999994</v>
+      </c>
+      <c r="AF117" s="11">
+        <v>68.22</v>
+      </c>
+    </row>
+    <row r="118" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J118" s="7" t="s">
         <v>8</v>
       </c>
@@ -22056,17 +23971,26 @@
       <c r="Y118" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="Z118" s="11">
+      <c r="Z118">
         <v>80223.039999999994</v>
       </c>
-      <c r="AA118" s="11">
+      <c r="AA118">
         <v>80223.039999999994</v>
       </c>
-      <c r="AB118" s="11">
+      <c r="AB118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD118" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="AE118" s="11">
+        <v>29801.53</v>
+      </c>
+      <c r="AF118" s="11">
+        <v>33.369999999999997</v>
+      </c>
+    </row>
+    <row r="119" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J119" s="7" t="s">
         <v>383</v>
       </c>
@@ -22088,17 +24012,26 @@
       <c r="Y119" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="Z119" s="11">
+      <c r="Z119">
         <v>71578.97</v>
       </c>
-      <c r="AA119" s="11">
+      <c r="AA119">
         <v>71578.97</v>
       </c>
-      <c r="AB119" s="11">
+      <c r="AB119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD119" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE119" s="11">
+        <v>6435.32</v>
+      </c>
+      <c r="AF119" s="11">
+        <v>86.28</v>
+      </c>
+    </row>
+    <row r="120" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J120" s="7" t="s">
         <v>21</v>
       </c>
@@ -22120,17 +24053,22 @@
       <c r="Y120" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="Z120" s="11">
+      <c r="Z120">
         <v>21442.28</v>
       </c>
-      <c r="AA120" s="11">
+      <c r="AA120">
         <v>21442.28</v>
       </c>
-      <c r="AB120" s="11">
+      <c r="AB120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD120" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE120" s="11"/>
+      <c r="AF120" s="11"/>
+    </row>
+    <row r="121" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J121" s="6" t="s">
         <v>16</v>
       </c>
@@ -22155,17 +24093,26 @@
       <c r="Y121" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="Z121" s="11">
+      <c r="Z121">
         <v>36714.550000000003</v>
       </c>
-      <c r="AA121" s="11">
+      <c r="AA121">
         <v>36714.550000000003</v>
       </c>
-      <c r="AB121" s="11">
+      <c r="AB121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD121" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE121" s="11">
+        <v>48578.11</v>
+      </c>
+      <c r="AF121" s="11">
+        <v>22.34</v>
+      </c>
+    </row>
+    <row r="122" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J122" s="7" t="s">
         <v>617</v>
       </c>
@@ -22187,17 +24134,26 @@
       <c r="Y122" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="Z122" s="11">
+      <c r="Z122">
         <v>6333.53</v>
       </c>
-      <c r="AA122" s="11">
+      <c r="AA122">
         <v>6333.53</v>
       </c>
-      <c r="AB122" s="11">
+      <c r="AB122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD122" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE122" s="11">
+        <v>8729.49</v>
+      </c>
+      <c r="AF122" s="11">
+        <v>87.53</v>
+      </c>
+    </row>
+    <row r="123" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J123" s="7" t="s">
         <v>60</v>
       </c>
@@ -22219,17 +24175,26 @@
       <c r="Y123" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="Z123" s="11">
+      <c r="Z123">
         <v>13242.66</v>
       </c>
-      <c r="AA123" s="11">
+      <c r="AA123">
         <v>13242.66</v>
       </c>
-      <c r="AB123" s="11">
+      <c r="AB123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD123" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE123" s="11">
+        <v>45144.24</v>
+      </c>
+      <c r="AF123" s="11">
+        <v>37.54</v>
+      </c>
+    </row>
+    <row r="124" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J124" s="7" t="s">
         <v>551</v>
       </c>
@@ -22251,17 +24216,26 @@
       <c r="Y124" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="Z124" s="11">
+      <c r="Z124">
         <v>66441.679999999993</v>
       </c>
-      <c r="AA124" s="11">
+      <c r="AA124">
         <v>66441.679999999993</v>
       </c>
-      <c r="AB124" s="11">
+      <c r="AB124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD124" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE124" s="11">
+        <v>49644.62</v>
+      </c>
+      <c r="AF124" s="11">
+        <v>18.420000000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J125" s="7" t="s">
         <v>676</v>
       </c>
@@ -22283,17 +24257,26 @@
       <c r="Y125" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="Z125" s="11">
+      <c r="Z125">
         <v>168499.24000000002</v>
       </c>
-      <c r="AA125" s="11">
+      <c r="AA125">
         <v>56166.413333333338</v>
       </c>
-      <c r="AB125" s="11">
+      <c r="AB125">
         <v>3</v>
       </c>
-    </row>
-    <row r="126" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD125" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE125" s="11">
+        <v>71538.320000000007</v>
+      </c>
+      <c r="AF125" s="11">
+        <v>42.29</v>
+      </c>
+    </row>
+    <row r="126" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J126" s="7" t="s">
         <v>52</v>
       </c>
@@ -22315,17 +24298,26 @@
       <c r="Y126" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="Z126" s="11">
+      <c r="Z126">
         <v>35319.5</v>
       </c>
-      <c r="AA126" s="11">
+      <c r="AA126">
         <v>35319.5</v>
       </c>
-      <c r="AB126" s="11">
+      <c r="AB126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD126" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="AE126" s="11">
+        <v>35488.400000000001</v>
+      </c>
+      <c r="AF126" s="11">
+        <v>72.680000000000007</v>
+      </c>
+    </row>
+    <row r="127" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J127" s="6" t="s">
         <v>48</v>
       </c>
@@ -22350,17 +24342,26 @@
       <c r="Y127" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="Z127" s="11">
+      <c r="Z127">
         <v>74933.490000000005</v>
       </c>
-      <c r="AA127" s="11">
+      <c r="AA127">
         <v>74933.490000000005</v>
       </c>
-      <c r="AB127" s="11">
+      <c r="AB127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD127" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="AE127" s="11">
+        <v>21442.28</v>
+      </c>
+      <c r="AF127" s="11">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="128" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J128" s="7" t="s">
         <v>110</v>
       </c>
@@ -22382,17 +24383,26 @@
       <c r="Y128" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z128" s="11">
+      <c r="Z128">
         <v>48316.49</v>
       </c>
-      <c r="AA128" s="11">
+      <c r="AA128">
         <v>48316.49</v>
       </c>
-      <c r="AB128" s="11">
+      <c r="AB128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD128" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE128" s="11">
+        <v>79446.820000000007</v>
+      </c>
+      <c r="AF128" s="11">
+        <v>33.53</v>
+      </c>
+    </row>
+    <row r="129" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J129" s="7" t="s">
         <v>137</v>
       </c>
@@ -22414,17 +24424,26 @@
       <c r="Y129" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="Z129" s="11">
+      <c r="Z129">
         <v>116663.9</v>
       </c>
-      <c r="AA129" s="11">
+      <c r="AA129">
         <v>58331.95</v>
       </c>
-      <c r="AB129" s="11">
+      <c r="AB129">
         <v>2</v>
       </c>
-    </row>
-    <row r="130" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD129" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="AE129" s="11">
+        <v>89663</v>
+      </c>
+      <c r="AF129" s="11">
+        <v>86.63</v>
+      </c>
+    </row>
+    <row r="130" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J130" s="7" t="s">
         <v>51</v>
       </c>
@@ -22446,17 +24465,22 @@
       <c r="Y130" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="Z130" s="11">
+      <c r="Z130">
         <v>47010.8</v>
       </c>
-      <c r="AA130" s="11">
+      <c r="AA130">
         <v>23505.4</v>
       </c>
-      <c r="AB130" s="11">
+      <c r="AB130">
         <v>2</v>
       </c>
-    </row>
-    <row r="131" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD130" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE130" s="11"/>
+      <c r="AF130" s="11"/>
+    </row>
+    <row r="131" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J131" s="7" t="s">
         <v>487</v>
       </c>
@@ -22478,17 +24502,26 @@
       <c r="Y131" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Z131" s="11">
+      <c r="Z131">
         <v>134091.13999999998</v>
       </c>
-      <c r="AA131" s="11">
+      <c r="AA131">
         <v>44697.046666666662</v>
       </c>
-      <c r="AB131" s="11">
+      <c r="AB131">
         <v>3</v>
       </c>
-    </row>
-    <row r="132" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD131" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="AE131" s="11">
+        <v>85264.3</v>
+      </c>
+      <c r="AF131" s="11">
+        <v>53.22</v>
+      </c>
+    </row>
+    <row r="132" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J132" s="7" t="s">
         <v>211</v>
       </c>
@@ -22510,17 +24543,26 @@
       <c r="Y132" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="Z132" s="11">
+      <c r="Z132">
         <v>80641.86</v>
       </c>
-      <c r="AA132" s="11">
+      <c r="AA132">
         <v>80641.86</v>
       </c>
-      <c r="AB132" s="11">
+      <c r="AB132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD132" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE132" s="11">
+        <v>26129.51</v>
+      </c>
+      <c r="AF132" s="11">
+        <v>67.290000000000006</v>
+      </c>
+    </row>
+    <row r="133" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J133" s="7" t="s">
         <v>683</v>
       </c>
@@ -22542,17 +24584,26 @@
       <c r="Y133" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="Z133" s="11">
+      <c r="Z133">
         <v>86567.11</v>
       </c>
-      <c r="AA133" s="11">
+      <c r="AA133">
         <v>86567.11</v>
       </c>
-      <c r="AB133" s="11">
+      <c r="AB133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD133" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE133" s="11">
+        <v>16107.59</v>
+      </c>
+      <c r="AF133" s="11">
+        <v>33.51</v>
+      </c>
+    </row>
+    <row r="134" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J134" s="7" t="s">
         <v>511</v>
       </c>
@@ -22574,17 +24625,26 @@
       <c r="Y134" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="Z134" s="11">
+      <c r="Z134">
         <v>34956.1</v>
       </c>
-      <c r="AA134" s="11">
+      <c r="AA134">
         <v>17478.05</v>
       </c>
-      <c r="AB134" s="11">
+      <c r="AB134">
         <v>2</v>
       </c>
-    </row>
-    <row r="135" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD134" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE134" s="11">
+        <v>25016.46</v>
+      </c>
+      <c r="AF134" s="11">
+        <v>59.25</v>
+      </c>
+    </row>
+    <row r="135" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J135" s="7" t="s">
         <v>251</v>
       </c>
@@ -22606,17 +24666,26 @@
       <c r="Y135" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="Z135" s="11">
+      <c r="Z135">
         <v>29801.53</v>
       </c>
-      <c r="AA135" s="11">
+      <c r="AA135">
         <v>29801.53</v>
       </c>
-      <c r="AB135" s="11">
+      <c r="AB135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD135" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE135" s="11">
+        <v>45970.59</v>
+      </c>
+      <c r="AF135" s="11">
+        <v>84.76</v>
+      </c>
+    </row>
+    <row r="136" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J136" s="7" t="s">
         <v>479</v>
       </c>
@@ -22638,17 +24707,26 @@
       <c r="Y136" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="Z136" s="11">
+      <c r="Z136">
         <v>571.11</v>
       </c>
-      <c r="AA136" s="11">
+      <c r="AA136">
         <v>571.11</v>
       </c>
-      <c r="AB136" s="11">
+      <c r="AB136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD136" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE136" s="11">
+        <v>65095.51</v>
+      </c>
+      <c r="AF136" s="11">
+        <v>88.55</v>
+      </c>
+    </row>
+    <row r="137" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J137" s="6" t="s">
         <v>37</v>
       </c>
@@ -22673,17 +24751,26 @@
       <c r="Y137" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="Z137" s="11">
+      <c r="Z137">
         <v>43276.33</v>
       </c>
-      <c r="AA137" s="11">
+      <c r="AA137">
         <v>21638.165000000001</v>
       </c>
-      <c r="AB137" s="11">
+      <c r="AB137">
         <v>2</v>
       </c>
-    </row>
-    <row r="138" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD137" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE137" s="11">
+        <v>17679.95</v>
+      </c>
+      <c r="AF137" s="11">
+        <v>83.58</v>
+      </c>
+    </row>
+    <row r="138" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J138" s="7" t="s">
         <v>589</v>
       </c>
@@ -22705,17 +24792,26 @@
       <c r="Y138" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="Z138" s="11">
+      <c r="Z138">
         <v>71699.37</v>
       </c>
-      <c r="AA138" s="11">
+      <c r="AA138">
         <v>71699.37</v>
       </c>
-      <c r="AB138" s="11">
+      <c r="AB138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD138" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="AE138" s="11">
+        <v>82311.7</v>
+      </c>
+      <c r="AF138" s="11">
+        <v>55.66</v>
+      </c>
+    </row>
+    <row r="139" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J139" s="7" t="s">
         <v>24</v>
       </c>
@@ -22737,17 +24833,26 @@
       <c r="Y139" s="6" t="s">
         <v>777</v>
       </c>
-      <c r="Z139" s="11">
+      <c r="Z139">
         <v>37103.4</v>
       </c>
-      <c r="AA139" s="11">
+      <c r="AA139">
         <v>37103.4</v>
       </c>
-      <c r="AB139" s="11">
+      <c r="AB139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD139" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE139" s="11">
+        <v>71347.63</v>
+      </c>
+      <c r="AF139" s="11">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="140" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J140" s="7" t="s">
         <v>360</v>
       </c>
@@ -22769,17 +24874,26 @@
       <c r="Y140" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="Z140" s="11">
+      <c r="Z140">
         <v>48371.360000000001</v>
       </c>
-      <c r="AA140" s="11">
+      <c r="AA140">
         <v>48371.360000000001</v>
       </c>
-      <c r="AB140" s="11">
+      <c r="AB140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD140" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="AE140" s="11">
+        <v>38061.58</v>
+      </c>
+      <c r="AF140" s="11">
+        <v>55.49</v>
+      </c>
+    </row>
+    <row r="141" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J141" s="7" t="s">
         <v>370</v>
       </c>
@@ -22801,17 +24915,22 @@
       <c r="Y141" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="Z141" s="11">
+      <c r="Z141">
         <v>49573.54</v>
       </c>
-      <c r="AA141" s="11">
+      <c r="AA141">
         <v>49573.54</v>
       </c>
-      <c r="AB141" s="11">
+      <c r="AB141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD141" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE141" s="11"/>
+      <c r="AF141" s="11"/>
+    </row>
+    <row r="142" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J142" s="7" t="s">
         <v>25</v>
       </c>
@@ -22833,17 +24952,26 @@
       <c r="Y142" s="6" t="s">
         <v>797</v>
       </c>
-      <c r="Z142" s="11">
+      <c r="Z142">
         <v>38061.58</v>
       </c>
-      <c r="AA142" s="11">
+      <c r="AA142">
         <v>38061.58</v>
       </c>
-      <c r="AB142" s="11">
+      <c r="AB142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD142" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE142" s="11">
+        <v>62968.51</v>
+      </c>
+      <c r="AF142" s="11">
+        <v>82.23</v>
+      </c>
+    </row>
+    <row r="143" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J143" s="7" t="s">
         <v>102</v>
       </c>
@@ -22865,17 +24993,26 @@
       <c r="Y143" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="Z143" s="11">
+      <c r="Z143">
         <v>71549.95</v>
       </c>
-      <c r="AA143" s="11">
+      <c r="AA143">
         <v>71549.95</v>
       </c>
-      <c r="AB143" s="11">
+      <c r="AB143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD143" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE143" s="11">
+        <v>88193.17</v>
+      </c>
+      <c r="AF143" s="11">
+        <v>29.13</v>
+      </c>
+    </row>
+    <row r="144" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J144" s="7" t="s">
         <v>281</v>
       </c>
@@ -22897,17 +25034,26 @@
       <c r="Y144" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="Z144" s="11">
+      <c r="Z144">
         <v>85602.37</v>
       </c>
-      <c r="AA144" s="11">
+      <c r="AA144">
         <v>42801.184999999998</v>
       </c>
-      <c r="AB144" s="11">
+      <c r="AB144">
         <v>2</v>
       </c>
-    </row>
-    <row r="145" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD144" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="AE144" s="11">
+        <v>40457.550000000003</v>
+      </c>
+      <c r="AF144" s="11">
+        <v>14.01</v>
+      </c>
+    </row>
+    <row r="145" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J145" s="7" t="s">
         <v>425</v>
       </c>
@@ -22929,17 +25075,26 @@
       <c r="Y145" s="6" t="s">
         <v>739</v>
       </c>
-      <c r="Z145" s="11">
+      <c r="Z145">
         <v>16035.43</v>
       </c>
-      <c r="AA145" s="11">
+      <c r="AA145">
         <v>16035.43</v>
       </c>
-      <c r="AB145" s="11">
+      <c r="AB145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD145" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="AE145" s="11">
+        <v>61803.49</v>
+      </c>
+      <c r="AF145" s="11">
+        <v>29.04</v>
+      </c>
+    </row>
+    <row r="146" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J146" s="7" t="s">
         <v>58</v>
       </c>
@@ -22961,17 +25116,26 @@
       <c r="Y146" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="Z146" s="11">
+      <c r="Z146">
         <v>34729.96</v>
       </c>
-      <c r="AA146" s="11">
+      <c r="AA146">
         <v>34729.96</v>
       </c>
-      <c r="AB146" s="11">
+      <c r="AB146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD146" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="AE146" s="11">
+        <v>66441.679999999993</v>
+      </c>
+      <c r="AF146" s="11">
+        <v>20.22</v>
+      </c>
+    </row>
+    <row r="147" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J147" s="7" t="s">
         <v>797</v>
       </c>
@@ -22993,17 +25157,26 @@
       <c r="Y147" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="Z147" s="11">
+      <c r="Z147">
         <v>114582.67</v>
       </c>
-      <c r="AA147" s="11">
+      <c r="AA147">
         <v>38194.223333333335</v>
       </c>
-      <c r="AB147" s="11">
+      <c r="AB147">
         <v>3</v>
       </c>
-    </row>
-    <row r="148" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD147" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE147" s="11">
+        <v>36841.01</v>
+      </c>
+      <c r="AF147" s="11">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="148" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J148" s="6" t="s">
         <v>13</v>
       </c>
@@ -23028,17 +25201,26 @@
       <c r="Y148" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="Z148" s="11">
+      <c r="Z148">
         <v>10271.66</v>
       </c>
-      <c r="AA148" s="11">
+      <c r="AA148">
         <v>10271.66</v>
       </c>
-      <c r="AB148" s="11">
+      <c r="AB148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD148" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE148" s="11">
+        <v>71213.23</v>
+      </c>
+      <c r="AF148" s="11">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="149" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J149" s="7" t="s">
         <v>55</v>
       </c>
@@ -23060,17 +25242,22 @@
       <c r="Y149" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="Z149" s="11">
+      <c r="Z149">
         <v>88525.6</v>
       </c>
-      <c r="AA149" s="11">
+      <c r="AA149">
         <v>88525.6</v>
       </c>
-      <c r="AB149" s="11">
+      <c r="AB149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD149" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE149" s="11"/>
+      <c r="AF149" s="11"/>
+    </row>
+    <row r="150" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J150" s="7" t="s">
         <v>49</v>
       </c>
@@ -23092,17 +25279,26 @@
       <c r="Y150" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="Z150" s="11">
+      <c r="Z150">
         <v>89027.92</v>
       </c>
-      <c r="AA150" s="11">
+      <c r="AA150">
         <v>44513.96</v>
       </c>
-      <c r="AB150" s="11">
+      <c r="AB150">
         <v>2</v>
       </c>
-    </row>
-    <row r="151" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD150" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="AE150" s="11">
+        <v>64703.05</v>
+      </c>
+      <c r="AF150" s="11">
+        <v>95.13</v>
+      </c>
+    </row>
+    <row r="151" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J151" s="7" t="s">
         <v>811</v>
       </c>
@@ -23124,17 +25320,26 @@
       <c r="Y151" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="Z151" s="11">
+      <c r="Z151">
         <v>64562.14</v>
       </c>
-      <c r="AA151" s="11">
+      <c r="AA151">
         <v>64562.14</v>
       </c>
-      <c r="AB151" s="11">
+      <c r="AB151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD151" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="AE151" s="11">
+        <v>12962.91</v>
+      </c>
+      <c r="AF151" s="11">
+        <v>14.14</v>
+      </c>
+    </row>
+    <row r="152" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J152" s="7" t="s">
         <v>323</v>
       </c>
@@ -23156,17 +25361,26 @@
       <c r="Y152" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="Z152" s="11">
+      <c r="Z152">
         <v>33296.620000000003</v>
       </c>
-      <c r="AA152" s="11">
+      <c r="AA152">
         <v>33296.620000000003</v>
       </c>
-      <c r="AB152" s="11">
+      <c r="AB152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD152" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="AE152" s="11">
+        <v>41410.54</v>
+      </c>
+      <c r="AF152" s="11">
+        <v>61.66</v>
+      </c>
+    </row>
+    <row r="153" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J153" s="7" t="s">
         <v>348</v>
       </c>
@@ -23188,17 +25402,26 @@
       <c r="Y153" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="Z153" s="11">
+      <c r="Z153">
         <v>115932.38</v>
       </c>
-      <c r="AA153" s="11">
+      <c r="AA153">
         <v>57966.19</v>
       </c>
-      <c r="AB153" s="11">
+      <c r="AB153">
         <v>2</v>
       </c>
-    </row>
-    <row r="154" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD153" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE153" s="11">
+        <v>6380.07</v>
+      </c>
+      <c r="AF153" s="11">
+        <v>78.31</v>
+      </c>
+    </row>
+    <row r="154" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J154" s="7" t="s">
         <v>52</v>
       </c>
@@ -23220,17 +25443,26 @@
       <c r="Y154" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="Z154" s="11">
+      <c r="Z154">
         <v>89663</v>
       </c>
-      <c r="AA154" s="11">
+      <c r="AA154">
         <v>89663</v>
       </c>
-      <c r="AB154" s="11">
+      <c r="AB154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD154" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE154" s="11">
+        <v>78764.62</v>
+      </c>
+      <c r="AF154" s="11">
+        <v>96.17</v>
+      </c>
+    </row>
+    <row r="155" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J155" s="7" t="s">
         <v>215</v>
       </c>
@@ -23252,17 +25484,26 @@
       <c r="Y155" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Z155" s="11">
+      <c r="Z155">
         <v>65413.5</v>
       </c>
-      <c r="AA155" s="11">
+      <c r="AA155">
         <v>65413.5</v>
       </c>
-      <c r="AB155" s="11">
+      <c r="AB155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD155" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE155" s="11">
+        <v>46271.88</v>
+      </c>
+      <c r="AF155" s="11">
+        <v>52.93</v>
+      </c>
+    </row>
+    <row r="156" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J156" s="6" t="s">
         <v>12</v>
       </c>
@@ -23287,17 +25528,26 @@
       <c r="Y156" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="Z156" s="11">
+      <c r="Z156">
         <v>67620.27</v>
       </c>
-      <c r="AA156" s="11">
+      <c r="AA156">
         <v>67620.27</v>
       </c>
-      <c r="AB156" s="11">
+      <c r="AB156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD156" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE156" s="11">
+        <v>74933.490000000005</v>
+      </c>
+      <c r="AF156" s="11">
+        <v>80.260000000000005</v>
+      </c>
+    </row>
+    <row r="157" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J157" s="7" t="s">
         <v>728</v>
       </c>
@@ -23319,17 +25569,26 @@
       <c r="Y157" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="Z157" s="11">
+      <c r="Z157">
         <v>32464.2</v>
       </c>
-      <c r="AA157" s="11">
+      <c r="AA157">
         <v>32464.2</v>
       </c>
-      <c r="AB157" s="11">
+      <c r="AB157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD157" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE157" s="11">
+        <v>66175.759999999995</v>
+      </c>
+      <c r="AF157" s="11">
+        <v>34.630000000000003</v>
+      </c>
+    </row>
+    <row r="158" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J158" s="7" t="s">
         <v>458</v>
       </c>
@@ -23351,17 +25610,26 @@
       <c r="Y158" s="6" t="s">
         <v>805</v>
       </c>
-      <c r="Z158" s="11">
+      <c r="Z158">
         <v>4118.1499999999996</v>
       </c>
-      <c r="AA158" s="11">
+      <c r="AA158">
         <v>4118.1499999999996</v>
       </c>
-      <c r="AB158" s="11">
+      <c r="AB158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD158" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="AE158" s="11">
+        <v>79253.179999999993</v>
+      </c>
+      <c r="AF158" s="11">
+        <v>38.119999999999997</v>
+      </c>
+    </row>
+    <row r="159" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J159" s="7" t="s">
         <v>356</v>
       </c>
@@ -23383,17 +25651,26 @@
       <c r="Y159" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="Z159" s="11">
+      <c r="Z159">
         <v>71213.23</v>
       </c>
-      <c r="AA159" s="11">
+      <c r="AA159">
         <v>71213.23</v>
       </c>
-      <c r="AB159" s="11">
+      <c r="AB159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD159" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="AE159" s="11">
+        <v>21572.26</v>
+      </c>
+      <c r="AF159" s="11">
+        <v>85.44</v>
+      </c>
+    </row>
+    <row r="160" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J160" s="7" t="s">
         <v>208</v>
       </c>
@@ -23415,17 +25692,22 @@
       <c r="Y160" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="Z160" s="11">
+      <c r="Z160">
         <v>200864.43</v>
       </c>
-      <c r="AA160" s="11">
+      <c r="AA160">
         <v>66954.81</v>
       </c>
-      <c r="AB160" s="11">
+      <c r="AB160">
         <v>3</v>
       </c>
-    </row>
-    <row r="161" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD160" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE160" s="11"/>
+      <c r="AF160" s="11"/>
+    </row>
+    <row r="161" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J161" s="7" t="s">
         <v>25</v>
       </c>
@@ -23447,17 +25729,26 @@
       <c r="Y161" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="Z161" s="11">
+      <c r="Z161">
         <v>53087.93</v>
       </c>
-      <c r="AA161" s="11">
+      <c r="AA161">
         <v>53087.93</v>
       </c>
-      <c r="AB161" s="11">
+      <c r="AB161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD161" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE161" s="11">
+        <v>68436.149999999994</v>
+      </c>
+      <c r="AF161" s="11">
+        <v>50.51</v>
+      </c>
+    </row>
+    <row r="162" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J162" s="7" t="s">
         <v>58</v>
       </c>
@@ -23479,17 +25770,26 @@
       <c r="Y162" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="Z162" s="11">
+      <c r="Z162">
         <v>78029.36</v>
       </c>
-      <c r="AA162" s="11">
+      <c r="AA162">
         <v>78029.36</v>
       </c>
-      <c r="AB162" s="11">
+      <c r="AB162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD162" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE162" s="11">
+        <v>56117.91</v>
+      </c>
+      <c r="AF162" s="11">
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="163" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J163" s="7" t="s">
         <v>85</v>
       </c>
@@ -23511,17 +25811,26 @@
       <c r="Y163" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="Z163" s="11">
+      <c r="Z163">
         <v>21572.26</v>
       </c>
-      <c r="AA163" s="11">
+      <c r="AA163">
         <v>21572.26</v>
       </c>
-      <c r="AB163" s="11">
+      <c r="AB163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD163" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE163" s="11">
+        <v>3619.93</v>
+      </c>
+      <c r="AF163" s="11">
+        <v>56.37</v>
+      </c>
+    </row>
+    <row r="164" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J164" s="7" t="s">
         <v>10</v>
       </c>
@@ -23543,17 +25852,26 @@
       <c r="Y164" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="Z164" s="11">
+      <c r="Z164">
         <v>7297.22</v>
       </c>
-      <c r="AA164" s="11">
+      <c r="AA164">
         <v>7297.22</v>
       </c>
-      <c r="AB164" s="11">
+      <c r="AB164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD164" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE164" s="11">
+        <v>36306.9</v>
+      </c>
+      <c r="AF164" s="11">
+        <v>49.25</v>
+      </c>
+    </row>
+    <row r="165" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J165" s="7" t="s">
         <v>621</v>
       </c>
@@ -23575,17 +25893,26 @@
       <c r="Y165" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="Z165" s="11">
+      <c r="Z165">
         <v>138023.07</v>
       </c>
-      <c r="AA165" s="11">
+      <c r="AA165">
         <v>46007.69</v>
       </c>
-      <c r="AB165" s="11">
+      <c r="AB165">
         <v>3</v>
       </c>
-    </row>
-    <row r="166" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD165" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE165" s="11">
+        <v>58974.98</v>
+      </c>
+      <c r="AF165" s="11">
+        <v>88.75</v>
+      </c>
+    </row>
+    <row r="166" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J166" s="7" t="s">
         <v>596</v>
       </c>
@@ -23607,17 +25934,26 @@
       <c r="Y166" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Z166" s="11">
+      <c r="Z166">
         <v>5751.15</v>
       </c>
-      <c r="AA166" s="11">
+      <c r="AA166">
         <v>5751.15</v>
       </c>
-      <c r="AB166" s="11">
+      <c r="AB166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD166" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="AE166" s="11">
+        <v>21539.16</v>
+      </c>
+      <c r="AF166" s="11">
+        <v>58.12</v>
+      </c>
+    </row>
+    <row r="167" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J167" s="6" t="s">
         <v>15</v>
       </c>
@@ -23642,17 +25978,26 @@
       <c r="Y167" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="Z167" s="11">
+      <c r="Z167">
         <v>43316.480000000003</v>
       </c>
-      <c r="AA167" s="11">
+      <c r="AA167">
         <v>43316.480000000003</v>
       </c>
-      <c r="AB167" s="11">
+      <c r="AB167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD167" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE167" s="11">
+        <v>19359.05</v>
+      </c>
+      <c r="AF167" s="11">
+        <v>8.84</v>
+      </c>
+    </row>
+    <row r="168" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J168" s="7" t="s">
         <v>198</v>
       </c>
@@ -23674,17 +26019,26 @@
       <c r="Y168" s="6" t="s">
         <v>854</v>
       </c>
-      <c r="Z168" s="11">
+      <c r="Z168">
         <v>8996331.089999998</v>
       </c>
-      <c r="AA168" s="11">
+      <c r="AA168">
         <v>44981.655449999991</v>
       </c>
-      <c r="AB168" s="11">
+      <c r="AB168">
         <v>200</v>
       </c>
-    </row>
-    <row r="169" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD168" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE168" s="11">
+        <v>36485.56</v>
+      </c>
+      <c r="AF168" s="11">
+        <v>22.16</v>
+      </c>
+    </row>
+    <row r="169" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J169" s="7" t="s">
         <v>68</v>
       </c>
@@ -23703,8 +26057,13 @@
       <c r="P169">
         <v>61730</v>
       </c>
-    </row>
-    <row r="170" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD169" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE169" s="11"/>
+      <c r="AF169" s="11"/>
+    </row>
+    <row r="170" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J170" s="7" t="s">
         <v>6</v>
       </c>
@@ -23723,8 +26082,17 @@
       <c r="P170">
         <v>3982</v>
       </c>
-    </row>
-    <row r="171" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD170" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE170" s="11">
+        <v>4254.01</v>
+      </c>
+      <c r="AF170" s="11">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="171" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J171" s="7" t="s">
         <v>45</v>
       </c>
@@ -23743,8 +26111,17 @@
       <c r="P171">
         <v>39938</v>
       </c>
-    </row>
-    <row r="172" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD171" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE171" s="11">
+        <v>47311.15</v>
+      </c>
+      <c r="AF171" s="11">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="172" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J172" s="7" t="s">
         <v>218</v>
       </c>
@@ -23763,8 +26140,17 @@
       <c r="P172">
         <v>64872</v>
       </c>
-    </row>
-    <row r="173" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD172" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="AE172" s="11">
+        <v>42845.9</v>
+      </c>
+      <c r="AF172" s="11">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="173" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J173" s="7" t="s">
         <v>444</v>
       </c>
@@ -23783,8 +26169,17 @@
       <c r="P173">
         <v>23693</v>
       </c>
-    </row>
-    <row r="174" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD173" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE173" s="11">
+        <v>48316.49</v>
+      </c>
+      <c r="AF173" s="11">
+        <v>99.87</v>
+      </c>
+    </row>
+    <row r="174" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J174" s="7" t="s">
         <v>67</v>
       </c>
@@ -23803,8 +26198,17 @@
       <c r="P174">
         <v>21295</v>
       </c>
-    </row>
-    <row r="175" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD174" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE174" s="11">
+        <v>5751.15</v>
+      </c>
+      <c r="AF174" s="11">
+        <v>79.25</v>
+      </c>
+    </row>
+    <row r="175" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J175" s="7" t="s">
         <v>251</v>
       </c>
@@ -23823,8 +26227,13 @@
       <c r="P175">
         <v>40134</v>
       </c>
-    </row>
-    <row r="176" spans="10:28" x14ac:dyDescent="0.25">
+      <c r="AD175" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE175" s="11"/>
+      <c r="AF175" s="11"/>
+    </row>
+    <row r="176" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J176" s="6" t="s">
         <v>3</v>
       </c>
@@ -23846,8 +26255,17 @@
       <c r="P176">
         <v>163327</v>
       </c>
-    </row>
-    <row r="177" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD176" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE176" s="11">
+        <v>27932.68</v>
+      </c>
+      <c r="AF176" s="11">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="177" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J177" s="7" t="s">
         <v>68</v>
       </c>
@@ -23866,8 +26284,17 @@
       <c r="P177">
         <v>4679</v>
       </c>
-    </row>
-    <row r="178" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD177" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE177" s="11">
+        <v>76370.97</v>
+      </c>
+      <c r="AF177" s="11">
+        <v>69.06</v>
+      </c>
+    </row>
+    <row r="178" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J178" s="7" t="s">
         <v>307</v>
       </c>
@@ -23886,8 +26313,17 @@
       <c r="P178">
         <v>52042</v>
       </c>
-    </row>
-    <row r="179" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD178" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE178" s="11">
+        <v>58282.41</v>
+      </c>
+      <c r="AF178" s="11">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="179" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J179" s="7" t="s">
         <v>694</v>
       </c>
@@ -23906,8 +26342,17 @@
       <c r="P179">
         <v>47130</v>
       </c>
-    </row>
-    <row r="180" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD179" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE179" s="11">
+        <v>24892.78</v>
+      </c>
+      <c r="AF179" s="11">
+        <v>92.18</v>
+      </c>
+    </row>
+    <row r="180" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J180" s="7" t="s">
         <v>91</v>
       </c>
@@ -23926,8 +26371,17 @@
       <c r="P180">
         <v>53148</v>
       </c>
-    </row>
-    <row r="181" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD180" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE180" s="11">
+        <v>10271.66</v>
+      </c>
+      <c r="AF180" s="11">
+        <v>82.02</v>
+      </c>
+    </row>
+    <row r="181" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J181" s="7" t="s">
         <v>26</v>
       </c>
@@ -23946,8 +26400,17 @@
       <c r="P181">
         <v>6326</v>
       </c>
-    </row>
-    <row r="182" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD181" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE181" s="11">
+        <v>45015.519999999997</v>
+      </c>
+      <c r="AF181" s="11">
+        <v>24.37</v>
+      </c>
+    </row>
+    <row r="182" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J182" s="6" t="s">
         <v>32</v>
       </c>
@@ -23969,8 +26432,13 @@
       <c r="P182">
         <v>267043</v>
       </c>
-    </row>
-    <row r="183" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD182" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE182" s="11"/>
+      <c r="AF182" s="11"/>
+    </row>
+    <row r="183" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J183" s="7" t="s">
         <v>31</v>
       </c>
@@ -23989,8 +26457,17 @@
       <c r="P183">
         <v>30726</v>
       </c>
-    </row>
-    <row r="184" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD183" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE183" s="11">
+        <v>22188.53</v>
+      </c>
+      <c r="AF183" s="11">
+        <v>63.92</v>
+      </c>
+    </row>
+    <row r="184" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J184" s="7" t="s">
         <v>225</v>
       </c>
@@ -24009,8 +26486,17 @@
       <c r="P184">
         <v>84008</v>
       </c>
-    </row>
-    <row r="185" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD184" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="AE184" s="11">
+        <v>83001.91</v>
+      </c>
+      <c r="AF184" s="11">
+        <v>97.11</v>
+      </c>
+    </row>
+    <row r="185" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J185" s="7" t="s">
         <v>132</v>
       </c>
@@ -24029,8 +26515,17 @@
       <c r="P185">
         <v>64111</v>
       </c>
-    </row>
-    <row r="186" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD185" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="AE185" s="11">
+        <v>978.01</v>
+      </c>
+      <c r="AF185" s="11">
+        <v>80.349999999999994</v>
+      </c>
+    </row>
+    <row r="186" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J186" s="7" t="s">
         <v>255</v>
       </c>
@@ -24049,8 +26544,17 @@
       <c r="P186">
         <v>27382</v>
       </c>
-    </row>
-    <row r="187" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD186" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="AE186" s="11">
+        <v>78772.259999999995</v>
+      </c>
+      <c r="AF186" s="11">
+        <v>35.76</v>
+      </c>
+    </row>
+    <row r="187" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J187" s="7" t="s">
         <v>269</v>
       </c>
@@ -24069,8 +26573,17 @@
       <c r="P187">
         <v>11299</v>
       </c>
-    </row>
-    <row r="188" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD187" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="AE187" s="11">
+        <v>78228.34</v>
+      </c>
+      <c r="AF187" s="11">
+        <v>41.47</v>
+      </c>
+    </row>
+    <row r="188" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J188" s="7" t="s">
         <v>145</v>
       </c>
@@ -24089,8 +26602,17 @@
       <c r="P188">
         <v>49517</v>
       </c>
-    </row>
-    <row r="189" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD188" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE188" s="11">
+        <v>20126.98</v>
+      </c>
+      <c r="AF188" s="11">
+        <v>27.35</v>
+      </c>
+    </row>
+    <row r="189" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J189" s="6" t="s">
         <v>28</v>
       </c>
@@ -24112,8 +26634,17 @@
       <c r="P189">
         <v>460316</v>
       </c>
-    </row>
-    <row r="190" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD189" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="AE189" s="11">
+        <v>11115.72</v>
+      </c>
+      <c r="AF189" s="11">
+        <v>29.21</v>
+      </c>
+    </row>
+    <row r="190" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J190" s="7" t="s">
         <v>167</v>
       </c>
@@ -24132,8 +26663,17 @@
       <c r="P190">
         <v>24407</v>
       </c>
-    </row>
-    <row r="191" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD190" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="AE190" s="11">
+        <v>37103.4</v>
+      </c>
+      <c r="AF190" s="11">
+        <v>92.84</v>
+      </c>
+    </row>
+    <row r="191" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J191" s="7" t="s">
         <v>607</v>
       </c>
@@ -24152,8 +26692,17 @@
       <c r="P191">
         <v>91302</v>
       </c>
-    </row>
-    <row r="192" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD191" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="AE191" s="11">
+        <v>86954.37</v>
+      </c>
+      <c r="AF191" s="11">
+        <v>32.590000000000003</v>
+      </c>
+    </row>
+    <row r="192" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J192" s="7" t="s">
         <v>528</v>
       </c>
@@ -24172,8 +26721,13 @@
       <c r="P192">
         <v>1076</v>
       </c>
-    </row>
-    <row r="193" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD192" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE192" s="11"/>
+      <c r="AF192" s="11"/>
+    </row>
+    <row r="193" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J193" s="7" t="s">
         <v>507</v>
       </c>
@@ -24192,8 +26746,17 @@
       <c r="P193">
         <v>86649</v>
       </c>
-    </row>
-    <row r="194" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD193" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="AE193" s="11">
+        <v>50924.3</v>
+      </c>
+      <c r="AF193" s="11">
+        <v>35.61</v>
+      </c>
+    </row>
+    <row r="194" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J194" s="7" t="s">
         <v>475</v>
       </c>
@@ -24212,8 +26775,17 @@
       <c r="P194">
         <v>86051</v>
       </c>
-    </row>
-    <row r="195" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD194" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="AE194" s="11">
+        <v>54746.71</v>
+      </c>
+      <c r="AF194" s="11">
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="195" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J195" s="7" t="s">
         <v>106</v>
       </c>
@@ -24232,8 +26804,17 @@
       <c r="P195">
         <v>22140</v>
       </c>
-    </row>
-    <row r="196" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD195" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="AE195" s="11">
+        <v>84391</v>
+      </c>
+      <c r="AF195" s="11">
+        <v>43.9</v>
+      </c>
+    </row>
+    <row r="196" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J196" s="7" t="s">
         <v>635</v>
       </c>
@@ -24252,8 +26833,17 @@
       <c r="P196">
         <v>12227</v>
       </c>
-    </row>
-    <row r="197" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD196" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="AE196" s="11">
+        <v>10628.5</v>
+      </c>
+      <c r="AF196" s="11">
+        <v>22.94</v>
+      </c>
+    </row>
+    <row r="197" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J197" s="7" t="s">
         <v>777</v>
       </c>
@@ -24272,8 +26862,17 @@
       <c r="P197">
         <v>40814</v>
       </c>
-    </row>
-    <row r="198" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD197" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE197" s="11">
+        <v>36714.550000000003</v>
+      </c>
+      <c r="AF197" s="11">
+        <v>23.48</v>
+      </c>
+    </row>
+    <row r="198" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J198" s="7" t="s">
         <v>518</v>
       </c>
@@ -24292,8 +26891,17 @@
       <c r="P198">
         <v>95650</v>
       </c>
-    </row>
-    <row r="199" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD198" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="AE198" s="11">
+        <v>23840.38</v>
+      </c>
+      <c r="AF198" s="11">
+        <v>35.36</v>
+      </c>
+    </row>
+    <row r="199" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J199" s="6" t="s">
         <v>33</v>
       </c>
@@ -24315,8 +26923,17 @@
       <c r="P199">
         <v>405247</v>
       </c>
-    </row>
-    <row r="200" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD199" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE199" s="11">
+        <v>48371.360000000001</v>
+      </c>
+      <c r="AF199" s="11">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="200" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J200" s="7" t="s">
         <v>768</v>
       </c>
@@ -24335,8 +26952,17 @@
       <c r="P200">
         <v>56017</v>
       </c>
-    </row>
-    <row r="201" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD200" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="AE200" s="11">
+        <v>58789.74</v>
+      </c>
+      <c r="AF200" s="11">
+        <v>28.03</v>
+      </c>
+    </row>
+    <row r="201" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J201" s="7" t="s">
         <v>493</v>
       </c>
@@ -24355,8 +26981,13 @@
       <c r="P201">
         <v>60221</v>
       </c>
-    </row>
-    <row r="202" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD201" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE201" s="11"/>
+      <c r="AF201" s="11"/>
+    </row>
+    <row r="202" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J202" s="7" t="s">
         <v>379</v>
       </c>
@@ -24375,8 +27006,17 @@
       <c r="P202">
         <v>92830</v>
       </c>
-    </row>
-    <row r="203" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD202" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE202" s="11">
+        <v>718.49</v>
+      </c>
+      <c r="AF202" s="11">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="203" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J203" s="7" t="s">
         <v>433</v>
       </c>
@@ -24395,8 +27035,17 @@
       <c r="P203">
         <v>11691</v>
       </c>
-    </row>
-    <row r="204" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD203" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE203" s="11">
+        <v>25079.8</v>
+      </c>
+      <c r="AF203" s="11">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="204" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J204" s="7" t="s">
         <v>154</v>
       </c>
@@ -24415,8 +27064,17 @@
       <c r="P204">
         <v>40386</v>
       </c>
-    </row>
-    <row r="205" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD204" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="AE204" s="11">
+        <v>79331.37</v>
+      </c>
+      <c r="AF204" s="11">
+        <v>30.06</v>
+      </c>
+    </row>
+    <row r="205" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J205" s="7" t="s">
         <v>635</v>
       </c>
@@ -24435,8 +27093,17 @@
       <c r="P205">
         <v>26224</v>
       </c>
-    </row>
-    <row r="206" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD205" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="AE205" s="11">
+        <v>6333.53</v>
+      </c>
+      <c r="AF205" s="11">
+        <v>12.92</v>
+      </c>
+    </row>
+    <row r="206" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J206" s="7" t="s">
         <v>387</v>
       </c>
@@ -24455,8 +27122,17 @@
       <c r="P206">
         <v>53208</v>
       </c>
-    </row>
-    <row r="207" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD206" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE206" s="11">
+        <v>58381.49</v>
+      </c>
+      <c r="AF206" s="11">
+        <v>5.63</v>
+      </c>
+    </row>
+    <row r="207" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J207" s="7" t="s">
         <v>462</v>
       </c>
@@ -24475,8 +27151,17 @@
       <c r="P207">
         <v>64669</v>
       </c>
-    </row>
-    <row r="208" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD207" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE207" s="11">
+        <v>35618.050000000003</v>
+      </c>
+      <c r="AF207" s="11">
+        <v>37.49</v>
+      </c>
+    </row>
+    <row r="208" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J208" s="6" t="s">
         <v>64</v>
       </c>
@@ -24498,8 +27183,17 @@
       <c r="P208">
         <v>359489</v>
       </c>
-    </row>
-    <row r="209" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD208" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE208" s="11">
+        <v>78029.36</v>
+      </c>
+      <c r="AF208" s="11">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="209" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J209" s="7" t="s">
         <v>46</v>
       </c>
@@ -24518,8 +27212,17 @@
       <c r="P209">
         <v>790</v>
       </c>
-    </row>
-    <row r="210" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD209" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE209" s="11">
+        <v>43316.480000000003</v>
+      </c>
+      <c r="AF209" s="11">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="210" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J210" s="7" t="s">
         <v>307</v>
       </c>
@@ -24538,8 +27241,13 @@
       <c r="P210">
         <v>27588</v>
       </c>
-    </row>
-    <row r="211" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD210" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE210" s="11"/>
+      <c r="AF210" s="11"/>
+    </row>
+    <row r="211" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J211" s="7" t="s">
         <v>614</v>
       </c>
@@ -24558,8 +27266,17 @@
       <c r="P211">
         <v>87265</v>
       </c>
-    </row>
-    <row r="212" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD211" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE211" s="11">
+        <v>15735.99</v>
+      </c>
+      <c r="AF211" s="11">
+        <v>95.76</v>
+      </c>
+    </row>
+    <row r="212" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J212" s="7" t="s">
         <v>311</v>
       </c>
@@ -24578,8 +27295,17 @@
       <c r="P212">
         <v>6967</v>
       </c>
-    </row>
-    <row r="213" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD212" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE212" s="11">
+        <v>33991.89</v>
+      </c>
+      <c r="AF212" s="11">
+        <v>12.06</v>
+      </c>
+    </row>
+    <row r="213" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J213" s="7" t="s">
         <v>132</v>
       </c>
@@ -24598,8 +27324,17 @@
       <c r="P213">
         <v>64220</v>
       </c>
-    </row>
-    <row r="214" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD213" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="AE213" s="11">
+        <v>66029.7</v>
+      </c>
+      <c r="AF213" s="11">
+        <v>28.16</v>
+      </c>
+    </row>
+    <row r="214" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J214" s="7" t="s">
         <v>255</v>
       </c>
@@ -24618,8 +27353,13 @@
       <c r="P214">
         <v>39180</v>
       </c>
-    </row>
-    <row r="215" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD214" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE214" s="11"/>
+      <c r="AF214" s="11"/>
+    </row>
+    <row r="215" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J215" s="7" t="s">
         <v>43</v>
       </c>
@@ -24638,8 +27378,17 @@
       <c r="P215">
         <v>85832</v>
       </c>
-    </row>
-    <row r="216" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD215" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="AE215" s="11">
+        <v>16459.38</v>
+      </c>
+      <c r="AF215" s="11">
+        <v>47.77</v>
+      </c>
+    </row>
+    <row r="216" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J216" s="7" t="s">
         <v>343</v>
       </c>
@@ -24658,8 +27407,17 @@
       <c r="P216">
         <v>47648</v>
       </c>
-    </row>
-    <row r="217" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD216" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE216" s="11">
+        <v>73875.25</v>
+      </c>
+      <c r="AF216" s="11">
+        <v>96.02</v>
+      </c>
+    </row>
+    <row r="217" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J217" s="6" t="s">
         <v>9</v>
       </c>
@@ -24681,8 +27439,17 @@
       <c r="P217">
         <v>127333</v>
       </c>
-    </row>
-    <row r="218" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD217" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE217" s="11">
+        <v>3387.11</v>
+      </c>
+      <c r="AF217" s="11">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="218" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J218" s="7" t="s">
         <v>186</v>
       </c>
@@ -24701,8 +27468,17 @@
       <c r="P218">
         <v>17310</v>
       </c>
-    </row>
-    <row r="219" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD218" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE218" s="11">
+        <v>768.33</v>
+      </c>
+      <c r="AF218" s="11">
+        <v>84.75</v>
+      </c>
+    </row>
+    <row r="219" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J219" s="7" t="s">
         <v>70</v>
       </c>
@@ -24721,8 +27497,17 @@
       <c r="P219">
         <v>37391</v>
       </c>
-    </row>
-    <row r="220" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD219" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="AE219" s="11">
+        <v>71578.97</v>
+      </c>
+      <c r="AF219" s="11">
+        <v>74.099999999999994</v>
+      </c>
+    </row>
+    <row r="220" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J220" s="7" t="s">
         <v>437</v>
       </c>
@@ -24741,8 +27526,17 @@
       <c r="P220">
         <v>72633</v>
       </c>
-    </row>
-    <row r="221" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD220" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="AE220" s="11">
+        <v>49573.54</v>
+      </c>
+      <c r="AF220" s="11">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="221" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J221" s="6" t="s">
         <v>40</v>
       </c>
@@ -24764,8 +27558,17 @@
       <c r="P221">
         <v>309162</v>
       </c>
-    </row>
-    <row r="222" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD221" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE221" s="11">
+        <v>65413.5</v>
+      </c>
+      <c r="AF221" s="11">
+        <v>30.01</v>
+      </c>
+    </row>
+    <row r="222" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J222" s="7" t="s">
         <v>339</v>
       </c>
@@ -24784,8 +27587,13 @@
       <c r="P222">
         <v>18105</v>
       </c>
-    </row>
-    <row r="223" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD222" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE222" s="11"/>
+      <c r="AF222" s="11"/>
+    </row>
+    <row r="223" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J223" s="7" t="s">
         <v>81</v>
       </c>
@@ -24804,8 +27612,17 @@
       <c r="P223">
         <v>81263</v>
       </c>
-    </row>
-    <row r="224" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD223" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE223" s="11">
+        <v>35270.660000000003</v>
+      </c>
+      <c r="AF223" s="11">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="224" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J224" s="7" t="s">
         <v>177</v>
       </c>
@@ -24824,8 +27641,17 @@
       <c r="P224">
         <v>3726</v>
       </c>
-    </row>
-    <row r="225" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD224" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="AE224" s="11">
+        <v>37203.35</v>
+      </c>
+      <c r="AF224" s="11">
+        <v>97.02</v>
+      </c>
+    </row>
+    <row r="225" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J225" s="7" t="s">
         <v>289</v>
       </c>
@@ -24844,8 +27670,17 @@
       <c r="P225">
         <v>845</v>
       </c>
-    </row>
-    <row r="226" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD225" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="AE225" s="11">
+        <v>61368.98</v>
+      </c>
+      <c r="AF225" s="11">
+        <v>46.41</v>
+      </c>
+    </row>
+    <row r="226" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J226" s="7" t="s">
         <v>525</v>
       </c>
@@ -24864,8 +27699,17 @@
       <c r="P226">
         <v>78737</v>
       </c>
-    </row>
-    <row r="227" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD226" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="AE226" s="11">
+        <v>30923.360000000001</v>
+      </c>
+      <c r="AF226" s="11">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="227" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J227" s="7" t="s">
         <v>471</v>
       </c>
@@ -24884,8 +27728,17 @@
       <c r="P227">
         <v>54531</v>
       </c>
-    </row>
-    <row r="228" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD227" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="AE227" s="11">
+        <v>16035.43</v>
+      </c>
+      <c r="AF227" s="11">
+        <v>35.04</v>
+      </c>
+    </row>
+    <row r="228" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J228" s="7" t="s">
         <v>29</v>
       </c>
@@ -24904,8 +27757,17 @@
       <c r="P228">
         <v>71955</v>
       </c>
-    </row>
-    <row r="229" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD228" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="AE228" s="11">
+        <v>16861.830000000002</v>
+      </c>
+      <c r="AF228" s="11">
+        <v>19.18</v>
+      </c>
+    </row>
+    <row r="229" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J229" s="6" t="s">
         <v>19</v>
       </c>
@@ -24927,8 +27789,13 @@
       <c r="P229">
         <v>217430</v>
       </c>
-    </row>
-    <row r="230" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD229" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE229" s="11"/>
+      <c r="AF229" s="11"/>
+    </row>
+    <row r="230" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J230" s="7" t="s">
         <v>191</v>
       </c>
@@ -24947,8 +27814,17 @@
       <c r="P230">
         <v>38798</v>
       </c>
-    </row>
-    <row r="231" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD230" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE230" s="11">
+        <v>38717.9</v>
+      </c>
+      <c r="AF230" s="11">
+        <v>66.650000000000006</v>
+      </c>
+    </row>
+    <row r="231" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J231" s="7" t="s">
         <v>790</v>
       </c>
@@ -24967,8 +27843,17 @@
       <c r="P231">
         <v>40924</v>
       </c>
-    </row>
-    <row r="232" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD231" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE231" s="11">
+        <v>87450</v>
+      </c>
+      <c r="AF231" s="11">
+        <v>26.14</v>
+      </c>
+    </row>
+    <row r="232" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J232" s="7" t="s">
         <v>405</v>
       </c>
@@ -24987,8 +27872,17 @@
       <c r="P232">
         <v>67506</v>
       </c>
-    </row>
-    <row r="233" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD232" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="AE232" s="11">
+        <v>33525.82</v>
+      </c>
+      <c r="AF232" s="11">
+        <v>86.81</v>
+      </c>
+    </row>
+    <row r="233" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J233" s="7" t="s">
         <v>330</v>
       </c>
@@ -25007,8 +27901,17 @@
       <c r="P233">
         <v>34016</v>
       </c>
-    </row>
-    <row r="234" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD233" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE233" s="11">
+        <v>86567.11</v>
+      </c>
+      <c r="AF233" s="11">
+        <v>84.21</v>
+      </c>
+    </row>
+    <row r="234" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J234" s="7" t="s">
         <v>739</v>
       </c>
@@ -25027,8 +27930,17 @@
       <c r="P234">
         <v>17639</v>
       </c>
-    </row>
-    <row r="235" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="AD234" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="AE234" s="11">
+        <v>8996331.0900000036</v>
+      </c>
+      <c r="AF234" s="11">
+        <v>48.445650000000015</v>
+      </c>
+    </row>
+    <row r="235" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J235" s="7" t="s">
         <v>462</v>
       </c>
@@ -25048,7 +27960,7 @@
         <v>18548</v>
       </c>
     </row>
-    <row r="236" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J236" s="6" t="s">
         <v>7</v>
       </c>
@@ -25068,7 +27980,7 @@
         <v>270887</v>
       </c>
     </row>
-    <row r="237" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J237" s="7" t="s">
         <v>39</v>
       </c>
@@ -25088,7 +28000,7 @@
         <v>42590</v>
       </c>
     </row>
-    <row r="238" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J238" s="7" t="s">
         <v>181</v>
       </c>
@@ -25108,7 +28020,7 @@
         <v>96195</v>
       </c>
     </row>
-    <row r="239" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J239" s="7" t="s">
         <v>365</v>
       </c>
@@ -25128,7 +28040,7 @@
         <v>36878</v>
       </c>
     </row>
-    <row r="240" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J240" s="7" t="s">
         <v>159</v>
       </c>
